--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="825" windowWidth="20535" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="820" windowWidth="20540" windowHeight="9140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.Header" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,12 @@
     <definedName name="TOTALEIF">'Finance 2'!$E$20</definedName>
     <definedName name="YesNo">'Data- TO BE HIDDEN'!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -264,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="396">
   <si>
     <t>1.Header</t>
   </si>
@@ -532,9 +537,6 @@
     <t>Data Extraction for Analysis Module</t>
   </si>
   <si>
-    <t>Work is approximately 70-75% complete and on track for completion for release in End of April 2013.</t>
-  </si>
-  <si>
     <t>Implemented Pedigree Storage &amp; Visualisation Module (Linked to Funding Milestone 4)</t>
   </si>
   <si>
@@ -550,17 +552,10 @@
     <t>Linked to Milestone 10 and 11</t>
   </si>
   <si>
-    <t>Approx 40% complete as Data Extraction is the majority of this milestone.</t>
-  </si>
-  <si>
     <t>Enhanced Data Linkage &amp; Reporting Module Complete (Linked to Funding Milestone 5)</t>
   </si>
   <si>
     <t>Enhanced Data Linkage &amp; Reporting Module</t>
-  </si>
-  <si>
-    <t>Have completed a number of the required reporting enhancements
-ADDITIONAL COMMENT</t>
   </si>
   <si>
     <t>Implemented Registry Management Module (Linked to Funding Milestone 5)</t>
@@ -997,9 +992,6 @@
   </si>
   <si>
     <t>Activity</t>
-  </si>
-  <si>
-    <t>Monthly blog (may synch with twitter)</t>
   </si>
   <si>
     <t>article</t>
@@ -1518,21 +1510,51 @@
   <si>
     <t>Co Inv Actuals (Accum)</t>
   </si>
+  <si>
+    <t>completed, signed off</t>
+  </si>
+  <si>
+    <t>Approx 90% complete as Data Extraction is the majority of this milestone.</t>
+  </si>
+  <si>
+    <t>Have completed required reports, Travis uncovered a few bugs in testing.  Must fix these then get UAT by Nik Zeps group</t>
+  </si>
+  <si>
+    <t>http://thearktools.blogspot.com.au/</t>
+  </si>
+  <si>
+    <t>Monthly blog - 4 blogs since march 25</t>
+  </si>
+  <si>
+    <t>Presented to Princess Margeret Hospital, Telethon Institute of Child Health Research and Health Dep WA staff</t>
+  </si>
+  <si>
+    <t>Have corrected our current website to give up to date information and fix factual errors</t>
+  </si>
+  <si>
+    <t>http://www.wager.org.au/</t>
+  </si>
+  <si>
+    <t>Have corrected NECTaRwebsite to give up to date information and fix factual errors</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[&gt;=1000]#,##0,&quot;&quot;;0"/>
-    <numFmt numFmtId="169" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[&gt;=1000]#,##0,&quot;&quot;;0"/>
+    <numFmt numFmtId="170" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1755,6 +1777,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2831,8 +2859,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="518">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2875,7 +2905,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2979,7 +3009,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2989,7 +3019,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3026,7 +3056,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3059,7 +3089,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3091,7 +3121,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3109,10 +3139,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3201,7 +3231,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3214,27 +3244,27 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3250,7 +3280,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3267,7 +3297,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3315,20 +3345,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3360,7 +3390,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3377,7 +3407,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3407,11 +3437,11 @@
     <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3421,12 +3451,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3435,23 +3465,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3468,10 +3498,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3566,11 +3596,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3578,11 +3608,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3618,7 +3648,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3650,15 +3680,15 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3690,15 +3720,15 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3710,26 +3740,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3741,7 +3771,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3750,24 +3780,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3777,22 +3807,22 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="29" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="29" fillId="12" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3812,18 +3842,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3836,7 +3866,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3846,13 +3876,13 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3861,28 +3891,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3907,23 +3937,23 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3954,15 +3984,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -4029,42 +4059,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4110,8 +4104,46 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1971">
@@ -31699,7 +31731,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -31989,8 +32021,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -32000,29 +32032,29 @@
       <selection activeCell="B35" sqref="B35:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="4.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="5" customWidth="1"/>
-    <col min="15" max="16" width="4.7109375" customWidth="1"/>
-    <col min="17" max="18" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="18" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="11" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="31" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" hidden="1"/>
+    <col min="21" max="21" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="31" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" hidden="1"/>
     <col min="35" max="35" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32121,7 +32153,7 @@
       <c r="B10" s="132"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:35" ht="21.95" customHeight="1">
+    <row r="11" spans="1:35" ht="22" customHeight="1">
       <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
@@ -32139,7 +32171,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:35" ht="18.95" customHeight="1">
+    <row r="12" spans="1:35" ht="19" customHeight="1">
       <c r="A12" s="65"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
@@ -32162,7 +32194,7 @@
       </c>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:35" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="13" spans="1:35" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="65"/>
       <c r="B13" s="12"/>
       <c r="C13" s="30"/>
@@ -32509,7 +32541,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:35" s="4" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:35" s="4" customFormat="1" ht="22" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="474" t="s">
         <v>28</v>
@@ -32603,7 +32635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="87.95" customHeight="1">
+    <row r="35" spans="2:23" ht="88" customHeight="1">
       <c r="B35" s="462"/>
       <c r="C35" s="463"/>
       <c r="D35" s="463"/>
@@ -35585,12 +35617,17 @@
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;D&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;P of &amp;N</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
@@ -35599,13 +35636,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -35689,7 +35726,7 @@
         <v>GREEN</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="23.1" customHeight="1">
+    <row r="10" spans="1:6" ht="23" customHeight="1">
       <c r="A10" s="61"/>
       <c r="B10" s="132"/>
       <c r="D10" s="141" t="s">
@@ -35697,16 +35734,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1"/>
-    <row r="12" spans="1:6" ht="27.95" customHeight="1">
+    <row r="12" spans="1:6" ht="28" customHeight="1">
       <c r="C12" s="5"/>
       <c r="D12" s="155" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
@@ -35714,93 +35751,93 @@
         <v>10</v>
       </c>
       <c r="D13" s="490" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E13" s="490"/>
       <c r="F13" s="490"/>
     </row>
-    <row r="14" spans="1:6" ht="27.95" customHeight="1">
+    <row r="14" spans="1:6" ht="28" customHeight="1">
       <c r="C14" s="154" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="151" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E14" s="152" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F14" s="153" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.95" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" customHeight="1">
       <c r="C15" s="154" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="151" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27.95" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28" customHeight="1">
       <c r="C16" s="154" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="151" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E16" s="152" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="27.95" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="28" customHeight="1">
       <c r="C17" s="154" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="151" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="27.95" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="28" customHeight="1">
       <c r="C18" s="154" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="151" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="27.95" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="28" customHeight="1">
       <c r="C19" s="154" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="151" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E19" s="152" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="33" customHeight="1">
@@ -35808,13 +35845,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="151" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E20" s="152" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="60" customHeight="1">
@@ -35822,27 +35859,27 @@
         <v>8</v>
       </c>
       <c r="D21" s="151" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E21" s="152" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F21" s="153" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="60" customHeight="1">
       <c r="C22" s="376" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D22" s="151" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E22" s="152" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F22" s="153" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -36021,67 +36058,72 @@
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
         <v>276</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>277</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="345" t="s">
         <v>278</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="345" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="345" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="345" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F2" s="125">
         <v>40909</v>
@@ -36090,33 +36132,33 @@
         <v>42004</v>
       </c>
       <c r="H2" s="345" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I2" s="345" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H3" s="345" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I3" s="345" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -36124,16 +36166,16 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H4" s="345" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I4" s="345" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -36141,11 +36183,11 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H5" s="345"/>
       <c r="I5" s="345" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36153,52 +36195,57 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1">
       <c r="C8" s="351" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="16" max="25" width="14.42578125" customWidth="1"/>
+    <col min="16" max="25" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="75" customHeight="1">
@@ -36206,76 +36253,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="233" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="234" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="234" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="234" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="234" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="G1" s="235" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="H1" s="236" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="I1" s="237" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="J1" s="235" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="235" t="s">
+      <c r="K1" s="236" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="236" t="s">
+      <c r="L1" s="237" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="237" t="s">
+      <c r="M1" s="235" t="s">
         <v>305</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="N1" s="236" t="s">
         <v>306</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="O1" s="237" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="237" t="s">
+      <c r="P1" s="238" t="s">
         <v>308</v>
       </c>
-      <c r="M1" s="235" t="s">
+      <c r="Q1" s="238" t="s">
         <v>309</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="R1" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="S1" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="P1" s="238" t="s">
+      <c r="T1" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="Q1" s="238" t="s">
+      <c r="U1" s="247" t="s">
         <v>313</v>
       </c>
-      <c r="R1" s="239" t="s">
+      <c r="V1" s="248" t="s">
         <v>314</v>
       </c>
-      <c r="S1" s="239" t="s">
+      <c r="W1" s="248" t="s">
         <v>315</v>
       </c>
-      <c r="T1" s="239" t="s">
+      <c r="X1" s="248" t="s">
         <v>316</v>
       </c>
-      <c r="U1" s="247" t="s">
+      <c r="Y1" s="249" t="s">
         <v>317</v>
-      </c>
-      <c r="V1" s="248" t="s">
-        <v>318</v>
-      </c>
-      <c r="W1" s="248" t="s">
-        <v>319</v>
-      </c>
-      <c r="X1" s="248" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y1" s="249" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1">
@@ -36778,7 +36825,7 @@
         <v>283000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.95" customHeight="1">
+    <row r="10" spans="1:25" ht="16" customHeight="1">
       <c r="A10" s="229">
         <v>9</v>
       </c>
@@ -36856,7 +36903,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="U16" s="351" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -36866,12 +36913,17 @@
   </protectedRanges>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -36881,17 +36933,17 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -37009,7 +37061,7 @@
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="204" t="str">
         <f>ProjNo</f>
@@ -37022,7 +37074,7 @@
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
     </row>
-    <row r="12" spans="1:5" ht="15.95" customHeight="1">
+    <row r="12" spans="1:5" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="206" t="s">
         <v>42</v>
@@ -37034,7 +37086,7 @@
       <c r="D12" s="208"/>
       <c r="E12" s="65"/>
     </row>
-    <row r="13" spans="1:5" ht="15.95" customHeight="1">
+    <row r="13" spans="1:5" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="209" t="s">
         <v>43</v>
@@ -37046,26 +37098,26 @@
       <c r="D13" s="208"/>
       <c r="E13" s="65"/>
     </row>
-    <row r="14" spans="1:5" ht="15.95" customHeight="1">
+    <row r="14" spans="1:5" ht="16" customHeight="1">
       <c r="A14" s="72"/>
       <c r="B14" s="211"/>
       <c r="C14" s="212"/>
       <c r="D14" s="208"/>
       <c r="E14" s="65"/>
     </row>
-    <row r="15" spans="1:5" ht="18.95" customHeight="1">
+    <row r="15" spans="1:5" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="94" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
       <c r="E15" s="94"/>
     </row>
-    <row r="16" spans="1:5" ht="15.95" customHeight="1">
+    <row r="16" spans="1:5" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -37073,158 +37125,158 @@
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
       <c r="B17" s="346" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="346"/>
     </row>
-    <row r="19" spans="2:10" ht="32.1" customHeight="1">
+    <row r="19" spans="2:10" ht="32" customHeight="1">
       <c r="B19" s="347" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="347" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="347" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="347" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" s="347" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="347" t="s">
+      <c r="G19" s="347" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="347" t="s">
+      <c r="H19" s="347" t="s">
         <v>328</v>
       </c>
-      <c r="E19" s="347" t="s">
+      <c r="I19" s="347" t="s">
         <v>329</v>
       </c>
-      <c r="F19" s="347" t="s">
+      <c r="J19" s="347" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="32" customHeight="1">
+      <c r="B20" s="348" t="s">
         <v>330</v>
       </c>
-      <c r="G19" s="347" t="s">
+      <c r="C20" s="348" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="348" t="s">
         <v>331</v>
       </c>
-      <c r="H19" s="347" t="s">
+      <c r="E20" s="349" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="347" t="s">
+      <c r="F20" s="348" t="s">
         <v>333</v>
-      </c>
-      <c r="J19" s="347" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="32.1" customHeight="1">
-      <c r="B20" s="348" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="348" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="348" t="s">
-        <v>335</v>
-      </c>
-      <c r="E20" s="349" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="348" t="s">
-        <v>337</v>
       </c>
       <c r="G20" s="350">
         <v>54768</v>
       </c>
       <c r="H20" s="348" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I20" s="348" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J20" s="348" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="32.1" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="32" customHeight="1">
       <c r="B21" s="348" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C21" s="348" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D21" s="348" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E21" s="349" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F21" s="348" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G21" s="350">
         <v>42374</v>
       </c>
       <c r="H21" s="348" t="s">
+        <v>334</v>
+      </c>
+      <c r="I21" s="348" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21" s="348" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="32" customHeight="1">
+      <c r="B22" s="348" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="348" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="348" t="s">
         <v>338</v>
       </c>
-      <c r="I21" s="348" t="s">
+      <c r="E22" s="349" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="348" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="32.1" customHeight="1">
-      <c r="B22" s="348" t="s">
-        <v>341</v>
-      </c>
-      <c r="C22" s="348" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="348" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>343</v>
-      </c>
       <c r="F22" s="348" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G22" s="350">
         <v>42374</v>
       </c>
       <c r="H22" s="348" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I22" s="348" t="s">
+        <v>337</v>
+      </c>
+      <c r="J22" s="348" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="32" customHeight="1">
+      <c r="B23" s="348" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="348" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="348" t="s">
         <v>341</v>
       </c>
-      <c r="J22" s="348" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="32.1" customHeight="1">
-      <c r="B23" s="348" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="348" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="348" t="s">
-        <v>345</v>
-      </c>
       <c r="E23" s="349" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F23" s="348" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G23" s="350">
         <v>97714</v>
       </c>
       <c r="H23" s="348" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I23" s="348" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J23" s="348" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="32.1" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="32" customHeight="1">
       <c r="B24" s="348"/>
       <c r="C24" s="348"/>
       <c r="D24" s="348"/>
@@ -37235,7 +37287,7 @@
       <c r="I24" s="348"/>
       <c r="J24" s="348"/>
     </row>
-    <row r="25" spans="2:10" ht="32.1" customHeight="1">
+    <row r="25" spans="2:10" ht="32" customHeight="1">
       <c r="B25" s="348"/>
       <c r="C25" s="348"/>
       <c r="D25" s="348"/>
@@ -37246,7 +37298,7 @@
       <c r="I25" s="348"/>
       <c r="J25" s="348"/>
     </row>
-    <row r="26" spans="2:10" ht="32.1" customHeight="1">
+    <row r="26" spans="2:10" ht="32" customHeight="1">
       <c r="B26" s="348"/>
       <c r="C26" s="348"/>
       <c r="D26" s="348"/>
@@ -37257,7 +37309,7 @@
       <c r="I26" s="348"/>
       <c r="J26" s="348"/>
     </row>
-    <row r="27" spans="2:10" ht="32.1" customHeight="1">
+    <row r="27" spans="2:10" ht="32" customHeight="1">
       <c r="B27" s="348"/>
       <c r="C27" s="348"/>
       <c r="D27" s="348"/>
@@ -37268,7 +37320,7 @@
       <c r="I27" s="348"/>
       <c r="J27" s="348"/>
     </row>
-    <row r="28" spans="2:10" ht="32.1" customHeight="1">
+    <row r="28" spans="2:10" ht="32" customHeight="1">
       <c r="B28" s="348"/>
       <c r="C28" s="348"/>
       <c r="D28" s="348"/>
@@ -37279,7 +37331,7 @@
       <c r="I28" s="348"/>
       <c r="J28" s="348"/>
     </row>
-    <row r="29" spans="2:10" ht="32.1" customHeight="1">
+    <row r="29" spans="2:10" ht="32" customHeight="1">
       <c r="B29" s="348"/>
       <c r="C29" s="348"/>
       <c r="D29" s="348"/>
@@ -37290,7 +37342,7 @@
       <c r="I29" s="348"/>
       <c r="J29" s="348"/>
     </row>
-    <row r="30" spans="2:10" ht="32.1" customHeight="1">
+    <row r="30" spans="2:10" ht="32" customHeight="1">
       <c r="B30" s="348"/>
       <c r="C30" s="348"/>
       <c r="D30" s="348"/>
@@ -37301,7 +37353,7 @@
       <c r="I30" s="348"/>
       <c r="J30" s="348"/>
     </row>
-    <row r="31" spans="2:10" ht="32.1" customHeight="1">
+    <row r="31" spans="2:10" ht="32" customHeight="1">
       <c r="B31" s="348"/>
       <c r="C31" s="348"/>
       <c r="D31" s="348"/>
@@ -37312,7 +37364,7 @@
       <c r="I31" s="348"/>
       <c r="J31" s="348"/>
     </row>
-    <row r="32" spans="2:10" ht="32.1" customHeight="1">
+    <row r="32" spans="2:10" ht="32" customHeight="1">
       <c r="B32" s="348"/>
       <c r="C32" s="348"/>
       <c r="D32" s="348"/>
@@ -37323,7 +37375,7 @@
       <c r="I32" s="348"/>
       <c r="J32" s="348"/>
     </row>
-    <row r="33" spans="2:10" ht="32.1" customHeight="1">
+    <row r="33" spans="2:10" ht="32" customHeight="1">
       <c r="B33" s="348"/>
       <c r="C33" s="348"/>
       <c r="D33" s="348"/>
@@ -37334,7 +37386,7 @@
       <c r="I33" s="348"/>
       <c r="J33" s="348"/>
     </row>
-    <row r="34" spans="2:10" ht="32.1" customHeight="1">
+    <row r="34" spans="2:10" ht="32" customHeight="1">
       <c r="B34" s="348"/>
       <c r="C34" s="348"/>
       <c r="D34" s="348"/>
@@ -37345,7 +37397,7 @@
       <c r="I34" s="348"/>
       <c r="J34" s="348"/>
     </row>
-    <row r="35" spans="2:10" ht="32.1" customHeight="1">
+    <row r="35" spans="2:10" ht="32" customHeight="1">
       <c r="B35" s="348"/>
       <c r="C35" s="348"/>
       <c r="D35" s="348"/>
@@ -37356,7 +37408,7 @@
       <c r="I35" s="348"/>
       <c r="J35" s="348"/>
     </row>
-    <row r="36" spans="2:10" ht="32.1" customHeight="1">
+    <row r="36" spans="2:10" ht="32" customHeight="1">
       <c r="B36" s="348"/>
       <c r="C36" s="348"/>
       <c r="D36" s="348"/>
@@ -37936,27 +37988,37 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
   <dimension ref="A1:WVW57"/>
@@ -37965,721 +38027,721 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="354" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="354" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="354" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="354" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="354" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="354" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="354" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="354" customWidth="1"/>
     <col min="5" max="5" width="13" style="354" customWidth="1"/>
     <col min="6" max="8" width="14" style="354" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="354" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="354" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="354" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="354" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="354" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="354" customWidth="1"/>
     <col min="12" max="12" width="14" style="354" customWidth="1"/>
     <col min="13" max="13" width="17" style="354" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="354" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="354" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="354" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="354" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="354" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="354" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="354" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="34.42578125" style="354" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" style="354" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="354" customWidth="1"/>
-    <col min="22" max="258" width="8.85546875" style="354"/>
-    <col min="259" max="259" width="9.7109375" style="354" customWidth="1"/>
-    <col min="260" max="260" width="21.85546875" style="354" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="354" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" style="354" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" style="354" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="354" customWidth="1"/>
+    <col min="22" max="258" width="8.83203125" style="354"/>
+    <col min="259" max="259" width="9.6640625" style="354" customWidth="1"/>
+    <col min="260" max="260" width="21.83203125" style="354" customWidth="1"/>
     <col min="261" max="261" width="13" style="354" customWidth="1"/>
     <col min="262" max="264" width="14" style="354" customWidth="1"/>
-    <col min="265" max="265" width="17.140625" style="354" customWidth="1"/>
-    <col min="266" max="266" width="17.7109375" style="354" customWidth="1"/>
-    <col min="267" max="267" width="16.28515625" style="354" customWidth="1"/>
+    <col min="265" max="265" width="17.1640625" style="354" customWidth="1"/>
+    <col min="266" max="266" width="17.6640625" style="354" customWidth="1"/>
+    <col min="267" max="267" width="16.33203125" style="354" customWidth="1"/>
     <col min="268" max="268" width="14" style="354" customWidth="1"/>
     <col min="269" max="269" width="17" style="354" customWidth="1"/>
-    <col min="270" max="270" width="14.42578125" style="354" customWidth="1"/>
-    <col min="271" max="514" width="8.85546875" style="354"/>
-    <col min="515" max="515" width="9.7109375" style="354" customWidth="1"/>
-    <col min="516" max="516" width="21.85546875" style="354" customWidth="1"/>
+    <col min="270" max="270" width="14.5" style="354" customWidth="1"/>
+    <col min="271" max="514" width="8.83203125" style="354"/>
+    <col min="515" max="515" width="9.6640625" style="354" customWidth="1"/>
+    <col min="516" max="516" width="21.83203125" style="354" customWidth="1"/>
     <col min="517" max="517" width="13" style="354" customWidth="1"/>
     <col min="518" max="520" width="14" style="354" customWidth="1"/>
-    <col min="521" max="521" width="17.140625" style="354" customWidth="1"/>
-    <col min="522" max="522" width="17.7109375" style="354" customWidth="1"/>
-    <col min="523" max="523" width="16.28515625" style="354" customWidth="1"/>
+    <col min="521" max="521" width="17.1640625" style="354" customWidth="1"/>
+    <col min="522" max="522" width="17.6640625" style="354" customWidth="1"/>
+    <col min="523" max="523" width="16.33203125" style="354" customWidth="1"/>
     <col min="524" max="524" width="14" style="354" customWidth="1"/>
     <col min="525" max="525" width="17" style="354" customWidth="1"/>
-    <col min="526" max="526" width="14.42578125" style="354" customWidth="1"/>
-    <col min="527" max="770" width="8.85546875" style="354"/>
-    <col min="771" max="771" width="9.7109375" style="354" customWidth="1"/>
-    <col min="772" max="772" width="21.85546875" style="354" customWidth="1"/>
+    <col min="526" max="526" width="14.5" style="354" customWidth="1"/>
+    <col min="527" max="770" width="8.83203125" style="354"/>
+    <col min="771" max="771" width="9.6640625" style="354" customWidth="1"/>
+    <col min="772" max="772" width="21.83203125" style="354" customWidth="1"/>
     <col min="773" max="773" width="13" style="354" customWidth="1"/>
     <col min="774" max="776" width="14" style="354" customWidth="1"/>
-    <col min="777" max="777" width="17.140625" style="354" customWidth="1"/>
-    <col min="778" max="778" width="17.7109375" style="354" customWidth="1"/>
-    <col min="779" max="779" width="16.28515625" style="354" customWidth="1"/>
+    <col min="777" max="777" width="17.1640625" style="354" customWidth="1"/>
+    <col min="778" max="778" width="17.6640625" style="354" customWidth="1"/>
+    <col min="779" max="779" width="16.33203125" style="354" customWidth="1"/>
     <col min="780" max="780" width="14" style="354" customWidth="1"/>
     <col min="781" max="781" width="17" style="354" customWidth="1"/>
-    <col min="782" max="782" width="14.42578125" style="354" customWidth="1"/>
-    <col min="783" max="1026" width="8.85546875" style="354"/>
-    <col min="1027" max="1027" width="9.7109375" style="354" customWidth="1"/>
-    <col min="1028" max="1028" width="21.85546875" style="354" customWidth="1"/>
+    <col min="782" max="782" width="14.5" style="354" customWidth="1"/>
+    <col min="783" max="1026" width="8.83203125" style="354"/>
+    <col min="1027" max="1027" width="9.6640625" style="354" customWidth="1"/>
+    <col min="1028" max="1028" width="21.83203125" style="354" customWidth="1"/>
     <col min="1029" max="1029" width="13" style="354" customWidth="1"/>
     <col min="1030" max="1032" width="14" style="354" customWidth="1"/>
-    <col min="1033" max="1033" width="17.140625" style="354" customWidth="1"/>
-    <col min="1034" max="1034" width="17.7109375" style="354" customWidth="1"/>
-    <col min="1035" max="1035" width="16.28515625" style="354" customWidth="1"/>
+    <col min="1033" max="1033" width="17.1640625" style="354" customWidth="1"/>
+    <col min="1034" max="1034" width="17.6640625" style="354" customWidth="1"/>
+    <col min="1035" max="1035" width="16.33203125" style="354" customWidth="1"/>
     <col min="1036" max="1036" width="14" style="354" customWidth="1"/>
     <col min="1037" max="1037" width="17" style="354" customWidth="1"/>
-    <col min="1038" max="1038" width="14.42578125" style="354" customWidth="1"/>
-    <col min="1039" max="1282" width="8.85546875" style="354"/>
-    <col min="1283" max="1283" width="9.7109375" style="354" customWidth="1"/>
-    <col min="1284" max="1284" width="21.85546875" style="354" customWidth="1"/>
+    <col min="1038" max="1038" width="14.5" style="354" customWidth="1"/>
+    <col min="1039" max="1282" width="8.83203125" style="354"/>
+    <col min="1283" max="1283" width="9.6640625" style="354" customWidth="1"/>
+    <col min="1284" max="1284" width="21.83203125" style="354" customWidth="1"/>
     <col min="1285" max="1285" width="13" style="354" customWidth="1"/>
     <col min="1286" max="1288" width="14" style="354" customWidth="1"/>
-    <col min="1289" max="1289" width="17.140625" style="354" customWidth="1"/>
-    <col min="1290" max="1290" width="17.7109375" style="354" customWidth="1"/>
-    <col min="1291" max="1291" width="16.28515625" style="354" customWidth="1"/>
+    <col min="1289" max="1289" width="17.1640625" style="354" customWidth="1"/>
+    <col min="1290" max="1290" width="17.6640625" style="354" customWidth="1"/>
+    <col min="1291" max="1291" width="16.33203125" style="354" customWidth="1"/>
     <col min="1292" max="1292" width="14" style="354" customWidth="1"/>
     <col min="1293" max="1293" width="17" style="354" customWidth="1"/>
-    <col min="1294" max="1294" width="14.42578125" style="354" customWidth="1"/>
-    <col min="1295" max="1538" width="8.85546875" style="354"/>
-    <col min="1539" max="1539" width="9.7109375" style="354" customWidth="1"/>
-    <col min="1540" max="1540" width="21.85546875" style="354" customWidth="1"/>
+    <col min="1294" max="1294" width="14.5" style="354" customWidth="1"/>
+    <col min="1295" max="1538" width="8.83203125" style="354"/>
+    <col min="1539" max="1539" width="9.6640625" style="354" customWidth="1"/>
+    <col min="1540" max="1540" width="21.83203125" style="354" customWidth="1"/>
     <col min="1541" max="1541" width="13" style="354" customWidth="1"/>
     <col min="1542" max="1544" width="14" style="354" customWidth="1"/>
-    <col min="1545" max="1545" width="17.140625" style="354" customWidth="1"/>
-    <col min="1546" max="1546" width="17.7109375" style="354" customWidth="1"/>
-    <col min="1547" max="1547" width="16.28515625" style="354" customWidth="1"/>
+    <col min="1545" max="1545" width="17.1640625" style="354" customWidth="1"/>
+    <col min="1546" max="1546" width="17.6640625" style="354" customWidth="1"/>
+    <col min="1547" max="1547" width="16.33203125" style="354" customWidth="1"/>
     <col min="1548" max="1548" width="14" style="354" customWidth="1"/>
     <col min="1549" max="1549" width="17" style="354" customWidth="1"/>
-    <col min="1550" max="1550" width="14.42578125" style="354" customWidth="1"/>
-    <col min="1551" max="1794" width="8.85546875" style="354"/>
-    <col min="1795" max="1795" width="9.7109375" style="354" customWidth="1"/>
-    <col min="1796" max="1796" width="21.85546875" style="354" customWidth="1"/>
+    <col min="1550" max="1550" width="14.5" style="354" customWidth="1"/>
+    <col min="1551" max="1794" width="8.83203125" style="354"/>
+    <col min="1795" max="1795" width="9.6640625" style="354" customWidth="1"/>
+    <col min="1796" max="1796" width="21.83203125" style="354" customWidth="1"/>
     <col min="1797" max="1797" width="13" style="354" customWidth="1"/>
     <col min="1798" max="1800" width="14" style="354" customWidth="1"/>
-    <col min="1801" max="1801" width="17.140625" style="354" customWidth="1"/>
-    <col min="1802" max="1802" width="17.7109375" style="354" customWidth="1"/>
-    <col min="1803" max="1803" width="16.28515625" style="354" customWidth="1"/>
+    <col min="1801" max="1801" width="17.1640625" style="354" customWidth="1"/>
+    <col min="1802" max="1802" width="17.6640625" style="354" customWidth="1"/>
+    <col min="1803" max="1803" width="16.33203125" style="354" customWidth="1"/>
     <col min="1804" max="1804" width="14" style="354" customWidth="1"/>
     <col min="1805" max="1805" width="17" style="354" customWidth="1"/>
-    <col min="1806" max="1806" width="14.42578125" style="354" customWidth="1"/>
-    <col min="1807" max="2050" width="8.85546875" style="354"/>
-    <col min="2051" max="2051" width="9.7109375" style="354" customWidth="1"/>
-    <col min="2052" max="2052" width="21.85546875" style="354" customWidth="1"/>
+    <col min="1806" max="1806" width="14.5" style="354" customWidth="1"/>
+    <col min="1807" max="2050" width="8.83203125" style="354"/>
+    <col min="2051" max="2051" width="9.6640625" style="354" customWidth="1"/>
+    <col min="2052" max="2052" width="21.83203125" style="354" customWidth="1"/>
     <col min="2053" max="2053" width="13" style="354" customWidth="1"/>
     <col min="2054" max="2056" width="14" style="354" customWidth="1"/>
-    <col min="2057" max="2057" width="17.140625" style="354" customWidth="1"/>
-    <col min="2058" max="2058" width="17.7109375" style="354" customWidth="1"/>
-    <col min="2059" max="2059" width="16.28515625" style="354" customWidth="1"/>
+    <col min="2057" max="2057" width="17.1640625" style="354" customWidth="1"/>
+    <col min="2058" max="2058" width="17.6640625" style="354" customWidth="1"/>
+    <col min="2059" max="2059" width="16.33203125" style="354" customWidth="1"/>
     <col min="2060" max="2060" width="14" style="354" customWidth="1"/>
     <col min="2061" max="2061" width="17" style="354" customWidth="1"/>
-    <col min="2062" max="2062" width="14.42578125" style="354" customWidth="1"/>
-    <col min="2063" max="2306" width="8.85546875" style="354"/>
-    <col min="2307" max="2307" width="9.7109375" style="354" customWidth="1"/>
-    <col min="2308" max="2308" width="21.85546875" style="354" customWidth="1"/>
+    <col min="2062" max="2062" width="14.5" style="354" customWidth="1"/>
+    <col min="2063" max="2306" width="8.83203125" style="354"/>
+    <col min="2307" max="2307" width="9.6640625" style="354" customWidth="1"/>
+    <col min="2308" max="2308" width="21.83203125" style="354" customWidth="1"/>
     <col min="2309" max="2309" width="13" style="354" customWidth="1"/>
     <col min="2310" max="2312" width="14" style="354" customWidth="1"/>
-    <col min="2313" max="2313" width="17.140625" style="354" customWidth="1"/>
-    <col min="2314" max="2314" width="17.7109375" style="354" customWidth="1"/>
-    <col min="2315" max="2315" width="16.28515625" style="354" customWidth="1"/>
+    <col min="2313" max="2313" width="17.1640625" style="354" customWidth="1"/>
+    <col min="2314" max="2314" width="17.6640625" style="354" customWidth="1"/>
+    <col min="2315" max="2315" width="16.33203125" style="354" customWidth="1"/>
     <col min="2316" max="2316" width="14" style="354" customWidth="1"/>
     <col min="2317" max="2317" width="17" style="354" customWidth="1"/>
-    <col min="2318" max="2318" width="14.42578125" style="354" customWidth="1"/>
-    <col min="2319" max="2562" width="8.85546875" style="354"/>
-    <col min="2563" max="2563" width="9.7109375" style="354" customWidth="1"/>
-    <col min="2564" max="2564" width="21.85546875" style="354" customWidth="1"/>
+    <col min="2318" max="2318" width="14.5" style="354" customWidth="1"/>
+    <col min="2319" max="2562" width="8.83203125" style="354"/>
+    <col min="2563" max="2563" width="9.6640625" style="354" customWidth="1"/>
+    <col min="2564" max="2564" width="21.83203125" style="354" customWidth="1"/>
     <col min="2565" max="2565" width="13" style="354" customWidth="1"/>
     <col min="2566" max="2568" width="14" style="354" customWidth="1"/>
-    <col min="2569" max="2569" width="17.140625" style="354" customWidth="1"/>
-    <col min="2570" max="2570" width="17.7109375" style="354" customWidth="1"/>
-    <col min="2571" max="2571" width="16.28515625" style="354" customWidth="1"/>
+    <col min="2569" max="2569" width="17.1640625" style="354" customWidth="1"/>
+    <col min="2570" max="2570" width="17.6640625" style="354" customWidth="1"/>
+    <col min="2571" max="2571" width="16.33203125" style="354" customWidth="1"/>
     <col min="2572" max="2572" width="14" style="354" customWidth="1"/>
     <col min="2573" max="2573" width="17" style="354" customWidth="1"/>
-    <col min="2574" max="2574" width="14.42578125" style="354" customWidth="1"/>
-    <col min="2575" max="2818" width="8.85546875" style="354"/>
-    <col min="2819" max="2819" width="9.7109375" style="354" customWidth="1"/>
-    <col min="2820" max="2820" width="21.85546875" style="354" customWidth="1"/>
+    <col min="2574" max="2574" width="14.5" style="354" customWidth="1"/>
+    <col min="2575" max="2818" width="8.83203125" style="354"/>
+    <col min="2819" max="2819" width="9.6640625" style="354" customWidth="1"/>
+    <col min="2820" max="2820" width="21.83203125" style="354" customWidth="1"/>
     <col min="2821" max="2821" width="13" style="354" customWidth="1"/>
     <col min="2822" max="2824" width="14" style="354" customWidth="1"/>
-    <col min="2825" max="2825" width="17.140625" style="354" customWidth="1"/>
-    <col min="2826" max="2826" width="17.7109375" style="354" customWidth="1"/>
-    <col min="2827" max="2827" width="16.28515625" style="354" customWidth="1"/>
+    <col min="2825" max="2825" width="17.1640625" style="354" customWidth="1"/>
+    <col min="2826" max="2826" width="17.6640625" style="354" customWidth="1"/>
+    <col min="2827" max="2827" width="16.33203125" style="354" customWidth="1"/>
     <col min="2828" max="2828" width="14" style="354" customWidth="1"/>
     <col min="2829" max="2829" width="17" style="354" customWidth="1"/>
-    <col min="2830" max="2830" width="14.42578125" style="354" customWidth="1"/>
-    <col min="2831" max="3074" width="8.85546875" style="354"/>
-    <col min="3075" max="3075" width="9.7109375" style="354" customWidth="1"/>
-    <col min="3076" max="3076" width="21.85546875" style="354" customWidth="1"/>
+    <col min="2830" max="2830" width="14.5" style="354" customWidth="1"/>
+    <col min="2831" max="3074" width="8.83203125" style="354"/>
+    <col min="3075" max="3075" width="9.6640625" style="354" customWidth="1"/>
+    <col min="3076" max="3076" width="21.83203125" style="354" customWidth="1"/>
     <col min="3077" max="3077" width="13" style="354" customWidth="1"/>
     <col min="3078" max="3080" width="14" style="354" customWidth="1"/>
-    <col min="3081" max="3081" width="17.140625" style="354" customWidth="1"/>
-    <col min="3082" max="3082" width="17.7109375" style="354" customWidth="1"/>
-    <col min="3083" max="3083" width="16.28515625" style="354" customWidth="1"/>
+    <col min="3081" max="3081" width="17.1640625" style="354" customWidth="1"/>
+    <col min="3082" max="3082" width="17.6640625" style="354" customWidth="1"/>
+    <col min="3083" max="3083" width="16.33203125" style="354" customWidth="1"/>
     <col min="3084" max="3084" width="14" style="354" customWidth="1"/>
     <col min="3085" max="3085" width="17" style="354" customWidth="1"/>
-    <col min="3086" max="3086" width="14.42578125" style="354" customWidth="1"/>
-    <col min="3087" max="3330" width="8.85546875" style="354"/>
-    <col min="3331" max="3331" width="9.7109375" style="354" customWidth="1"/>
-    <col min="3332" max="3332" width="21.85546875" style="354" customWidth="1"/>
+    <col min="3086" max="3086" width="14.5" style="354" customWidth="1"/>
+    <col min="3087" max="3330" width="8.83203125" style="354"/>
+    <col min="3331" max="3331" width="9.6640625" style="354" customWidth="1"/>
+    <col min="3332" max="3332" width="21.83203125" style="354" customWidth="1"/>
     <col min="3333" max="3333" width="13" style="354" customWidth="1"/>
     <col min="3334" max="3336" width="14" style="354" customWidth="1"/>
-    <col min="3337" max="3337" width="17.140625" style="354" customWidth="1"/>
-    <col min="3338" max="3338" width="17.7109375" style="354" customWidth="1"/>
-    <col min="3339" max="3339" width="16.28515625" style="354" customWidth="1"/>
+    <col min="3337" max="3337" width="17.1640625" style="354" customWidth="1"/>
+    <col min="3338" max="3338" width="17.6640625" style="354" customWidth="1"/>
+    <col min="3339" max="3339" width="16.33203125" style="354" customWidth="1"/>
     <col min="3340" max="3340" width="14" style="354" customWidth="1"/>
     <col min="3341" max="3341" width="17" style="354" customWidth="1"/>
-    <col min="3342" max="3342" width="14.42578125" style="354" customWidth="1"/>
-    <col min="3343" max="3586" width="8.85546875" style="354"/>
-    <col min="3587" max="3587" width="9.7109375" style="354" customWidth="1"/>
-    <col min="3588" max="3588" width="21.85546875" style="354" customWidth="1"/>
+    <col min="3342" max="3342" width="14.5" style="354" customWidth="1"/>
+    <col min="3343" max="3586" width="8.83203125" style="354"/>
+    <col min="3587" max="3587" width="9.6640625" style="354" customWidth="1"/>
+    <col min="3588" max="3588" width="21.83203125" style="354" customWidth="1"/>
     <col min="3589" max="3589" width="13" style="354" customWidth="1"/>
     <col min="3590" max="3592" width="14" style="354" customWidth="1"/>
-    <col min="3593" max="3593" width="17.140625" style="354" customWidth="1"/>
-    <col min="3594" max="3594" width="17.7109375" style="354" customWidth="1"/>
-    <col min="3595" max="3595" width="16.28515625" style="354" customWidth="1"/>
+    <col min="3593" max="3593" width="17.1640625" style="354" customWidth="1"/>
+    <col min="3594" max="3594" width="17.6640625" style="354" customWidth="1"/>
+    <col min="3595" max="3595" width="16.33203125" style="354" customWidth="1"/>
     <col min="3596" max="3596" width="14" style="354" customWidth="1"/>
     <col min="3597" max="3597" width="17" style="354" customWidth="1"/>
-    <col min="3598" max="3598" width="14.42578125" style="354" customWidth="1"/>
-    <col min="3599" max="3842" width="8.85546875" style="354"/>
-    <col min="3843" max="3843" width="9.7109375" style="354" customWidth="1"/>
-    <col min="3844" max="3844" width="21.85546875" style="354" customWidth="1"/>
+    <col min="3598" max="3598" width="14.5" style="354" customWidth="1"/>
+    <col min="3599" max="3842" width="8.83203125" style="354"/>
+    <col min="3843" max="3843" width="9.6640625" style="354" customWidth="1"/>
+    <col min="3844" max="3844" width="21.83203125" style="354" customWidth="1"/>
     <col min="3845" max="3845" width="13" style="354" customWidth="1"/>
     <col min="3846" max="3848" width="14" style="354" customWidth="1"/>
-    <col min="3849" max="3849" width="17.140625" style="354" customWidth="1"/>
-    <col min="3850" max="3850" width="17.7109375" style="354" customWidth="1"/>
-    <col min="3851" max="3851" width="16.28515625" style="354" customWidth="1"/>
+    <col min="3849" max="3849" width="17.1640625" style="354" customWidth="1"/>
+    <col min="3850" max="3850" width="17.6640625" style="354" customWidth="1"/>
+    <col min="3851" max="3851" width="16.33203125" style="354" customWidth="1"/>
     <col min="3852" max="3852" width="14" style="354" customWidth="1"/>
     <col min="3853" max="3853" width="17" style="354" customWidth="1"/>
-    <col min="3854" max="3854" width="14.42578125" style="354" customWidth="1"/>
-    <col min="3855" max="4098" width="8.85546875" style="354"/>
-    <col min="4099" max="4099" width="9.7109375" style="354" customWidth="1"/>
-    <col min="4100" max="4100" width="21.85546875" style="354" customWidth="1"/>
+    <col min="3854" max="3854" width="14.5" style="354" customWidth="1"/>
+    <col min="3855" max="4098" width="8.83203125" style="354"/>
+    <col min="4099" max="4099" width="9.6640625" style="354" customWidth="1"/>
+    <col min="4100" max="4100" width="21.83203125" style="354" customWidth="1"/>
     <col min="4101" max="4101" width="13" style="354" customWidth="1"/>
     <col min="4102" max="4104" width="14" style="354" customWidth="1"/>
-    <col min="4105" max="4105" width="17.140625" style="354" customWidth="1"/>
-    <col min="4106" max="4106" width="17.7109375" style="354" customWidth="1"/>
-    <col min="4107" max="4107" width="16.28515625" style="354" customWidth="1"/>
+    <col min="4105" max="4105" width="17.1640625" style="354" customWidth="1"/>
+    <col min="4106" max="4106" width="17.6640625" style="354" customWidth="1"/>
+    <col min="4107" max="4107" width="16.33203125" style="354" customWidth="1"/>
     <col min="4108" max="4108" width="14" style="354" customWidth="1"/>
     <col min="4109" max="4109" width="17" style="354" customWidth="1"/>
-    <col min="4110" max="4110" width="14.42578125" style="354" customWidth="1"/>
-    <col min="4111" max="4354" width="8.85546875" style="354"/>
-    <col min="4355" max="4355" width="9.7109375" style="354" customWidth="1"/>
-    <col min="4356" max="4356" width="21.85546875" style="354" customWidth="1"/>
+    <col min="4110" max="4110" width="14.5" style="354" customWidth="1"/>
+    <col min="4111" max="4354" width="8.83203125" style="354"/>
+    <col min="4355" max="4355" width="9.6640625" style="354" customWidth="1"/>
+    <col min="4356" max="4356" width="21.83203125" style="354" customWidth="1"/>
     <col min="4357" max="4357" width="13" style="354" customWidth="1"/>
     <col min="4358" max="4360" width="14" style="354" customWidth="1"/>
-    <col min="4361" max="4361" width="17.140625" style="354" customWidth="1"/>
-    <col min="4362" max="4362" width="17.7109375" style="354" customWidth="1"/>
-    <col min="4363" max="4363" width="16.28515625" style="354" customWidth="1"/>
+    <col min="4361" max="4361" width="17.1640625" style="354" customWidth="1"/>
+    <col min="4362" max="4362" width="17.6640625" style="354" customWidth="1"/>
+    <col min="4363" max="4363" width="16.33203125" style="354" customWidth="1"/>
     <col min="4364" max="4364" width="14" style="354" customWidth="1"/>
     <col min="4365" max="4365" width="17" style="354" customWidth="1"/>
-    <col min="4366" max="4366" width="14.42578125" style="354" customWidth="1"/>
-    <col min="4367" max="4610" width="8.85546875" style="354"/>
-    <col min="4611" max="4611" width="9.7109375" style="354" customWidth="1"/>
-    <col min="4612" max="4612" width="21.85546875" style="354" customWidth="1"/>
+    <col min="4366" max="4366" width="14.5" style="354" customWidth="1"/>
+    <col min="4367" max="4610" width="8.83203125" style="354"/>
+    <col min="4611" max="4611" width="9.6640625" style="354" customWidth="1"/>
+    <col min="4612" max="4612" width="21.83203125" style="354" customWidth="1"/>
     <col min="4613" max="4613" width="13" style="354" customWidth="1"/>
     <col min="4614" max="4616" width="14" style="354" customWidth="1"/>
-    <col min="4617" max="4617" width="17.140625" style="354" customWidth="1"/>
-    <col min="4618" max="4618" width="17.7109375" style="354" customWidth="1"/>
-    <col min="4619" max="4619" width="16.28515625" style="354" customWidth="1"/>
+    <col min="4617" max="4617" width="17.1640625" style="354" customWidth="1"/>
+    <col min="4618" max="4618" width="17.6640625" style="354" customWidth="1"/>
+    <col min="4619" max="4619" width="16.33203125" style="354" customWidth="1"/>
     <col min="4620" max="4620" width="14" style="354" customWidth="1"/>
     <col min="4621" max="4621" width="17" style="354" customWidth="1"/>
-    <col min="4622" max="4622" width="14.42578125" style="354" customWidth="1"/>
-    <col min="4623" max="4866" width="8.85546875" style="354"/>
-    <col min="4867" max="4867" width="9.7109375" style="354" customWidth="1"/>
-    <col min="4868" max="4868" width="21.85546875" style="354" customWidth="1"/>
+    <col min="4622" max="4622" width="14.5" style="354" customWidth="1"/>
+    <col min="4623" max="4866" width="8.83203125" style="354"/>
+    <col min="4867" max="4867" width="9.6640625" style="354" customWidth="1"/>
+    <col min="4868" max="4868" width="21.83203125" style="354" customWidth="1"/>
     <col min="4869" max="4869" width="13" style="354" customWidth="1"/>
     <col min="4870" max="4872" width="14" style="354" customWidth="1"/>
-    <col min="4873" max="4873" width="17.140625" style="354" customWidth="1"/>
-    <col min="4874" max="4874" width="17.7109375" style="354" customWidth="1"/>
-    <col min="4875" max="4875" width="16.28515625" style="354" customWidth="1"/>
+    <col min="4873" max="4873" width="17.1640625" style="354" customWidth="1"/>
+    <col min="4874" max="4874" width="17.6640625" style="354" customWidth="1"/>
+    <col min="4875" max="4875" width="16.33203125" style="354" customWidth="1"/>
     <col min="4876" max="4876" width="14" style="354" customWidth="1"/>
     <col min="4877" max="4877" width="17" style="354" customWidth="1"/>
-    <col min="4878" max="4878" width="14.42578125" style="354" customWidth="1"/>
-    <col min="4879" max="5122" width="8.85546875" style="354"/>
-    <col min="5123" max="5123" width="9.7109375" style="354" customWidth="1"/>
-    <col min="5124" max="5124" width="21.85546875" style="354" customWidth="1"/>
+    <col min="4878" max="4878" width="14.5" style="354" customWidth="1"/>
+    <col min="4879" max="5122" width="8.83203125" style="354"/>
+    <col min="5123" max="5123" width="9.6640625" style="354" customWidth="1"/>
+    <col min="5124" max="5124" width="21.83203125" style="354" customWidth="1"/>
     <col min="5125" max="5125" width="13" style="354" customWidth="1"/>
     <col min="5126" max="5128" width="14" style="354" customWidth="1"/>
-    <col min="5129" max="5129" width="17.140625" style="354" customWidth="1"/>
-    <col min="5130" max="5130" width="17.7109375" style="354" customWidth="1"/>
-    <col min="5131" max="5131" width="16.28515625" style="354" customWidth="1"/>
+    <col min="5129" max="5129" width="17.1640625" style="354" customWidth="1"/>
+    <col min="5130" max="5130" width="17.6640625" style="354" customWidth="1"/>
+    <col min="5131" max="5131" width="16.33203125" style="354" customWidth="1"/>
     <col min="5132" max="5132" width="14" style="354" customWidth="1"/>
     <col min="5133" max="5133" width="17" style="354" customWidth="1"/>
-    <col min="5134" max="5134" width="14.42578125" style="354" customWidth="1"/>
-    <col min="5135" max="5378" width="8.85546875" style="354"/>
-    <col min="5379" max="5379" width="9.7109375" style="354" customWidth="1"/>
-    <col min="5380" max="5380" width="21.85546875" style="354" customWidth="1"/>
+    <col min="5134" max="5134" width="14.5" style="354" customWidth="1"/>
+    <col min="5135" max="5378" width="8.83203125" style="354"/>
+    <col min="5379" max="5379" width="9.6640625" style="354" customWidth="1"/>
+    <col min="5380" max="5380" width="21.83203125" style="354" customWidth="1"/>
     <col min="5381" max="5381" width="13" style="354" customWidth="1"/>
     <col min="5382" max="5384" width="14" style="354" customWidth="1"/>
-    <col min="5385" max="5385" width="17.140625" style="354" customWidth="1"/>
-    <col min="5386" max="5386" width="17.7109375" style="354" customWidth="1"/>
-    <col min="5387" max="5387" width="16.28515625" style="354" customWidth="1"/>
+    <col min="5385" max="5385" width="17.1640625" style="354" customWidth="1"/>
+    <col min="5386" max="5386" width="17.6640625" style="354" customWidth="1"/>
+    <col min="5387" max="5387" width="16.33203125" style="354" customWidth="1"/>
     <col min="5388" max="5388" width="14" style="354" customWidth="1"/>
     <col min="5389" max="5389" width="17" style="354" customWidth="1"/>
-    <col min="5390" max="5390" width="14.42578125" style="354" customWidth="1"/>
-    <col min="5391" max="5634" width="8.85546875" style="354"/>
-    <col min="5635" max="5635" width="9.7109375" style="354" customWidth="1"/>
-    <col min="5636" max="5636" width="21.85546875" style="354" customWidth="1"/>
+    <col min="5390" max="5390" width="14.5" style="354" customWidth="1"/>
+    <col min="5391" max="5634" width="8.83203125" style="354"/>
+    <col min="5635" max="5635" width="9.6640625" style="354" customWidth="1"/>
+    <col min="5636" max="5636" width="21.83203125" style="354" customWidth="1"/>
     <col min="5637" max="5637" width="13" style="354" customWidth="1"/>
     <col min="5638" max="5640" width="14" style="354" customWidth="1"/>
-    <col min="5641" max="5641" width="17.140625" style="354" customWidth="1"/>
-    <col min="5642" max="5642" width="17.7109375" style="354" customWidth="1"/>
-    <col min="5643" max="5643" width="16.28515625" style="354" customWidth="1"/>
+    <col min="5641" max="5641" width="17.1640625" style="354" customWidth="1"/>
+    <col min="5642" max="5642" width="17.6640625" style="354" customWidth="1"/>
+    <col min="5643" max="5643" width="16.33203125" style="354" customWidth="1"/>
     <col min="5644" max="5644" width="14" style="354" customWidth="1"/>
     <col min="5645" max="5645" width="17" style="354" customWidth="1"/>
-    <col min="5646" max="5646" width="14.42578125" style="354" customWidth="1"/>
-    <col min="5647" max="5890" width="8.85546875" style="354"/>
-    <col min="5891" max="5891" width="9.7109375" style="354" customWidth="1"/>
-    <col min="5892" max="5892" width="21.85546875" style="354" customWidth="1"/>
+    <col min="5646" max="5646" width="14.5" style="354" customWidth="1"/>
+    <col min="5647" max="5890" width="8.83203125" style="354"/>
+    <col min="5891" max="5891" width="9.6640625" style="354" customWidth="1"/>
+    <col min="5892" max="5892" width="21.83203125" style="354" customWidth="1"/>
     <col min="5893" max="5893" width="13" style="354" customWidth="1"/>
     <col min="5894" max="5896" width="14" style="354" customWidth="1"/>
-    <col min="5897" max="5897" width="17.140625" style="354" customWidth="1"/>
-    <col min="5898" max="5898" width="17.7109375" style="354" customWidth="1"/>
-    <col min="5899" max="5899" width="16.28515625" style="354" customWidth="1"/>
+    <col min="5897" max="5897" width="17.1640625" style="354" customWidth="1"/>
+    <col min="5898" max="5898" width="17.6640625" style="354" customWidth="1"/>
+    <col min="5899" max="5899" width="16.33203125" style="354" customWidth="1"/>
     <col min="5900" max="5900" width="14" style="354" customWidth="1"/>
     <col min="5901" max="5901" width="17" style="354" customWidth="1"/>
-    <col min="5902" max="5902" width="14.42578125" style="354" customWidth="1"/>
-    <col min="5903" max="6146" width="8.85546875" style="354"/>
-    <col min="6147" max="6147" width="9.7109375" style="354" customWidth="1"/>
-    <col min="6148" max="6148" width="21.85546875" style="354" customWidth="1"/>
+    <col min="5902" max="5902" width="14.5" style="354" customWidth="1"/>
+    <col min="5903" max="6146" width="8.83203125" style="354"/>
+    <col min="6147" max="6147" width="9.6640625" style="354" customWidth="1"/>
+    <col min="6148" max="6148" width="21.83203125" style="354" customWidth="1"/>
     <col min="6149" max="6149" width="13" style="354" customWidth="1"/>
     <col min="6150" max="6152" width="14" style="354" customWidth="1"/>
-    <col min="6153" max="6153" width="17.140625" style="354" customWidth="1"/>
-    <col min="6154" max="6154" width="17.7109375" style="354" customWidth="1"/>
-    <col min="6155" max="6155" width="16.28515625" style="354" customWidth="1"/>
+    <col min="6153" max="6153" width="17.1640625" style="354" customWidth="1"/>
+    <col min="6154" max="6154" width="17.6640625" style="354" customWidth="1"/>
+    <col min="6155" max="6155" width="16.33203125" style="354" customWidth="1"/>
     <col min="6156" max="6156" width="14" style="354" customWidth="1"/>
     <col min="6157" max="6157" width="17" style="354" customWidth="1"/>
-    <col min="6158" max="6158" width="14.42578125" style="354" customWidth="1"/>
-    <col min="6159" max="6402" width="8.85546875" style="354"/>
-    <col min="6403" max="6403" width="9.7109375" style="354" customWidth="1"/>
-    <col min="6404" max="6404" width="21.85546875" style="354" customWidth="1"/>
+    <col min="6158" max="6158" width="14.5" style="354" customWidth="1"/>
+    <col min="6159" max="6402" width="8.83203125" style="354"/>
+    <col min="6403" max="6403" width="9.6640625" style="354" customWidth="1"/>
+    <col min="6404" max="6404" width="21.83203125" style="354" customWidth="1"/>
     <col min="6405" max="6405" width="13" style="354" customWidth="1"/>
     <col min="6406" max="6408" width="14" style="354" customWidth="1"/>
-    <col min="6409" max="6409" width="17.140625" style="354" customWidth="1"/>
-    <col min="6410" max="6410" width="17.7109375" style="354" customWidth="1"/>
-    <col min="6411" max="6411" width="16.28515625" style="354" customWidth="1"/>
+    <col min="6409" max="6409" width="17.1640625" style="354" customWidth="1"/>
+    <col min="6410" max="6410" width="17.6640625" style="354" customWidth="1"/>
+    <col min="6411" max="6411" width="16.33203125" style="354" customWidth="1"/>
     <col min="6412" max="6412" width="14" style="354" customWidth="1"/>
     <col min="6413" max="6413" width="17" style="354" customWidth="1"/>
-    <col min="6414" max="6414" width="14.42578125" style="354" customWidth="1"/>
-    <col min="6415" max="6658" width="8.85546875" style="354"/>
-    <col min="6659" max="6659" width="9.7109375" style="354" customWidth="1"/>
-    <col min="6660" max="6660" width="21.85546875" style="354" customWidth="1"/>
+    <col min="6414" max="6414" width="14.5" style="354" customWidth="1"/>
+    <col min="6415" max="6658" width="8.83203125" style="354"/>
+    <col min="6659" max="6659" width="9.6640625" style="354" customWidth="1"/>
+    <col min="6660" max="6660" width="21.83203125" style="354" customWidth="1"/>
     <col min="6661" max="6661" width="13" style="354" customWidth="1"/>
     <col min="6662" max="6664" width="14" style="354" customWidth="1"/>
-    <col min="6665" max="6665" width="17.140625" style="354" customWidth="1"/>
-    <col min="6666" max="6666" width="17.7109375" style="354" customWidth="1"/>
-    <col min="6667" max="6667" width="16.28515625" style="354" customWidth="1"/>
+    <col min="6665" max="6665" width="17.1640625" style="354" customWidth="1"/>
+    <col min="6666" max="6666" width="17.6640625" style="354" customWidth="1"/>
+    <col min="6667" max="6667" width="16.33203125" style="354" customWidth="1"/>
     <col min="6668" max="6668" width="14" style="354" customWidth="1"/>
     <col min="6669" max="6669" width="17" style="354" customWidth="1"/>
-    <col min="6670" max="6670" width="14.42578125" style="354" customWidth="1"/>
-    <col min="6671" max="6914" width="8.85546875" style="354"/>
-    <col min="6915" max="6915" width="9.7109375" style="354" customWidth="1"/>
-    <col min="6916" max="6916" width="21.85546875" style="354" customWidth="1"/>
+    <col min="6670" max="6670" width="14.5" style="354" customWidth="1"/>
+    <col min="6671" max="6914" width="8.83203125" style="354"/>
+    <col min="6915" max="6915" width="9.6640625" style="354" customWidth="1"/>
+    <col min="6916" max="6916" width="21.83203125" style="354" customWidth="1"/>
     <col min="6917" max="6917" width="13" style="354" customWidth="1"/>
     <col min="6918" max="6920" width="14" style="354" customWidth="1"/>
-    <col min="6921" max="6921" width="17.140625" style="354" customWidth="1"/>
-    <col min="6922" max="6922" width="17.7109375" style="354" customWidth="1"/>
-    <col min="6923" max="6923" width="16.28515625" style="354" customWidth="1"/>
+    <col min="6921" max="6921" width="17.1640625" style="354" customWidth="1"/>
+    <col min="6922" max="6922" width="17.6640625" style="354" customWidth="1"/>
+    <col min="6923" max="6923" width="16.33203125" style="354" customWidth="1"/>
     <col min="6924" max="6924" width="14" style="354" customWidth="1"/>
     <col min="6925" max="6925" width="17" style="354" customWidth="1"/>
-    <col min="6926" max="6926" width="14.42578125" style="354" customWidth="1"/>
-    <col min="6927" max="7170" width="8.85546875" style="354"/>
-    <col min="7171" max="7171" width="9.7109375" style="354" customWidth="1"/>
-    <col min="7172" max="7172" width="21.85546875" style="354" customWidth="1"/>
+    <col min="6926" max="6926" width="14.5" style="354" customWidth="1"/>
+    <col min="6927" max="7170" width="8.83203125" style="354"/>
+    <col min="7171" max="7171" width="9.6640625" style="354" customWidth="1"/>
+    <col min="7172" max="7172" width="21.83203125" style="354" customWidth="1"/>
     <col min="7173" max="7173" width="13" style="354" customWidth="1"/>
     <col min="7174" max="7176" width="14" style="354" customWidth="1"/>
-    <col min="7177" max="7177" width="17.140625" style="354" customWidth="1"/>
-    <col min="7178" max="7178" width="17.7109375" style="354" customWidth="1"/>
-    <col min="7179" max="7179" width="16.28515625" style="354" customWidth="1"/>
+    <col min="7177" max="7177" width="17.1640625" style="354" customWidth="1"/>
+    <col min="7178" max="7178" width="17.6640625" style="354" customWidth="1"/>
+    <col min="7179" max="7179" width="16.33203125" style="354" customWidth="1"/>
     <col min="7180" max="7180" width="14" style="354" customWidth="1"/>
     <col min="7181" max="7181" width="17" style="354" customWidth="1"/>
-    <col min="7182" max="7182" width="14.42578125" style="354" customWidth="1"/>
-    <col min="7183" max="7426" width="8.85546875" style="354"/>
-    <col min="7427" max="7427" width="9.7109375" style="354" customWidth="1"/>
-    <col min="7428" max="7428" width="21.85546875" style="354" customWidth="1"/>
+    <col min="7182" max="7182" width="14.5" style="354" customWidth="1"/>
+    <col min="7183" max="7426" width="8.83203125" style="354"/>
+    <col min="7427" max="7427" width="9.6640625" style="354" customWidth="1"/>
+    <col min="7428" max="7428" width="21.83203125" style="354" customWidth="1"/>
     <col min="7429" max="7429" width="13" style="354" customWidth="1"/>
     <col min="7430" max="7432" width="14" style="354" customWidth="1"/>
-    <col min="7433" max="7433" width="17.140625" style="354" customWidth="1"/>
-    <col min="7434" max="7434" width="17.7109375" style="354" customWidth="1"/>
-    <col min="7435" max="7435" width="16.28515625" style="354" customWidth="1"/>
+    <col min="7433" max="7433" width="17.1640625" style="354" customWidth="1"/>
+    <col min="7434" max="7434" width="17.6640625" style="354" customWidth="1"/>
+    <col min="7435" max="7435" width="16.33203125" style="354" customWidth="1"/>
     <col min="7436" max="7436" width="14" style="354" customWidth="1"/>
     <col min="7437" max="7437" width="17" style="354" customWidth="1"/>
-    <col min="7438" max="7438" width="14.42578125" style="354" customWidth="1"/>
-    <col min="7439" max="7682" width="8.85546875" style="354"/>
-    <col min="7683" max="7683" width="9.7109375" style="354" customWidth="1"/>
-    <col min="7684" max="7684" width="21.85546875" style="354" customWidth="1"/>
+    <col min="7438" max="7438" width="14.5" style="354" customWidth="1"/>
+    <col min="7439" max="7682" width="8.83203125" style="354"/>
+    <col min="7683" max="7683" width="9.6640625" style="354" customWidth="1"/>
+    <col min="7684" max="7684" width="21.83203125" style="354" customWidth="1"/>
     <col min="7685" max="7685" width="13" style="354" customWidth="1"/>
     <col min="7686" max="7688" width="14" style="354" customWidth="1"/>
-    <col min="7689" max="7689" width="17.140625" style="354" customWidth="1"/>
-    <col min="7690" max="7690" width="17.7109375" style="354" customWidth="1"/>
-    <col min="7691" max="7691" width="16.28515625" style="354" customWidth="1"/>
+    <col min="7689" max="7689" width="17.1640625" style="354" customWidth="1"/>
+    <col min="7690" max="7690" width="17.6640625" style="354" customWidth="1"/>
+    <col min="7691" max="7691" width="16.33203125" style="354" customWidth="1"/>
     <col min="7692" max="7692" width="14" style="354" customWidth="1"/>
     <col min="7693" max="7693" width="17" style="354" customWidth="1"/>
-    <col min="7694" max="7694" width="14.42578125" style="354" customWidth="1"/>
-    <col min="7695" max="7938" width="8.85546875" style="354"/>
-    <col min="7939" max="7939" width="9.7109375" style="354" customWidth="1"/>
-    <col min="7940" max="7940" width="21.85546875" style="354" customWidth="1"/>
+    <col min="7694" max="7694" width="14.5" style="354" customWidth="1"/>
+    <col min="7695" max="7938" width="8.83203125" style="354"/>
+    <col min="7939" max="7939" width="9.6640625" style="354" customWidth="1"/>
+    <col min="7940" max="7940" width="21.83203125" style="354" customWidth="1"/>
     <col min="7941" max="7941" width="13" style="354" customWidth="1"/>
     <col min="7942" max="7944" width="14" style="354" customWidth="1"/>
-    <col min="7945" max="7945" width="17.140625" style="354" customWidth="1"/>
-    <col min="7946" max="7946" width="17.7109375" style="354" customWidth="1"/>
-    <col min="7947" max="7947" width="16.28515625" style="354" customWidth="1"/>
+    <col min="7945" max="7945" width="17.1640625" style="354" customWidth="1"/>
+    <col min="7946" max="7946" width="17.6640625" style="354" customWidth="1"/>
+    <col min="7947" max="7947" width="16.33203125" style="354" customWidth="1"/>
     <col min="7948" max="7948" width="14" style="354" customWidth="1"/>
     <col min="7949" max="7949" width="17" style="354" customWidth="1"/>
-    <col min="7950" max="7950" width="14.42578125" style="354" customWidth="1"/>
-    <col min="7951" max="8194" width="8.85546875" style="354"/>
-    <col min="8195" max="8195" width="9.7109375" style="354" customWidth="1"/>
-    <col min="8196" max="8196" width="21.85546875" style="354" customWidth="1"/>
+    <col min="7950" max="7950" width="14.5" style="354" customWidth="1"/>
+    <col min="7951" max="8194" width="8.83203125" style="354"/>
+    <col min="8195" max="8195" width="9.6640625" style="354" customWidth="1"/>
+    <col min="8196" max="8196" width="21.83203125" style="354" customWidth="1"/>
     <col min="8197" max="8197" width="13" style="354" customWidth="1"/>
     <col min="8198" max="8200" width="14" style="354" customWidth="1"/>
-    <col min="8201" max="8201" width="17.140625" style="354" customWidth="1"/>
-    <col min="8202" max="8202" width="17.7109375" style="354" customWidth="1"/>
-    <col min="8203" max="8203" width="16.28515625" style="354" customWidth="1"/>
+    <col min="8201" max="8201" width="17.1640625" style="354" customWidth="1"/>
+    <col min="8202" max="8202" width="17.6640625" style="354" customWidth="1"/>
+    <col min="8203" max="8203" width="16.33203125" style="354" customWidth="1"/>
     <col min="8204" max="8204" width="14" style="354" customWidth="1"/>
     <col min="8205" max="8205" width="17" style="354" customWidth="1"/>
-    <col min="8206" max="8206" width="14.42578125" style="354" customWidth="1"/>
-    <col min="8207" max="8450" width="8.85546875" style="354"/>
-    <col min="8451" max="8451" width="9.7109375" style="354" customWidth="1"/>
-    <col min="8452" max="8452" width="21.85546875" style="354" customWidth="1"/>
+    <col min="8206" max="8206" width="14.5" style="354" customWidth="1"/>
+    <col min="8207" max="8450" width="8.83203125" style="354"/>
+    <col min="8451" max="8451" width="9.6640625" style="354" customWidth="1"/>
+    <col min="8452" max="8452" width="21.83203125" style="354" customWidth="1"/>
     <col min="8453" max="8453" width="13" style="354" customWidth="1"/>
     <col min="8454" max="8456" width="14" style="354" customWidth="1"/>
-    <col min="8457" max="8457" width="17.140625" style="354" customWidth="1"/>
-    <col min="8458" max="8458" width="17.7109375" style="354" customWidth="1"/>
-    <col min="8459" max="8459" width="16.28515625" style="354" customWidth="1"/>
+    <col min="8457" max="8457" width="17.1640625" style="354" customWidth="1"/>
+    <col min="8458" max="8458" width="17.6640625" style="354" customWidth="1"/>
+    <col min="8459" max="8459" width="16.33203125" style="354" customWidth="1"/>
     <col min="8460" max="8460" width="14" style="354" customWidth="1"/>
     <col min="8461" max="8461" width="17" style="354" customWidth="1"/>
-    <col min="8462" max="8462" width="14.42578125" style="354" customWidth="1"/>
-    <col min="8463" max="8706" width="8.85546875" style="354"/>
-    <col min="8707" max="8707" width="9.7109375" style="354" customWidth="1"/>
-    <col min="8708" max="8708" width="21.85546875" style="354" customWidth="1"/>
+    <col min="8462" max="8462" width="14.5" style="354" customWidth="1"/>
+    <col min="8463" max="8706" width="8.83203125" style="354"/>
+    <col min="8707" max="8707" width="9.6640625" style="354" customWidth="1"/>
+    <col min="8708" max="8708" width="21.83203125" style="354" customWidth="1"/>
     <col min="8709" max="8709" width="13" style="354" customWidth="1"/>
     <col min="8710" max="8712" width="14" style="354" customWidth="1"/>
-    <col min="8713" max="8713" width="17.140625" style="354" customWidth="1"/>
-    <col min="8714" max="8714" width="17.7109375" style="354" customWidth="1"/>
-    <col min="8715" max="8715" width="16.28515625" style="354" customWidth="1"/>
+    <col min="8713" max="8713" width="17.1640625" style="354" customWidth="1"/>
+    <col min="8714" max="8714" width="17.6640625" style="354" customWidth="1"/>
+    <col min="8715" max="8715" width="16.33203125" style="354" customWidth="1"/>
     <col min="8716" max="8716" width="14" style="354" customWidth="1"/>
     <col min="8717" max="8717" width="17" style="354" customWidth="1"/>
-    <col min="8718" max="8718" width="14.42578125" style="354" customWidth="1"/>
-    <col min="8719" max="8962" width="8.85546875" style="354"/>
-    <col min="8963" max="8963" width="9.7109375" style="354" customWidth="1"/>
-    <col min="8964" max="8964" width="21.85546875" style="354" customWidth="1"/>
+    <col min="8718" max="8718" width="14.5" style="354" customWidth="1"/>
+    <col min="8719" max="8962" width="8.83203125" style="354"/>
+    <col min="8963" max="8963" width="9.6640625" style="354" customWidth="1"/>
+    <col min="8964" max="8964" width="21.83203125" style="354" customWidth="1"/>
     <col min="8965" max="8965" width="13" style="354" customWidth="1"/>
     <col min="8966" max="8968" width="14" style="354" customWidth="1"/>
-    <col min="8969" max="8969" width="17.140625" style="354" customWidth="1"/>
-    <col min="8970" max="8970" width="17.7109375" style="354" customWidth="1"/>
-    <col min="8971" max="8971" width="16.28515625" style="354" customWidth="1"/>
+    <col min="8969" max="8969" width="17.1640625" style="354" customWidth="1"/>
+    <col min="8970" max="8970" width="17.6640625" style="354" customWidth="1"/>
+    <col min="8971" max="8971" width="16.33203125" style="354" customWidth="1"/>
     <col min="8972" max="8972" width="14" style="354" customWidth="1"/>
     <col min="8973" max="8973" width="17" style="354" customWidth="1"/>
-    <col min="8974" max="8974" width="14.42578125" style="354" customWidth="1"/>
-    <col min="8975" max="9218" width="8.85546875" style="354"/>
-    <col min="9219" max="9219" width="9.7109375" style="354" customWidth="1"/>
-    <col min="9220" max="9220" width="21.85546875" style="354" customWidth="1"/>
+    <col min="8974" max="8974" width="14.5" style="354" customWidth="1"/>
+    <col min="8975" max="9218" width="8.83203125" style="354"/>
+    <col min="9219" max="9219" width="9.6640625" style="354" customWidth="1"/>
+    <col min="9220" max="9220" width="21.83203125" style="354" customWidth="1"/>
     <col min="9221" max="9221" width="13" style="354" customWidth="1"/>
     <col min="9222" max="9224" width="14" style="354" customWidth="1"/>
-    <col min="9225" max="9225" width="17.140625" style="354" customWidth="1"/>
-    <col min="9226" max="9226" width="17.7109375" style="354" customWidth="1"/>
-    <col min="9227" max="9227" width="16.28515625" style="354" customWidth="1"/>
+    <col min="9225" max="9225" width="17.1640625" style="354" customWidth="1"/>
+    <col min="9226" max="9226" width="17.6640625" style="354" customWidth="1"/>
+    <col min="9227" max="9227" width="16.33203125" style="354" customWidth="1"/>
     <col min="9228" max="9228" width="14" style="354" customWidth="1"/>
     <col min="9229" max="9229" width="17" style="354" customWidth="1"/>
-    <col min="9230" max="9230" width="14.42578125" style="354" customWidth="1"/>
-    <col min="9231" max="9474" width="8.85546875" style="354"/>
-    <col min="9475" max="9475" width="9.7109375" style="354" customWidth="1"/>
-    <col min="9476" max="9476" width="21.85546875" style="354" customWidth="1"/>
+    <col min="9230" max="9230" width="14.5" style="354" customWidth="1"/>
+    <col min="9231" max="9474" width="8.83203125" style="354"/>
+    <col min="9475" max="9475" width="9.6640625" style="354" customWidth="1"/>
+    <col min="9476" max="9476" width="21.83203125" style="354" customWidth="1"/>
     <col min="9477" max="9477" width="13" style="354" customWidth="1"/>
     <col min="9478" max="9480" width="14" style="354" customWidth="1"/>
-    <col min="9481" max="9481" width="17.140625" style="354" customWidth="1"/>
-    <col min="9482" max="9482" width="17.7109375" style="354" customWidth="1"/>
-    <col min="9483" max="9483" width="16.28515625" style="354" customWidth="1"/>
+    <col min="9481" max="9481" width="17.1640625" style="354" customWidth="1"/>
+    <col min="9482" max="9482" width="17.6640625" style="354" customWidth="1"/>
+    <col min="9483" max="9483" width="16.33203125" style="354" customWidth="1"/>
     <col min="9484" max="9484" width="14" style="354" customWidth="1"/>
     <col min="9485" max="9485" width="17" style="354" customWidth="1"/>
-    <col min="9486" max="9486" width="14.42578125" style="354" customWidth="1"/>
-    <col min="9487" max="9730" width="8.85546875" style="354"/>
-    <col min="9731" max="9731" width="9.7109375" style="354" customWidth="1"/>
-    <col min="9732" max="9732" width="21.85546875" style="354" customWidth="1"/>
+    <col min="9486" max="9486" width="14.5" style="354" customWidth="1"/>
+    <col min="9487" max="9730" width="8.83203125" style="354"/>
+    <col min="9731" max="9731" width="9.6640625" style="354" customWidth="1"/>
+    <col min="9732" max="9732" width="21.83203125" style="354" customWidth="1"/>
     <col min="9733" max="9733" width="13" style="354" customWidth="1"/>
     <col min="9734" max="9736" width="14" style="354" customWidth="1"/>
-    <col min="9737" max="9737" width="17.140625" style="354" customWidth="1"/>
-    <col min="9738" max="9738" width="17.7109375" style="354" customWidth="1"/>
-    <col min="9739" max="9739" width="16.28515625" style="354" customWidth="1"/>
+    <col min="9737" max="9737" width="17.1640625" style="354" customWidth="1"/>
+    <col min="9738" max="9738" width="17.6640625" style="354" customWidth="1"/>
+    <col min="9739" max="9739" width="16.33203125" style="354" customWidth="1"/>
     <col min="9740" max="9740" width="14" style="354" customWidth="1"/>
     <col min="9741" max="9741" width="17" style="354" customWidth="1"/>
-    <col min="9742" max="9742" width="14.42578125" style="354" customWidth="1"/>
-    <col min="9743" max="9986" width="8.85546875" style="354"/>
-    <col min="9987" max="9987" width="9.7109375" style="354" customWidth="1"/>
-    <col min="9988" max="9988" width="21.85546875" style="354" customWidth="1"/>
+    <col min="9742" max="9742" width="14.5" style="354" customWidth="1"/>
+    <col min="9743" max="9986" width="8.83203125" style="354"/>
+    <col min="9987" max="9987" width="9.6640625" style="354" customWidth="1"/>
+    <col min="9988" max="9988" width="21.83203125" style="354" customWidth="1"/>
     <col min="9989" max="9989" width="13" style="354" customWidth="1"/>
     <col min="9990" max="9992" width="14" style="354" customWidth="1"/>
-    <col min="9993" max="9993" width="17.140625" style="354" customWidth="1"/>
-    <col min="9994" max="9994" width="17.7109375" style="354" customWidth="1"/>
-    <col min="9995" max="9995" width="16.28515625" style="354" customWidth="1"/>
+    <col min="9993" max="9993" width="17.1640625" style="354" customWidth="1"/>
+    <col min="9994" max="9994" width="17.6640625" style="354" customWidth="1"/>
+    <col min="9995" max="9995" width="16.33203125" style="354" customWidth="1"/>
     <col min="9996" max="9996" width="14" style="354" customWidth="1"/>
     <col min="9997" max="9997" width="17" style="354" customWidth="1"/>
-    <col min="9998" max="9998" width="14.42578125" style="354" customWidth="1"/>
-    <col min="9999" max="10242" width="8.85546875" style="354"/>
-    <col min="10243" max="10243" width="9.7109375" style="354" customWidth="1"/>
-    <col min="10244" max="10244" width="21.85546875" style="354" customWidth="1"/>
+    <col min="9998" max="9998" width="14.5" style="354" customWidth="1"/>
+    <col min="9999" max="10242" width="8.83203125" style="354"/>
+    <col min="10243" max="10243" width="9.6640625" style="354" customWidth="1"/>
+    <col min="10244" max="10244" width="21.83203125" style="354" customWidth="1"/>
     <col min="10245" max="10245" width="13" style="354" customWidth="1"/>
     <col min="10246" max="10248" width="14" style="354" customWidth="1"/>
-    <col min="10249" max="10249" width="17.140625" style="354" customWidth="1"/>
-    <col min="10250" max="10250" width="17.7109375" style="354" customWidth="1"/>
-    <col min="10251" max="10251" width="16.28515625" style="354" customWidth="1"/>
+    <col min="10249" max="10249" width="17.1640625" style="354" customWidth="1"/>
+    <col min="10250" max="10250" width="17.6640625" style="354" customWidth="1"/>
+    <col min="10251" max="10251" width="16.33203125" style="354" customWidth="1"/>
     <col min="10252" max="10252" width="14" style="354" customWidth="1"/>
     <col min="10253" max="10253" width="17" style="354" customWidth="1"/>
-    <col min="10254" max="10254" width="14.42578125" style="354" customWidth="1"/>
-    <col min="10255" max="10498" width="8.85546875" style="354"/>
-    <col min="10499" max="10499" width="9.7109375" style="354" customWidth="1"/>
-    <col min="10500" max="10500" width="21.85546875" style="354" customWidth="1"/>
+    <col min="10254" max="10254" width="14.5" style="354" customWidth="1"/>
+    <col min="10255" max="10498" width="8.83203125" style="354"/>
+    <col min="10499" max="10499" width="9.6640625" style="354" customWidth="1"/>
+    <col min="10500" max="10500" width="21.83203125" style="354" customWidth="1"/>
     <col min="10501" max="10501" width="13" style="354" customWidth="1"/>
     <col min="10502" max="10504" width="14" style="354" customWidth="1"/>
-    <col min="10505" max="10505" width="17.140625" style="354" customWidth="1"/>
-    <col min="10506" max="10506" width="17.7109375" style="354" customWidth="1"/>
-    <col min="10507" max="10507" width="16.28515625" style="354" customWidth="1"/>
+    <col min="10505" max="10505" width="17.1640625" style="354" customWidth="1"/>
+    <col min="10506" max="10506" width="17.6640625" style="354" customWidth="1"/>
+    <col min="10507" max="10507" width="16.33203125" style="354" customWidth="1"/>
     <col min="10508" max="10508" width="14" style="354" customWidth="1"/>
     <col min="10509" max="10509" width="17" style="354" customWidth="1"/>
-    <col min="10510" max="10510" width="14.42578125" style="354" customWidth="1"/>
-    <col min="10511" max="10754" width="8.85546875" style="354"/>
-    <col min="10755" max="10755" width="9.7109375" style="354" customWidth="1"/>
-    <col min="10756" max="10756" width="21.85546875" style="354" customWidth="1"/>
+    <col min="10510" max="10510" width="14.5" style="354" customWidth="1"/>
+    <col min="10511" max="10754" width="8.83203125" style="354"/>
+    <col min="10755" max="10755" width="9.6640625" style="354" customWidth="1"/>
+    <col min="10756" max="10756" width="21.83203125" style="354" customWidth="1"/>
     <col min="10757" max="10757" width="13" style="354" customWidth="1"/>
     <col min="10758" max="10760" width="14" style="354" customWidth="1"/>
-    <col min="10761" max="10761" width="17.140625" style="354" customWidth="1"/>
-    <col min="10762" max="10762" width="17.7109375" style="354" customWidth="1"/>
-    <col min="10763" max="10763" width="16.28515625" style="354" customWidth="1"/>
+    <col min="10761" max="10761" width="17.1640625" style="354" customWidth="1"/>
+    <col min="10762" max="10762" width="17.6640625" style="354" customWidth="1"/>
+    <col min="10763" max="10763" width="16.33203125" style="354" customWidth="1"/>
     <col min="10764" max="10764" width="14" style="354" customWidth="1"/>
     <col min="10765" max="10765" width="17" style="354" customWidth="1"/>
-    <col min="10766" max="10766" width="14.42578125" style="354" customWidth="1"/>
-    <col min="10767" max="11010" width="8.85546875" style="354"/>
-    <col min="11011" max="11011" width="9.7109375" style="354" customWidth="1"/>
-    <col min="11012" max="11012" width="21.85546875" style="354" customWidth="1"/>
+    <col min="10766" max="10766" width="14.5" style="354" customWidth="1"/>
+    <col min="10767" max="11010" width="8.83203125" style="354"/>
+    <col min="11011" max="11011" width="9.6640625" style="354" customWidth="1"/>
+    <col min="11012" max="11012" width="21.83203125" style="354" customWidth="1"/>
     <col min="11013" max="11013" width="13" style="354" customWidth="1"/>
     <col min="11014" max="11016" width="14" style="354" customWidth="1"/>
-    <col min="11017" max="11017" width="17.140625" style="354" customWidth="1"/>
-    <col min="11018" max="11018" width="17.7109375" style="354" customWidth="1"/>
-    <col min="11019" max="11019" width="16.28515625" style="354" customWidth="1"/>
+    <col min="11017" max="11017" width="17.1640625" style="354" customWidth="1"/>
+    <col min="11018" max="11018" width="17.6640625" style="354" customWidth="1"/>
+    <col min="11019" max="11019" width="16.33203125" style="354" customWidth="1"/>
     <col min="11020" max="11020" width="14" style="354" customWidth="1"/>
     <col min="11021" max="11021" width="17" style="354" customWidth="1"/>
-    <col min="11022" max="11022" width="14.42578125" style="354" customWidth="1"/>
-    <col min="11023" max="11266" width="8.85546875" style="354"/>
-    <col min="11267" max="11267" width="9.7109375" style="354" customWidth="1"/>
-    <col min="11268" max="11268" width="21.85546875" style="354" customWidth="1"/>
+    <col min="11022" max="11022" width="14.5" style="354" customWidth="1"/>
+    <col min="11023" max="11266" width="8.83203125" style="354"/>
+    <col min="11267" max="11267" width="9.6640625" style="354" customWidth="1"/>
+    <col min="11268" max="11268" width="21.83203125" style="354" customWidth="1"/>
     <col min="11269" max="11269" width="13" style="354" customWidth="1"/>
     <col min="11270" max="11272" width="14" style="354" customWidth="1"/>
-    <col min="11273" max="11273" width="17.140625" style="354" customWidth="1"/>
-    <col min="11274" max="11274" width="17.7109375" style="354" customWidth="1"/>
-    <col min="11275" max="11275" width="16.28515625" style="354" customWidth="1"/>
+    <col min="11273" max="11273" width="17.1640625" style="354" customWidth="1"/>
+    <col min="11274" max="11274" width="17.6640625" style="354" customWidth="1"/>
+    <col min="11275" max="11275" width="16.33203125" style="354" customWidth="1"/>
     <col min="11276" max="11276" width="14" style="354" customWidth="1"/>
     <col min="11277" max="11277" width="17" style="354" customWidth="1"/>
-    <col min="11278" max="11278" width="14.42578125" style="354" customWidth="1"/>
-    <col min="11279" max="11522" width="8.85546875" style="354"/>
-    <col min="11523" max="11523" width="9.7109375" style="354" customWidth="1"/>
-    <col min="11524" max="11524" width="21.85546875" style="354" customWidth="1"/>
+    <col min="11278" max="11278" width="14.5" style="354" customWidth="1"/>
+    <col min="11279" max="11522" width="8.83203125" style="354"/>
+    <col min="11523" max="11523" width="9.6640625" style="354" customWidth="1"/>
+    <col min="11524" max="11524" width="21.83203125" style="354" customWidth="1"/>
     <col min="11525" max="11525" width="13" style="354" customWidth="1"/>
     <col min="11526" max="11528" width="14" style="354" customWidth="1"/>
-    <col min="11529" max="11529" width="17.140625" style="354" customWidth="1"/>
-    <col min="11530" max="11530" width="17.7109375" style="354" customWidth="1"/>
-    <col min="11531" max="11531" width="16.28515625" style="354" customWidth="1"/>
+    <col min="11529" max="11529" width="17.1640625" style="354" customWidth="1"/>
+    <col min="11530" max="11530" width="17.6640625" style="354" customWidth="1"/>
+    <col min="11531" max="11531" width="16.33203125" style="354" customWidth="1"/>
     <col min="11532" max="11532" width="14" style="354" customWidth="1"/>
     <col min="11533" max="11533" width="17" style="354" customWidth="1"/>
-    <col min="11534" max="11534" width="14.42578125" style="354" customWidth="1"/>
-    <col min="11535" max="11778" width="8.85546875" style="354"/>
-    <col min="11779" max="11779" width="9.7109375" style="354" customWidth="1"/>
-    <col min="11780" max="11780" width="21.85546875" style="354" customWidth="1"/>
+    <col min="11534" max="11534" width="14.5" style="354" customWidth="1"/>
+    <col min="11535" max="11778" width="8.83203125" style="354"/>
+    <col min="11779" max="11779" width="9.6640625" style="354" customWidth="1"/>
+    <col min="11780" max="11780" width="21.83203125" style="354" customWidth="1"/>
     <col min="11781" max="11781" width="13" style="354" customWidth="1"/>
     <col min="11782" max="11784" width="14" style="354" customWidth="1"/>
-    <col min="11785" max="11785" width="17.140625" style="354" customWidth="1"/>
-    <col min="11786" max="11786" width="17.7109375" style="354" customWidth="1"/>
-    <col min="11787" max="11787" width="16.28515625" style="354" customWidth="1"/>
+    <col min="11785" max="11785" width="17.1640625" style="354" customWidth="1"/>
+    <col min="11786" max="11786" width="17.6640625" style="354" customWidth="1"/>
+    <col min="11787" max="11787" width="16.33203125" style="354" customWidth="1"/>
     <col min="11788" max="11788" width="14" style="354" customWidth="1"/>
     <col min="11789" max="11789" width="17" style="354" customWidth="1"/>
-    <col min="11790" max="11790" width="14.42578125" style="354" customWidth="1"/>
-    <col min="11791" max="12034" width="8.85546875" style="354"/>
-    <col min="12035" max="12035" width="9.7109375" style="354" customWidth="1"/>
-    <col min="12036" max="12036" width="21.85546875" style="354" customWidth="1"/>
+    <col min="11790" max="11790" width="14.5" style="354" customWidth="1"/>
+    <col min="11791" max="12034" width="8.83203125" style="354"/>
+    <col min="12035" max="12035" width="9.6640625" style="354" customWidth="1"/>
+    <col min="12036" max="12036" width="21.83203125" style="354" customWidth="1"/>
     <col min="12037" max="12037" width="13" style="354" customWidth="1"/>
     <col min="12038" max="12040" width="14" style="354" customWidth="1"/>
-    <col min="12041" max="12041" width="17.140625" style="354" customWidth="1"/>
-    <col min="12042" max="12042" width="17.7109375" style="354" customWidth="1"/>
-    <col min="12043" max="12043" width="16.28515625" style="354" customWidth="1"/>
+    <col min="12041" max="12041" width="17.1640625" style="354" customWidth="1"/>
+    <col min="12042" max="12042" width="17.6640625" style="354" customWidth="1"/>
+    <col min="12043" max="12043" width="16.33203125" style="354" customWidth="1"/>
     <col min="12044" max="12044" width="14" style="354" customWidth="1"/>
     <col min="12045" max="12045" width="17" style="354" customWidth="1"/>
-    <col min="12046" max="12046" width="14.42578125" style="354" customWidth="1"/>
-    <col min="12047" max="12290" width="8.85546875" style="354"/>
-    <col min="12291" max="12291" width="9.7109375" style="354" customWidth="1"/>
-    <col min="12292" max="12292" width="21.85546875" style="354" customWidth="1"/>
+    <col min="12046" max="12046" width="14.5" style="354" customWidth="1"/>
+    <col min="12047" max="12290" width="8.83203125" style="354"/>
+    <col min="12291" max="12291" width="9.6640625" style="354" customWidth="1"/>
+    <col min="12292" max="12292" width="21.83203125" style="354" customWidth="1"/>
     <col min="12293" max="12293" width="13" style="354" customWidth="1"/>
     <col min="12294" max="12296" width="14" style="354" customWidth="1"/>
-    <col min="12297" max="12297" width="17.140625" style="354" customWidth="1"/>
-    <col min="12298" max="12298" width="17.7109375" style="354" customWidth="1"/>
-    <col min="12299" max="12299" width="16.28515625" style="354" customWidth="1"/>
+    <col min="12297" max="12297" width="17.1640625" style="354" customWidth="1"/>
+    <col min="12298" max="12298" width="17.6640625" style="354" customWidth="1"/>
+    <col min="12299" max="12299" width="16.33203125" style="354" customWidth="1"/>
     <col min="12300" max="12300" width="14" style="354" customWidth="1"/>
     <col min="12301" max="12301" width="17" style="354" customWidth="1"/>
-    <col min="12302" max="12302" width="14.42578125" style="354" customWidth="1"/>
-    <col min="12303" max="12546" width="8.85546875" style="354"/>
-    <col min="12547" max="12547" width="9.7109375" style="354" customWidth="1"/>
-    <col min="12548" max="12548" width="21.85546875" style="354" customWidth="1"/>
+    <col min="12302" max="12302" width="14.5" style="354" customWidth="1"/>
+    <col min="12303" max="12546" width="8.83203125" style="354"/>
+    <col min="12547" max="12547" width="9.6640625" style="354" customWidth="1"/>
+    <col min="12548" max="12548" width="21.83203125" style="354" customWidth="1"/>
     <col min="12549" max="12549" width="13" style="354" customWidth="1"/>
     <col min="12550" max="12552" width="14" style="354" customWidth="1"/>
-    <col min="12553" max="12553" width="17.140625" style="354" customWidth="1"/>
-    <col min="12554" max="12554" width="17.7109375" style="354" customWidth="1"/>
-    <col min="12555" max="12555" width="16.28515625" style="354" customWidth="1"/>
+    <col min="12553" max="12553" width="17.1640625" style="354" customWidth="1"/>
+    <col min="12554" max="12554" width="17.6640625" style="354" customWidth="1"/>
+    <col min="12555" max="12555" width="16.33203125" style="354" customWidth="1"/>
     <col min="12556" max="12556" width="14" style="354" customWidth="1"/>
     <col min="12557" max="12557" width="17" style="354" customWidth="1"/>
-    <col min="12558" max="12558" width="14.42578125" style="354" customWidth="1"/>
-    <col min="12559" max="12802" width="8.85546875" style="354"/>
-    <col min="12803" max="12803" width="9.7109375" style="354" customWidth="1"/>
-    <col min="12804" max="12804" width="21.85546875" style="354" customWidth="1"/>
+    <col min="12558" max="12558" width="14.5" style="354" customWidth="1"/>
+    <col min="12559" max="12802" width="8.83203125" style="354"/>
+    <col min="12803" max="12803" width="9.6640625" style="354" customWidth="1"/>
+    <col min="12804" max="12804" width="21.83203125" style="354" customWidth="1"/>
     <col min="12805" max="12805" width="13" style="354" customWidth="1"/>
     <col min="12806" max="12808" width="14" style="354" customWidth="1"/>
-    <col min="12809" max="12809" width="17.140625" style="354" customWidth="1"/>
-    <col min="12810" max="12810" width="17.7109375" style="354" customWidth="1"/>
-    <col min="12811" max="12811" width="16.28515625" style="354" customWidth="1"/>
+    <col min="12809" max="12809" width="17.1640625" style="354" customWidth="1"/>
+    <col min="12810" max="12810" width="17.6640625" style="354" customWidth="1"/>
+    <col min="12811" max="12811" width="16.33203125" style="354" customWidth="1"/>
     <col min="12812" max="12812" width="14" style="354" customWidth="1"/>
     <col min="12813" max="12813" width="17" style="354" customWidth="1"/>
-    <col min="12814" max="12814" width="14.42578125" style="354" customWidth="1"/>
-    <col min="12815" max="13058" width="8.85546875" style="354"/>
-    <col min="13059" max="13059" width="9.7109375" style="354" customWidth="1"/>
-    <col min="13060" max="13060" width="21.85546875" style="354" customWidth="1"/>
+    <col min="12814" max="12814" width="14.5" style="354" customWidth="1"/>
+    <col min="12815" max="13058" width="8.83203125" style="354"/>
+    <col min="13059" max="13059" width="9.6640625" style="354" customWidth="1"/>
+    <col min="13060" max="13060" width="21.83203125" style="354" customWidth="1"/>
     <col min="13061" max="13061" width="13" style="354" customWidth="1"/>
     <col min="13062" max="13064" width="14" style="354" customWidth="1"/>
-    <col min="13065" max="13065" width="17.140625" style="354" customWidth="1"/>
-    <col min="13066" max="13066" width="17.7109375" style="354" customWidth="1"/>
-    <col min="13067" max="13067" width="16.28515625" style="354" customWidth="1"/>
+    <col min="13065" max="13065" width="17.1640625" style="354" customWidth="1"/>
+    <col min="13066" max="13066" width="17.6640625" style="354" customWidth="1"/>
+    <col min="13067" max="13067" width="16.33203125" style="354" customWidth="1"/>
     <col min="13068" max="13068" width="14" style="354" customWidth="1"/>
     <col min="13069" max="13069" width="17" style="354" customWidth="1"/>
-    <col min="13070" max="13070" width="14.42578125" style="354" customWidth="1"/>
-    <col min="13071" max="13314" width="8.85546875" style="354"/>
-    <col min="13315" max="13315" width="9.7109375" style="354" customWidth="1"/>
-    <col min="13316" max="13316" width="21.85546875" style="354" customWidth="1"/>
+    <col min="13070" max="13070" width="14.5" style="354" customWidth="1"/>
+    <col min="13071" max="13314" width="8.83203125" style="354"/>
+    <col min="13315" max="13315" width="9.6640625" style="354" customWidth="1"/>
+    <col min="13316" max="13316" width="21.83203125" style="354" customWidth="1"/>
     <col min="13317" max="13317" width="13" style="354" customWidth="1"/>
     <col min="13318" max="13320" width="14" style="354" customWidth="1"/>
-    <col min="13321" max="13321" width="17.140625" style="354" customWidth="1"/>
-    <col min="13322" max="13322" width="17.7109375" style="354" customWidth="1"/>
-    <col min="13323" max="13323" width="16.28515625" style="354" customWidth="1"/>
+    <col min="13321" max="13321" width="17.1640625" style="354" customWidth="1"/>
+    <col min="13322" max="13322" width="17.6640625" style="354" customWidth="1"/>
+    <col min="13323" max="13323" width="16.33203125" style="354" customWidth="1"/>
     <col min="13324" max="13324" width="14" style="354" customWidth="1"/>
     <col min="13325" max="13325" width="17" style="354" customWidth="1"/>
-    <col min="13326" max="13326" width="14.42578125" style="354" customWidth="1"/>
-    <col min="13327" max="13570" width="8.85546875" style="354"/>
-    <col min="13571" max="13571" width="9.7109375" style="354" customWidth="1"/>
-    <col min="13572" max="13572" width="21.85546875" style="354" customWidth="1"/>
+    <col min="13326" max="13326" width="14.5" style="354" customWidth="1"/>
+    <col min="13327" max="13570" width="8.83203125" style="354"/>
+    <col min="13571" max="13571" width="9.6640625" style="354" customWidth="1"/>
+    <col min="13572" max="13572" width="21.83203125" style="354" customWidth="1"/>
     <col min="13573" max="13573" width="13" style="354" customWidth="1"/>
     <col min="13574" max="13576" width="14" style="354" customWidth="1"/>
-    <col min="13577" max="13577" width="17.140625" style="354" customWidth="1"/>
-    <col min="13578" max="13578" width="17.7109375" style="354" customWidth="1"/>
-    <col min="13579" max="13579" width="16.28515625" style="354" customWidth="1"/>
+    <col min="13577" max="13577" width="17.1640625" style="354" customWidth="1"/>
+    <col min="13578" max="13578" width="17.6640625" style="354" customWidth="1"/>
+    <col min="13579" max="13579" width="16.33203125" style="354" customWidth="1"/>
     <col min="13580" max="13580" width="14" style="354" customWidth="1"/>
     <col min="13581" max="13581" width="17" style="354" customWidth="1"/>
-    <col min="13582" max="13582" width="14.42578125" style="354" customWidth="1"/>
-    <col min="13583" max="13826" width="8.85546875" style="354"/>
-    <col min="13827" max="13827" width="9.7109375" style="354" customWidth="1"/>
-    <col min="13828" max="13828" width="21.85546875" style="354" customWidth="1"/>
+    <col min="13582" max="13582" width="14.5" style="354" customWidth="1"/>
+    <col min="13583" max="13826" width="8.83203125" style="354"/>
+    <col min="13827" max="13827" width="9.6640625" style="354" customWidth="1"/>
+    <col min="13828" max="13828" width="21.83203125" style="354" customWidth="1"/>
     <col min="13829" max="13829" width="13" style="354" customWidth="1"/>
     <col min="13830" max="13832" width="14" style="354" customWidth="1"/>
-    <col min="13833" max="13833" width="17.140625" style="354" customWidth="1"/>
-    <col min="13834" max="13834" width="17.7109375" style="354" customWidth="1"/>
-    <col min="13835" max="13835" width="16.28515625" style="354" customWidth="1"/>
+    <col min="13833" max="13833" width="17.1640625" style="354" customWidth="1"/>
+    <col min="13834" max="13834" width="17.6640625" style="354" customWidth="1"/>
+    <col min="13835" max="13835" width="16.33203125" style="354" customWidth="1"/>
     <col min="13836" max="13836" width="14" style="354" customWidth="1"/>
     <col min="13837" max="13837" width="17" style="354" customWidth="1"/>
-    <col min="13838" max="13838" width="14.42578125" style="354" customWidth="1"/>
-    <col min="13839" max="14082" width="8.85546875" style="354"/>
-    <col min="14083" max="14083" width="9.7109375" style="354" customWidth="1"/>
-    <col min="14084" max="14084" width="21.85546875" style="354" customWidth="1"/>
+    <col min="13838" max="13838" width="14.5" style="354" customWidth="1"/>
+    <col min="13839" max="14082" width="8.83203125" style="354"/>
+    <col min="14083" max="14083" width="9.6640625" style="354" customWidth="1"/>
+    <col min="14084" max="14084" width="21.83203125" style="354" customWidth="1"/>
     <col min="14085" max="14085" width="13" style="354" customWidth="1"/>
     <col min="14086" max="14088" width="14" style="354" customWidth="1"/>
-    <col min="14089" max="14089" width="17.140625" style="354" customWidth="1"/>
-    <col min="14090" max="14090" width="17.7109375" style="354" customWidth="1"/>
-    <col min="14091" max="14091" width="16.28515625" style="354" customWidth="1"/>
+    <col min="14089" max="14089" width="17.1640625" style="354" customWidth="1"/>
+    <col min="14090" max="14090" width="17.6640625" style="354" customWidth="1"/>
+    <col min="14091" max="14091" width="16.33203125" style="354" customWidth="1"/>
     <col min="14092" max="14092" width="14" style="354" customWidth="1"/>
     <col min="14093" max="14093" width="17" style="354" customWidth="1"/>
-    <col min="14094" max="14094" width="14.42578125" style="354" customWidth="1"/>
-    <col min="14095" max="14338" width="8.85546875" style="354"/>
-    <col min="14339" max="14339" width="9.7109375" style="354" customWidth="1"/>
-    <col min="14340" max="14340" width="21.85546875" style="354" customWidth="1"/>
+    <col min="14094" max="14094" width="14.5" style="354" customWidth="1"/>
+    <col min="14095" max="14338" width="8.83203125" style="354"/>
+    <col min="14339" max="14339" width="9.6640625" style="354" customWidth="1"/>
+    <col min="14340" max="14340" width="21.83203125" style="354" customWidth="1"/>
     <col min="14341" max="14341" width="13" style="354" customWidth="1"/>
     <col min="14342" max="14344" width="14" style="354" customWidth="1"/>
-    <col min="14345" max="14345" width="17.140625" style="354" customWidth="1"/>
-    <col min="14346" max="14346" width="17.7109375" style="354" customWidth="1"/>
-    <col min="14347" max="14347" width="16.28515625" style="354" customWidth="1"/>
+    <col min="14345" max="14345" width="17.1640625" style="354" customWidth="1"/>
+    <col min="14346" max="14346" width="17.6640625" style="354" customWidth="1"/>
+    <col min="14347" max="14347" width="16.33203125" style="354" customWidth="1"/>
     <col min="14348" max="14348" width="14" style="354" customWidth="1"/>
     <col min="14349" max="14349" width="17" style="354" customWidth="1"/>
-    <col min="14350" max="14350" width="14.42578125" style="354" customWidth="1"/>
-    <col min="14351" max="14594" width="8.85546875" style="354"/>
-    <col min="14595" max="14595" width="9.7109375" style="354" customWidth="1"/>
-    <col min="14596" max="14596" width="21.85546875" style="354" customWidth="1"/>
+    <col min="14350" max="14350" width="14.5" style="354" customWidth="1"/>
+    <col min="14351" max="14594" width="8.83203125" style="354"/>
+    <col min="14595" max="14595" width="9.6640625" style="354" customWidth="1"/>
+    <col min="14596" max="14596" width="21.83203125" style="354" customWidth="1"/>
     <col min="14597" max="14597" width="13" style="354" customWidth="1"/>
     <col min="14598" max="14600" width="14" style="354" customWidth="1"/>
-    <col min="14601" max="14601" width="17.140625" style="354" customWidth="1"/>
-    <col min="14602" max="14602" width="17.7109375" style="354" customWidth="1"/>
-    <col min="14603" max="14603" width="16.28515625" style="354" customWidth="1"/>
+    <col min="14601" max="14601" width="17.1640625" style="354" customWidth="1"/>
+    <col min="14602" max="14602" width="17.6640625" style="354" customWidth="1"/>
+    <col min="14603" max="14603" width="16.33203125" style="354" customWidth="1"/>
     <col min="14604" max="14604" width="14" style="354" customWidth="1"/>
     <col min="14605" max="14605" width="17" style="354" customWidth="1"/>
-    <col min="14606" max="14606" width="14.42578125" style="354" customWidth="1"/>
-    <col min="14607" max="14850" width="8.85546875" style="354"/>
-    <col min="14851" max="14851" width="9.7109375" style="354" customWidth="1"/>
-    <col min="14852" max="14852" width="21.85546875" style="354" customWidth="1"/>
+    <col min="14606" max="14606" width="14.5" style="354" customWidth="1"/>
+    <col min="14607" max="14850" width="8.83203125" style="354"/>
+    <col min="14851" max="14851" width="9.6640625" style="354" customWidth="1"/>
+    <col min="14852" max="14852" width="21.83203125" style="354" customWidth="1"/>
     <col min="14853" max="14853" width="13" style="354" customWidth="1"/>
     <col min="14854" max="14856" width="14" style="354" customWidth="1"/>
-    <col min="14857" max="14857" width="17.140625" style="354" customWidth="1"/>
-    <col min="14858" max="14858" width="17.7109375" style="354" customWidth="1"/>
-    <col min="14859" max="14859" width="16.28515625" style="354" customWidth="1"/>
+    <col min="14857" max="14857" width="17.1640625" style="354" customWidth="1"/>
+    <col min="14858" max="14858" width="17.6640625" style="354" customWidth="1"/>
+    <col min="14859" max="14859" width="16.33203125" style="354" customWidth="1"/>
     <col min="14860" max="14860" width="14" style="354" customWidth="1"/>
     <col min="14861" max="14861" width="17" style="354" customWidth="1"/>
-    <col min="14862" max="14862" width="14.42578125" style="354" customWidth="1"/>
-    <col min="14863" max="15106" width="8.85546875" style="354"/>
-    <col min="15107" max="15107" width="9.7109375" style="354" customWidth="1"/>
-    <col min="15108" max="15108" width="21.85546875" style="354" customWidth="1"/>
+    <col min="14862" max="14862" width="14.5" style="354" customWidth="1"/>
+    <col min="14863" max="15106" width="8.83203125" style="354"/>
+    <col min="15107" max="15107" width="9.6640625" style="354" customWidth="1"/>
+    <col min="15108" max="15108" width="21.83203125" style="354" customWidth="1"/>
     <col min="15109" max="15109" width="13" style="354" customWidth="1"/>
     <col min="15110" max="15112" width="14" style="354" customWidth="1"/>
-    <col min="15113" max="15113" width="17.140625" style="354" customWidth="1"/>
-    <col min="15114" max="15114" width="17.7109375" style="354" customWidth="1"/>
-    <col min="15115" max="15115" width="16.28515625" style="354" customWidth="1"/>
+    <col min="15113" max="15113" width="17.1640625" style="354" customWidth="1"/>
+    <col min="15114" max="15114" width="17.6640625" style="354" customWidth="1"/>
+    <col min="15115" max="15115" width="16.33203125" style="354" customWidth="1"/>
     <col min="15116" max="15116" width="14" style="354" customWidth="1"/>
     <col min="15117" max="15117" width="17" style="354" customWidth="1"/>
-    <col min="15118" max="15118" width="14.42578125" style="354" customWidth="1"/>
-    <col min="15119" max="15362" width="8.85546875" style="354"/>
-    <col min="15363" max="15363" width="9.7109375" style="354" customWidth="1"/>
-    <col min="15364" max="15364" width="21.85546875" style="354" customWidth="1"/>
+    <col min="15118" max="15118" width="14.5" style="354" customWidth="1"/>
+    <col min="15119" max="15362" width="8.83203125" style="354"/>
+    <col min="15363" max="15363" width="9.6640625" style="354" customWidth="1"/>
+    <col min="15364" max="15364" width="21.83203125" style="354" customWidth="1"/>
     <col min="15365" max="15365" width="13" style="354" customWidth="1"/>
     <col min="15366" max="15368" width="14" style="354" customWidth="1"/>
-    <col min="15369" max="15369" width="17.140625" style="354" customWidth="1"/>
-    <col min="15370" max="15370" width="17.7109375" style="354" customWidth="1"/>
-    <col min="15371" max="15371" width="16.28515625" style="354" customWidth="1"/>
+    <col min="15369" max="15369" width="17.1640625" style="354" customWidth="1"/>
+    <col min="15370" max="15370" width="17.6640625" style="354" customWidth="1"/>
+    <col min="15371" max="15371" width="16.33203125" style="354" customWidth="1"/>
     <col min="15372" max="15372" width="14" style="354" customWidth="1"/>
     <col min="15373" max="15373" width="17" style="354" customWidth="1"/>
-    <col min="15374" max="15374" width="14.42578125" style="354" customWidth="1"/>
-    <col min="15375" max="15618" width="8.85546875" style="354"/>
-    <col min="15619" max="15619" width="9.7109375" style="354" customWidth="1"/>
-    <col min="15620" max="15620" width="21.85546875" style="354" customWidth="1"/>
+    <col min="15374" max="15374" width="14.5" style="354" customWidth="1"/>
+    <col min="15375" max="15618" width="8.83203125" style="354"/>
+    <col min="15619" max="15619" width="9.6640625" style="354" customWidth="1"/>
+    <col min="15620" max="15620" width="21.83203125" style="354" customWidth="1"/>
     <col min="15621" max="15621" width="13" style="354" customWidth="1"/>
     <col min="15622" max="15624" width="14" style="354" customWidth="1"/>
-    <col min="15625" max="15625" width="17.140625" style="354" customWidth="1"/>
-    <col min="15626" max="15626" width="17.7109375" style="354" customWidth="1"/>
-    <col min="15627" max="15627" width="16.28515625" style="354" customWidth="1"/>
+    <col min="15625" max="15625" width="17.1640625" style="354" customWidth="1"/>
+    <col min="15626" max="15626" width="17.6640625" style="354" customWidth="1"/>
+    <col min="15627" max="15627" width="16.33203125" style="354" customWidth="1"/>
     <col min="15628" max="15628" width="14" style="354" customWidth="1"/>
     <col min="15629" max="15629" width="17" style="354" customWidth="1"/>
-    <col min="15630" max="15630" width="14.42578125" style="354" customWidth="1"/>
-    <col min="15631" max="15874" width="8.85546875" style="354"/>
-    <col min="15875" max="15875" width="9.7109375" style="354" customWidth="1"/>
-    <col min="15876" max="15876" width="21.85546875" style="354" customWidth="1"/>
+    <col min="15630" max="15630" width="14.5" style="354" customWidth="1"/>
+    <col min="15631" max="15874" width="8.83203125" style="354"/>
+    <col min="15875" max="15875" width="9.6640625" style="354" customWidth="1"/>
+    <col min="15876" max="15876" width="21.83203125" style="354" customWidth="1"/>
     <col min="15877" max="15877" width="13" style="354" customWidth="1"/>
     <col min="15878" max="15880" width="14" style="354" customWidth="1"/>
-    <col min="15881" max="15881" width="17.140625" style="354" customWidth="1"/>
-    <col min="15882" max="15882" width="17.7109375" style="354" customWidth="1"/>
-    <col min="15883" max="15883" width="16.28515625" style="354" customWidth="1"/>
+    <col min="15881" max="15881" width="17.1640625" style="354" customWidth="1"/>
+    <col min="15882" max="15882" width="17.6640625" style="354" customWidth="1"/>
+    <col min="15883" max="15883" width="16.33203125" style="354" customWidth="1"/>
     <col min="15884" max="15884" width="14" style="354" customWidth="1"/>
     <col min="15885" max="15885" width="17" style="354" customWidth="1"/>
-    <col min="15886" max="15886" width="14.42578125" style="354" customWidth="1"/>
-    <col min="15887" max="16130" width="8.85546875" style="354"/>
-    <col min="16131" max="16131" width="9.7109375" style="354" customWidth="1"/>
-    <col min="16132" max="16132" width="21.85546875" style="354" customWidth="1"/>
+    <col min="15886" max="15886" width="14.5" style="354" customWidth="1"/>
+    <col min="15887" max="16130" width="8.83203125" style="354"/>
+    <col min="16131" max="16131" width="9.6640625" style="354" customWidth="1"/>
+    <col min="16132" max="16132" width="21.83203125" style="354" customWidth="1"/>
     <col min="16133" max="16133" width="13" style="354" customWidth="1"/>
     <col min="16134" max="16136" width="14" style="354" customWidth="1"/>
-    <col min="16137" max="16137" width="17.140625" style="354" customWidth="1"/>
-    <col min="16138" max="16138" width="17.7109375" style="354" customWidth="1"/>
-    <col min="16139" max="16139" width="16.28515625" style="354" customWidth="1"/>
+    <col min="16137" max="16137" width="17.1640625" style="354" customWidth="1"/>
+    <col min="16138" max="16138" width="17.6640625" style="354" customWidth="1"/>
+    <col min="16139" max="16139" width="16.33203125" style="354" customWidth="1"/>
     <col min="16140" max="16140" width="14" style="354" customWidth="1"/>
     <col min="16141" max="16141" width="17" style="354" customWidth="1"/>
-    <col min="16142" max="16142" width="14.42578125" style="354" customWidth="1"/>
-    <col min="16143" max="16143" width="8.85546875" style="354"/>
+    <col min="16142" max="16142" width="14.5" style="354" customWidth="1"/>
+    <col min="16143" max="16143" width="8.83203125" style="354"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" s="5" customFormat="1" ht="12.75" customHeight="1">
@@ -38780,7 +38842,7 @@
       <c r="D10" s="33"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="2:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="B11" s="61"/>
       <c r="C11" s="130" t="str">
         <f>ProjNo</f>
@@ -38792,7 +38854,7 @@
       </c>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="2:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="B12" s="61"/>
       <c r="C12" s="128" t="s">
         <v>42</v>
@@ -38804,7 +38866,7 @@
       <c r="F12" s="125"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="2:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="B13" s="61"/>
       <c r="C13" s="129" t="s">
         <v>43</v>
@@ -38824,9 +38886,9 @@
       <c r="F14" s="125"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="2:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="C15" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -38845,47 +38907,47 @@
     <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="C18" s="370"/>
       <c r="D18" s="371"/>
-      <c r="E18" s="491" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="492"/>
-      <c r="G18" s="492"/>
-      <c r="H18" s="493"/>
+      <c r="E18" s="506" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="507"/>
+      <c r="G18" s="507"/>
+      <c r="H18" s="508"/>
       <c r="I18" s="444"/>
-      <c r="J18" s="494" t="s">
-        <v>347</v>
-      </c>
-      <c r="K18" s="495"/>
-      <c r="L18" s="496"/>
+      <c r="J18" s="509" t="s">
+        <v>343</v>
+      </c>
+      <c r="K18" s="510"/>
+      <c r="L18" s="511"/>
     </row>
     <row r="19" spans="1:21" ht="57" customHeight="1">
       <c r="C19" s="372" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D19" s="373"/>
       <c r="E19" s="445" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="446" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="446" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" s="447" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="448" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="446" t="s">
+      <c r="J19" s="449" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="446" t="s">
+      <c r="K19" s="450" t="s">
         <v>351</v>
       </c>
-      <c r="H19" s="447" t="s">
+      <c r="L19" s="451" t="s">
         <v>352</v>
-      </c>
-      <c r="I19" s="448" t="s">
-        <v>353</v>
-      </c>
-      <c r="J19" s="449" t="s">
-        <v>354</v>
-      </c>
-      <c r="K19" s="450" t="s">
-        <v>355</v>
-      </c>
-      <c r="L19" s="451" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1">
@@ -38926,106 +38988,106 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="N22" s="360" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P22" s="360"/>
       <c r="S22" s="409" t="s">
+        <v>354</v>
+      </c>
+      <c r="T22" s="409" t="s">
+        <v>117</v>
+      </c>
+      <c r="U22" s="441"/>
+    </row>
+    <row r="23" spans="1:21" s="356" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="512" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="514" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="515"/>
+      <c r="D23" s="500" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="502" t="s">
         <v>358</v>
       </c>
-      <c r="T22" s="409" t="s">
-        <v>120</v>
-      </c>
-      <c r="U22" s="441"/>
-    </row>
-    <row r="23" spans="1:21" s="356" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="497" t="s">
+      <c r="F23" s="500"/>
+      <c r="G23" s="500"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="504" t="s">
         <v>359</v>
       </c>
-      <c r="B23" s="499" t="s">
+      <c r="J23" s="494" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="500"/>
-      <c r="D23" s="512" t="s">
+      <c r="K23" s="495"/>
+      <c r="L23" s="496"/>
+      <c r="M23" s="497" t="s">
         <v>361</v>
       </c>
-      <c r="E23" s="514" t="s">
+      <c r="N23" s="355"/>
+      <c r="P23" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="512"/>
-      <c r="G23" s="512"/>
-      <c r="H23" s="515"/>
-      <c r="I23" s="516" t="s">
+      <c r="Q23" s="499" t="s">
         <v>363</v>
       </c>
-      <c r="J23" s="506" t="s">
+      <c r="S23" s="379" t="s">
         <v>364</v>
-      </c>
-      <c r="K23" s="507"/>
-      <c r="L23" s="508"/>
-      <c r="M23" s="509" t="s">
-        <v>365</v>
-      </c>
-      <c r="N23" s="355"/>
-      <c r="P23" s="511" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q23" s="511" t="s">
-        <v>367</v>
-      </c>
-      <c r="S23" s="379" t="s">
-        <v>368</v>
       </c>
       <c r="T23" s="381" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
-      <c r="U23" s="501" t="s">
-        <v>369</v>
+      <c r="U23" s="516" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="356" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A24" s="498"/>
+      <c r="A24" s="513"/>
       <c r="B24" s="428" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C24" s="394" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="513"/>
+        <v>366</v>
+      </c>
+      <c r="D24" s="501"/>
       <c r="E24" s="392" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F24" s="393" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G24" s="393" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H24" s="394" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="517"/>
+      <c r="I24" s="505"/>
       <c r="J24" s="392" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K24" s="393" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L24" s="394" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="510"/>
+      <c r="M24" s="498"/>
       <c r="N24" s="355"/>
-      <c r="P24" s="511"/>
-      <c r="Q24" s="511"/>
+      <c r="P24" s="499"/>
+      <c r="Q24" s="499"/>
       <c r="S24" s="356" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="T24" s="382">
         <f>I39*0.3</f>
         <v>86700</v>
       </c>
-      <c r="U24" s="502"/>
+      <c r="U24" s="517"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
       <c r="A25" s="432">
@@ -39152,7 +39214,7 @@
         <v>9910</v>
       </c>
       <c r="S26" s="380" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="T26" s="380">
         <f>LASTQUARTER</f>
@@ -39207,7 +39269,7 @@
         <v>10945</v>
       </c>
       <c r="S27" s="380" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="T27" s="383">
         <f>I39*0.2</f>
@@ -39318,7 +39380,7 @@
         <v>16637</v>
       </c>
       <c r="S29" s="380" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T29" s="380" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
@@ -39732,7 +39794,7 @@
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="B38" s="384"/>
       <c r="C38" s="424" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D38" s="402">
         <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
@@ -39786,7 +39848,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="H39" s="426" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I39" s="391">
         <f>E20</f>
@@ -39798,16 +39860,16 @@
       <c r="I40" s="365"/>
     </row>
     <row r="41" spans="1:21" ht="36.75" customHeight="1">
-      <c r="F41" s="503" t="str">
+      <c r="F41" s="491" t="str">
         <f>IF(N25&gt;"",N25,IF(N26&gt;"",N26,IF(N27&gt;"",N27,IF(N28&gt;"",N28,IF(N29&gt;"",N29,IF(N30&gt;"",N30,IF(N31&gt;"",N31,IF(N32&gt;"",N32,IF(N33&gt;"",N33,IF(N34&gt;"",N34,IF(N35&gt;"",N35,IF(N36&gt;"",N36,IF(N37&gt;"",N37,IF(I38&lt;&gt;I39,"Your total estimate in cell I38 does not yet equal the Nectar Funds Allocated",""))))))))))))))</f>
         <v/>
       </c>
-      <c r="G41" s="504"/>
-      <c r="H41" s="504"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="504"/>
-      <c r="K41" s="504"/>
-      <c r="L41" s="505"/>
+      <c r="G41" s="492"/>
+      <c r="H41" s="492"/>
+      <c r="I41" s="492"/>
+      <c r="J41" s="492"/>
+      <c r="K41" s="492"/>
+      <c r="L41" s="493"/>
     </row>
     <row r="42" spans="1:21" ht="14.25" customHeight="1">
       <c r="C42" s="414" t="s">
@@ -39895,7 +39957,7 @@
     </row>
     <row r="46" spans="1:21" ht="26.25" hidden="1" customHeight="1">
       <c r="C46" s="427" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D46" s="386"/>
       <c r="E46" s="438">
@@ -39944,7 +40006,7 @@
     </row>
     <row r="47" spans="1:21" hidden="1">
       <c r="C47" s="426" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D47" s="389"/>
       <c r="E47" s="440">
@@ -40006,7 +40068,7 @@
     </row>
     <row r="48" spans="1:21" hidden="1">
       <c r="C48" s="426" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="440">
@@ -40068,7 +40130,7 @@
     </row>
     <row r="49" spans="3:18" hidden="1">
       <c r="C49" s="426" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D49" s="389"/>
       <c r="E49" s="440">
@@ -40130,7 +40192,7 @@
     </row>
     <row r="50" spans="3:18" hidden="1">
       <c r="C50" s="426" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D50" s="389"/>
       <c r="E50" s="440">
@@ -40192,7 +40254,7 @@
     </row>
     <row r="51" spans="3:18" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="426" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D51" s="389"/>
       <c r="E51" s="440">
@@ -40254,7 +40316,7 @@
     </row>
     <row r="52" spans="3:18" ht="26.25" hidden="1" customHeight="1">
       <c r="C52" s="427" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="438">
@@ -40303,7 +40365,7 @@
     </row>
     <row r="53" spans="3:18" hidden="1">
       <c r="C53" s="426" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D53" s="389"/>
       <c r="E53" s="440">
@@ -40365,7 +40427,7 @@
     </row>
     <row r="54" spans="3:18" hidden="1">
       <c r="C54" s="426" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D54" s="389"/>
       <c r="E54" s="440">
@@ -40427,7 +40489,7 @@
     </row>
     <row r="55" spans="3:18" hidden="1">
       <c r="C55" s="389" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D55" s="389"/>
       <c r="E55" s="440">
@@ -40489,7 +40551,7 @@
     </row>
     <row r="56" spans="3:18" hidden="1">
       <c r="C56" s="389" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D56" s="389"/>
       <c r="E56" s="440">
@@ -40553,6 +40615,11 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="U23:U24"/>
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="F41:L41"/>
     <mergeCell ref="J23:L23"/>
@@ -40562,11 +40629,6 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="U23:U24"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
@@ -41720,39 +41782,44 @@
     <oddHeader>&amp;F</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="4"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="55.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="4"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="4"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="1.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="55.1640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="13" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1">
@@ -41887,7 +41954,7 @@
       <c r="C10" s="33"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -41900,7 +41967,7 @@
       </c>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -41913,7 +41980,7 @@
       <c r="E12" s="125"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -41926,7 +41993,7 @@
       <c r="E13" s="125"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="14" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="72"/>
       <c r="B14" s="126"/>
       <c r="C14" s="126"/>
@@ -41934,7 +42001,7 @@
       <c r="E14" s="125"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="18.95" customHeight="1">
+    <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
         <v>44</v>
@@ -41961,7 +42028,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="15.95" customHeight="1">
+    <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="22" t="s">
         <v>46</v>
@@ -42005,7 +42072,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="56.1" customHeight="1">
+    <row r="18" spans="1:18" ht="56" customHeight="1">
       <c r="A18" s="109" t="s">
         <v>48</v>
       </c>
@@ -42099,7 +42166,7 @@
       <c r="Q19" s="223"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="25.5">
+    <row r="20" spans="1:18">
       <c r="A20" s="65"/>
       <c r="B20" s="322">
         <v>2</v>
@@ -42192,7 +42259,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27.95" customHeight="1">
+    <row r="22" spans="1:18" ht="28" customHeight="1">
       <c r="B22" s="322">
         <v>4</v>
       </c>
@@ -42284,7 +42351,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="25.5">
+    <row r="24" spans="1:18">
       <c r="B24" s="322">
         <v>6</v>
       </c>
@@ -42423,7 +42490,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="27" spans="1:18" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B27" s="322">
         <v>9</v>
       </c>
@@ -42489,13 +42556,12 @@
       <c r="G28" s="123">
         <v>100</v>
       </c>
-      <c r="H28" s="353" t="str">
-        <f>IF(G28=100,"Enter date of completion","")</f>
-        <v>Enter date of completion</v>
-      </c>
-      <c r="I28" s="228" t="str">
+      <c r="H28" s="353">
+        <v>41414</v>
+      </c>
+      <c r="I28" s="228">
         <f t="shared" si="0"/>
-        <v/>
+        <v>232</v>
       </c>
       <c r="J28" s="195"/>
       <c r="K28" s="193" t="s">
@@ -42503,7 +42569,7 @@
       </c>
       <c r="L28" s="194"/>
       <c r="M28" s="315" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
       <c r="N28" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42526,10 +42592,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="323" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="323" t="s">
         <v>88</v>
-      </c>
-      <c r="E29" s="323" t="s">
-        <v>89</v>
       </c>
       <c r="F29" s="191">
         <v>41197</v>
@@ -42551,7 +42617,7 @@
       </c>
       <c r="L29" s="194"/>
       <c r="M29" s="315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42574,10 +42640,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="323" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="323" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" s="323" t="s">
-        <v>92</v>
       </c>
       <c r="F30" s="191">
         <v>41243</v>
@@ -42599,7 +42665,7 @@
       <c r="K30" s="193"/>
       <c r="L30" s="194"/>
       <c r="M30" s="315" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="N30" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42622,10 +42688,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="323" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" s="323" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="191">
         <v>41258</v>
@@ -42647,7 +42713,7 @@
       </c>
       <c r="L31" s="194"/>
       <c r="M31" s="315" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="N31" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42672,10 +42738,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="323" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="323" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F32" s="191">
         <v>41258</v>
@@ -42696,7 +42762,7 @@
       </c>
       <c r="L32" s="194"/>
       <c r="M32" s="315" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N32" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42721,10 +42787,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="323" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="323" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" s="191">
         <v>41333</v>
@@ -42746,7 +42812,7 @@
       </c>
       <c r="L33" s="194"/>
       <c r="M33" s="315" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N33" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42771,10 +42837,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="323" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" s="323" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F34" s="191">
         <v>41334</v>
@@ -42817,10 +42883,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="323" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="323" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="191">
         <v>41600</v>
@@ -42855,7 +42921,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:18" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="36" spans="2:18" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B36" s="322">
         <v>18</v>
       </c>
@@ -42863,10 +42929,10 @@
         <v>18</v>
       </c>
       <c r="D36" s="323" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="323" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F36" s="191">
         <v>41820</v>
@@ -42908,7 +42974,7 @@
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
@@ -42916,7 +42982,7 @@
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
       <c r="O37" s="226" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P37" s="226" t="str">
         <f>IF(COUNTIF(P19:P36,"RED")&gt;0,"RED",IF(COUNTIF(P19:P36,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -42935,7 +43001,7 @@
       <c r="H38" s="66"/>
       <c r="I38" s="27">
         <f>IFERROR(AVERAGE(I19:I36),"")</f>
-        <v>165</v>
+        <v>181.75</v>
       </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
@@ -42966,7 +43032,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="2:18" ht="14.1" customHeight="1">
+    <row r="40" spans="2:18" ht="14" customHeight="1">
       <c r="B40" s="475" t="s">
         <v>28</v>
       </c>
@@ -44001,12 +44067,17 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -44016,19 +44087,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1">
@@ -44128,7 +44199,7 @@
       <c r="B10" s="132"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -44140,7 +44211,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -44152,7 +44223,7 @@
       <c r="D12" s="125"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -44171,10 +44242,10 @@
       <c r="D14" s="125"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -44198,10 +44269,10 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:18" ht="17" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -44220,7 +44291,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:18" ht="17" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="478"/>
       <c r="C17" s="478"/>
@@ -44239,29 +44310,29 @@
     </row>
     <row r="18" spans="1:18" ht="47.25" customHeight="1">
       <c r="B18" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="F18" s="76" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>117</v>
       </c>
       <c r="G18" s="180"/>
       <c r="H18" s="181" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I18" s="181" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
@@ -44270,7 +44341,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="44.1" customHeight="1">
+    <row r="19" spans="1:18" ht="44" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
@@ -44302,7 +44373,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" ht="44.1" customHeight="1">
+    <row r="20" spans="1:18" s="5" customFormat="1" ht="44" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="308"/>
       <c r="C20" s="309"/>
@@ -44328,7 +44399,7 @@
       </c>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" ht="44.1" customHeight="1">
+    <row r="21" spans="1:18" s="5" customFormat="1" ht="44" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="308"/>
       <c r="C21" s="309"/>
@@ -44354,7 +44425,7 @@
       </c>
       <c r="L21" s="65"/>
     </row>
-    <row r="22" spans="1:18" s="5" customFormat="1" ht="44.1" customHeight="1">
+    <row r="22" spans="1:18" s="5" customFormat="1" ht="44" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="308"/>
       <c r="C22" s="309"/>
@@ -44380,7 +44451,7 @@
       </c>
       <c r="L22" s="65"/>
     </row>
-    <row r="23" spans="1:18" ht="44.1" customHeight="1">
+    <row r="23" spans="1:18" ht="44" customHeight="1">
       <c r="B23" s="308"/>
       <c r="C23" s="309"/>
       <c r="D23" s="310"/>
@@ -44409,7 +44480,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="44.1" customHeight="1">
+    <row r="24" spans="1:18" ht="44" customHeight="1">
       <c r="B24" s="308"/>
       <c r="C24" s="309"/>
       <c r="D24" s="310"/>
@@ -44438,7 +44509,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="44.1" customHeight="1">
+    <row r="25" spans="1:18" ht="44" customHeight="1">
       <c r="B25" s="308"/>
       <c r="C25" s="309"/>
       <c r="D25" s="310"/>
@@ -44467,7 +44538,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="44.1" customHeight="1">
+    <row r="26" spans="1:18" ht="44" customHeight="1">
       <c r="B26" s="308"/>
       <c r="C26" s="312"/>
       <c r="D26" s="313"/>
@@ -44514,17 +44585,17 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="B28" s="84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="476"/>
       <c r="F28" s="84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -44599,7 +44670,7 @@
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
     </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+    <row r="32" spans="1:18" ht="14" customHeight="1">
       <c r="B32" s="475" t="s">
         <v>28</v>
       </c>
@@ -44992,30 +45063,35 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1">
@@ -45115,7 +45191,7 @@
       <c r="B10" s="132"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -45127,7 +45203,7 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -45139,7 +45215,7 @@
       <c r="D12" s="125"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -45158,10 +45234,10 @@
       <c r="D14" s="125"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1">
+    <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
@@ -45182,10 +45258,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.95" customHeight="1">
+    <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="477" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -45201,7 +45277,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:15" ht="17" customHeight="1">
       <c r="B17" s="478"/>
       <c r="C17" s="478"/>
       <c r="D17" s="478"/>
@@ -45219,16 +45295,16 @@
     </row>
     <row r="18" spans="1:15" ht="27" customHeight="1">
       <c r="B18" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>130</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="4"/>
@@ -45246,16 +45322,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="302" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="416" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="304" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="410" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" s="416" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="304" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="410" t="s">
-        <v>134</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="48" t="str">
@@ -45276,13 +45352,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="303" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D20" s="304" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="410" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="48" t="str">
@@ -45303,13 +45379,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="303" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="304" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E21" s="410" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="48" t="str">
@@ -45330,13 +45406,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="303" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" s="304" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E22" s="410" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="48" t="str">
@@ -45357,13 +45433,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="306" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="307" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" s="411" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="48" t="str">
@@ -45395,7 +45471,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:15" ht="14" customHeight="1">
       <c r="B25" s="475" t="s">
         <v>28</v>
       </c>
@@ -45780,12 +45856,17 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB51"/>
@@ -45794,19 +45875,19 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="65" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="65"/>
-    <col min="12" max="14" width="11.42578125" hidden="1"/>
+    <col min="2" max="2" width="15.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="65" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="65"/>
+    <col min="12" max="14" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="4" customFormat="1">
@@ -45977,7 +46058,7 @@
       <c r="C10" s="33"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:28" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:28" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -45990,7 +46071,7 @@
       </c>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:28" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:28" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -46003,7 +46084,7 @@
       <c r="E12" s="125"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:28" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:28" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -46024,10 +46105,10 @@
       <c r="E14" s="125"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:28" s="4" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -46044,7 +46125,7 @@
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
       <c r="L15" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -46053,10 +46134,10 @@
       </c>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" s="4" customFormat="1" ht="15.95" customHeight="1">
+    <row r="16" spans="1:28" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="186"/>
       <c r="D16" s="46"/>
@@ -46068,7 +46149,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
       <c r="L16" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="str">
@@ -46089,7 +46170,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -46100,32 +46181,32 @@
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1">
       <c r="B18" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="F18" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="G18" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="I18" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>155</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -46134,10 +46215,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="324" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" s="325" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="326">
         <v>0</v>
@@ -46421,13 +46502,13 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="33"/>
       <c r="J28" s="63"/>
       <c r="K28" s="99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M28" s="32" t="str">
         <f>IF(COUNTIF(M19:M27,"RED")&gt;0,"RED",IF(COUNTIF(M19:M27,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -46457,7 +46538,7 @@
       </c>
       <c r="AB29" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14" customHeight="1">
       <c r="B32" s="475" t="s">
         <v>28</v>
       </c>
@@ -50803,30 +50884,35 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="65" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="65" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="65"/>
+    <col min="2" max="2" width="30.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="65" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -50917,7 +51003,7 @@
       <c r="B10" s="203"/>
       <c r="O10" s="71"/>
     </row>
-    <row r="11" spans="1:15" ht="15.95" customHeight="1">
+    <row r="11" spans="1:15" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="204" t="str">
         <f>ProjNo</f>
@@ -50929,7 +51015,7 @@
       </c>
       <c r="O11" s="71"/>
     </row>
-    <row r="12" spans="1:15" ht="15.95" customHeight="1">
+    <row r="12" spans="1:15" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="206" t="s">
         <v>42</v>
@@ -50941,7 +51027,7 @@
       <c r="D12" s="208"/>
       <c r="O12" s="71"/>
     </row>
-    <row r="13" spans="1:15" ht="15.95" customHeight="1">
+    <row r="13" spans="1:15" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="209" t="s">
         <v>43</v>
@@ -50960,49 +51046,49 @@
       <c r="D14" s="208"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1">
+    <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="B15" s="94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
       <c r="E15" s="94"/>
       <c r="F15" s="94"/>
     </row>
-    <row r="16" spans="1:15" ht="15.95" customHeight="1">
+    <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
       <c r="E16" s="477"/>
       <c r="F16" s="91"/>
     </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1">
+    <row r="17" spans="1:7" ht="16" customHeight="1">
       <c r="B17" s="478"/>
       <c r="C17" s="478"/>
       <c r="D17" s="478"/>
       <c r="E17" s="478"/>
       <c r="F17" s="213"/>
     </row>
-    <row r="18" spans="1:7" ht="44.1" customHeight="1">
+    <row r="18" spans="1:7" ht="44" customHeight="1">
       <c r="B18" s="227" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="227" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="227" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="227" t="s">
         <v>162</v>
-      </c>
-      <c r="C18" s="227" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="227" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="227" t="s">
-        <v>165</v>
       </c>
       <c r="F18" s="227" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="214" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1">
@@ -51010,91 +51096,91 @@
         <v>48</v>
       </c>
       <c r="B19" s="281" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C19" s="281" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D19" s="282">
         <v>41000</v>
       </c>
       <c r="E19" s="281" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="461" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="1:7" ht="44" customHeight="1">
+      <c r="B20" s="281" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="281" t="s">
         <v>169</v>
-      </c>
-      <c r="F19" s="461" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="96"/>
-    </row>
-    <row r="20" spans="1:7" ht="44.1" customHeight="1">
-      <c r="B20" s="281" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="281" t="s">
-        <v>172</v>
       </c>
       <c r="D20" s="282">
         <v>41122</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="461"/>
       <c r="G20" s="96"/>
     </row>
-    <row r="21" spans="1:7" ht="44.1" customHeight="1">
+    <row r="21" spans="1:7" ht="44" customHeight="1">
       <c r="B21" s="281" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="281" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="282"/>
       <c r="E21" s="281" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="461" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" ht="44" customHeight="1">
+      <c r="B22" s="281" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="281" t="s">
         <v>176</v>
-      </c>
-      <c r="F21" s="461" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="96"/>
-    </row>
-    <row r="22" spans="1:7" ht="44.1" customHeight="1">
-      <c r="B22" s="281" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="281" t="s">
-        <v>179</v>
       </c>
       <c r="D22" s="282">
         <v>41122</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F22" s="461" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
       <c r="B23" s="281" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="281" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="282">
         <v>41091</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F23" s="461" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="96"/>
     </row>
-    <row r="24" spans="1:7" ht="44.1" customHeight="1">
+    <row r="24" spans="1:7" ht="44" customHeight="1">
       <c r="B24" s="281"/>
       <c r="C24" s="281"/>
       <c r="D24" s="282"/>
@@ -51105,7 +51191,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="44.1" customHeight="1">
+    <row r="25" spans="1:7" ht="44" customHeight="1">
       <c r="B25" s="281"/>
       <c r="C25" s="281"/>
       <c r="D25" s="282"/>
@@ -51116,7 +51202,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="44.1" customHeight="1">
+    <row r="26" spans="1:7" ht="44" customHeight="1">
       <c r="B26" s="281"/>
       <c r="C26" s="281"/>
       <c r="D26" s="282"/>
@@ -51127,7 +51213,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="44.1" customHeight="1">
+    <row r="27" spans="1:7" ht="44" customHeight="1">
       <c r="B27" s="281"/>
       <c r="C27" s="281"/>
       <c r="D27" s="282"/>
@@ -51138,7 +51224,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="44.1" customHeight="1">
+    <row r="28" spans="1:7" ht="44" customHeight="1">
       <c r="B28" s="281"/>
       <c r="C28" s="281"/>
       <c r="D28" s="281"/>
@@ -51156,7 +51242,7 @@
       <c r="E29" s="100"/>
       <c r="F29" s="100"/>
     </row>
-    <row r="30" spans="1:7" ht="14.1" customHeight="1">
+    <row r="30" spans="1:7" ht="14" customHeight="1">
       <c r="B30" s="475" t="s">
         <v>28</v>
       </c>
@@ -51417,33 +51503,38 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1">
@@ -51588,7 +51679,7 @@
       <c r="B10" s="132"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -51606,7 +51697,7 @@
       <c r="G11" s="126"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="61"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -51623,7 +51714,7 @@
       <c r="I12" s="125"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -51652,9 +51743,9 @@
       <c r="I14" s="125"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="18.95" customHeight="1">
+    <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -51664,9 +51755,9 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:18" ht="15.95" customHeight="1">
+    <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51687,91 +51778,91 @@
       <c r="I17" s="138"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="18" spans="2:18" s="5" customFormat="1" ht="34" customHeight="1">
       <c r="B18" s="137"/>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
       <c r="E18" s="137"/>
       <c r="F18" s="137"/>
       <c r="G18" s="481" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H18" s="482"/>
       <c r="I18" s="481" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J18" s="482"/>
       <c r="K18" s="481" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L18" s="482"/>
       <c r="M18" s="479" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N18" s="480"/>
       <c r="O18" s="479" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P18" s="480"/>
       <c r="Q18" s="479" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="480"/>
+    </row>
+    <row r="19" spans="2:18" ht="32" customHeight="1">
+      <c r="B19" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="R18" s="480"/>
-    </row>
-    <row r="19" spans="2:18" ht="32.1" customHeight="1">
-      <c r="B19" s="139" t="s">
+      <c r="E19" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="F19" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="G19" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="H19" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="217" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="216" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>198</v>
-      </c>
       <c r="I19" s="143" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J19" s="144" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K19" s="143" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L19" s="144" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M19" s="143" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N19" s="144" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O19" s="143" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P19" s="144" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="143" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R19" s="144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" s="4" customFormat="1" ht="27.95" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="B20" s="283">
         <v>1</v>
       </c>
@@ -51785,16 +51876,20 @@
         <v>41044</v>
       </c>
       <c r="F20" s="286" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G20" s="287">
         <v>15</v>
       </c>
-      <c r="H20" s="146"/>
+      <c r="H20" s="146">
+        <v>20</v>
+      </c>
       <c r="I20" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="147"/>
+        <v>197</v>
+      </c>
+      <c r="J20" s="147" t="s">
+        <v>395</v>
+      </c>
       <c r="K20" s="145"/>
       <c r="L20" s="147"/>
       <c r="M20" s="145"/>
@@ -51808,7 +51903,7 @@
       </c>
       <c r="R20" s="147"/>
     </row>
-    <row r="21" spans="2:18" ht="27.95" customHeight="1">
+    <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="283">
         <v>2</v>
       </c>
@@ -51822,16 +51917,20 @@
         <v>41136</v>
       </c>
       <c r="F21" s="286" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G21" s="287">
         <v>0</v>
       </c>
-      <c r="H21" s="146"/>
+      <c r="H21" s="146">
+        <v>20</v>
+      </c>
       <c r="I21" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="147"/>
+        <v>197</v>
+      </c>
+      <c r="J21" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K21" s="145"/>
       <c r="L21" s="147"/>
       <c r="M21" s="145"/>
@@ -51841,7 +51940,7 @@
       <c r="Q21" s="145"/>
       <c r="R21" s="147"/>
     </row>
-    <row r="22" spans="2:18" ht="27.95" customHeight="1">
+    <row r="22" spans="2:18" ht="28" customHeight="1">
       <c r="B22" s="283">
         <v>3</v>
       </c>
@@ -51855,16 +51954,20 @@
         <v>41167</v>
       </c>
       <c r="F22" s="286" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G22" s="287">
         <v>0</v>
       </c>
-      <c r="H22" s="148"/>
+      <c r="H22" s="148">
+        <v>0</v>
+      </c>
       <c r="I22" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" s="147"/>
+        <v>197</v>
+      </c>
+      <c r="J22" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K22" s="145"/>
       <c r="L22" s="147"/>
       <c r="M22" s="145"/>
@@ -51874,7 +51977,7 @@
       <c r="Q22" s="145"/>
       <c r="R22" s="147"/>
     </row>
-    <row r="23" spans="2:18" ht="27.95" customHeight="1">
+    <row r="23" spans="2:18" ht="28" customHeight="1">
       <c r="B23" s="283">
         <v>4</v>
       </c>
@@ -51888,16 +51991,20 @@
         <v>41167</v>
       </c>
       <c r="F23" s="286" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G23" s="287">
         <v>9</v>
       </c>
-      <c r="H23" s="147"/>
+      <c r="H23" s="147">
+        <v>20</v>
+      </c>
       <c r="I23" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="147"/>
+        <v>197</v>
+      </c>
+      <c r="J23" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K23" s="145"/>
       <c r="L23" s="147"/>
       <c r="M23" s="145">
@@ -51911,7 +52018,7 @@
       <c r="Q23" s="145"/>
       <c r="R23" s="147"/>
     </row>
-    <row r="24" spans="2:18" ht="27.95" customHeight="1">
+    <row r="24" spans="2:18" ht="28" customHeight="1">
       <c r="B24" s="283">
         <v>5</v>
       </c>
@@ -51925,12 +52032,16 @@
         <v>41212</v>
       </c>
       <c r="F24" s="286" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G24" s="287"/>
-      <c r="H24" s="147"/>
+      <c r="H24" s="147">
+        <v>10</v>
+      </c>
       <c r="I24" s="145"/>
-      <c r="J24" s="147"/>
+      <c r="J24" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K24" s="145"/>
       <c r="L24" s="147"/>
       <c r="M24" s="145"/>
@@ -51940,12 +52051,12 @@
       <c r="Q24" s="145"/>
       <c r="R24" s="147"/>
     </row>
-    <row r="25" spans="2:18" ht="27.95" customHeight="1">
+    <row r="25" spans="2:18" ht="28" customHeight="1">
       <c r="B25" s="283">
         <v>6</v>
       </c>
       <c r="C25" s="283" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="284">
         <v>41197</v>
@@ -51954,12 +52065,12 @@
         <v>41228</v>
       </c>
       <c r="F25" s="286" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G25" s="287"/>
       <c r="H25" s="147"/>
       <c r="I25" s="145"/>
-      <c r="J25" s="147"/>
+      <c r="J25" s="148"/>
       <c r="K25" s="145"/>
       <c r="L25" s="147"/>
       <c r="M25" s="145"/>
@@ -51969,12 +52080,12 @@
       <c r="Q25" s="145"/>
       <c r="R25" s="147"/>
     </row>
-    <row r="26" spans="2:18" ht="27.95" customHeight="1">
+    <row r="26" spans="2:18" ht="28" customHeight="1">
       <c r="B26" s="283">
         <v>7</v>
       </c>
       <c r="C26" s="283" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="284">
         <v>41258</v>
@@ -51983,12 +52094,16 @@
         <v>41304</v>
       </c>
       <c r="F26" s="286" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="287"/>
-      <c r="H26" s="147"/>
+      <c r="H26" s="147">
+        <v>20</v>
+      </c>
       <c r="I26" s="145"/>
-      <c r="J26" s="147"/>
+      <c r="J26" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K26" s="145"/>
       <c r="L26" s="147"/>
       <c r="M26" s="145"/>
@@ -51998,12 +52113,12 @@
       <c r="Q26" s="145"/>
       <c r="R26" s="147"/>
     </row>
-    <row r="27" spans="2:18" ht="27.95" customHeight="1">
+    <row r="27" spans="2:18" ht="28" customHeight="1">
       <c r="B27" s="283">
         <v>8</v>
       </c>
       <c r="C27" s="283" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="284">
         <v>41258</v>
@@ -52012,14 +52127,18 @@
         <v>41304</v>
       </c>
       <c r="F27" s="286" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G27" s="287"/>
-      <c r="H27" s="147"/>
+      <c r="H27" s="147">
+        <v>20</v>
+      </c>
       <c r="I27" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="J27" s="147"/>
+        <v>197</v>
+      </c>
+      <c r="J27" s="148" t="s">
+        <v>395</v>
+      </c>
       <c r="K27" s="145"/>
       <c r="L27" s="147"/>
       <c r="M27" s="145"/>
@@ -52029,12 +52148,12 @@
       <c r="Q27" s="145"/>
       <c r="R27" s="147"/>
     </row>
-    <row r="28" spans="2:18" ht="27.95" customHeight="1">
+    <row r="28" spans="2:18" ht="28" customHeight="1">
       <c r="B28" s="283">
         <v>9</v>
       </c>
       <c r="C28" s="283" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="284">
         <v>41333</v>
@@ -52043,7 +52162,7 @@
         <v>41363</v>
       </c>
       <c r="F28" s="286" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G28" s="287"/>
       <c r="H28" s="147"/>
@@ -52058,7 +52177,7 @@
       <c r="Q28" s="145"/>
       <c r="R28" s="147"/>
     </row>
-    <row r="29" spans="2:18" ht="27.95" customHeight="1">
+    <row r="29" spans="2:18" ht="28" customHeight="1">
       <c r="B29" s="283"/>
       <c r="C29" s="283"/>
       <c r="D29" s="284"/>
@@ -52077,7 +52196,7 @@
       <c r="Q29" s="145"/>
       <c r="R29" s="147"/>
     </row>
-    <row r="30" spans="2:18" ht="27.95" customHeight="1">
+    <row r="30" spans="2:18" ht="28" customHeight="1">
       <c r="B30" s="283"/>
       <c r="C30" s="283"/>
       <c r="D30" s="284"/>
@@ -52096,7 +52215,7 @@
       <c r="Q30" s="145"/>
       <c r="R30" s="147"/>
     </row>
-    <row r="31" spans="2:18" ht="27.95" customHeight="1">
+    <row r="31" spans="2:18" ht="28" customHeight="1">
       <c r="B31" s="283"/>
       <c r="C31" s="283"/>
       <c r="D31" s="284"/>
@@ -52115,7 +52234,7 @@
       <c r="Q31" s="145"/>
       <c r="R31" s="147"/>
     </row>
-    <row r="32" spans="2:18" ht="27.95" customHeight="1">
+    <row r="32" spans="2:18" ht="28" customHeight="1">
       <c r="B32" s="283"/>
       <c r="C32" s="283"/>
       <c r="D32" s="284"/>
@@ -52134,7 +52253,7 @@
       <c r="Q32" s="145"/>
       <c r="R32" s="147"/>
     </row>
-    <row r="33" spans="2:18" ht="27.95" customHeight="1">
+    <row r="33" spans="2:18" ht="28" customHeight="1">
       <c r="B33" s="283"/>
       <c r="C33" s="283"/>
       <c r="D33" s="284"/>
@@ -52154,9 +52273,9 @@
       <c r="R33" s="150"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1"/>
-    <row r="35" spans="2:18" ht="45.95" customHeight="1">
+    <row r="35" spans="2:18" ht="46" customHeight="1">
       <c r="C35" s="158" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D35" s="159"/>
     </row>
@@ -52165,10 +52284,10 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="14.1" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="14" customHeight="1">
       <c r="B38" s="475" t="s">
         <v>28</v>
       </c>
@@ -52182,27 +52301,27 @@
     <row r="40" spans="2:18">
       <c r="B40" s="17"/>
       <c r="C40" s="460" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:18">
       <c r="C41" s="460" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:18">
       <c r="C42" s="460" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="2:18">
       <c r="C43" s="460" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="C44" s="460" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="5"/>
@@ -52211,7 +52330,7 @@
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1">
       <c r="C45" s="460" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -52391,31 +52510,36 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1">
@@ -52524,7 +52648,7 @@
       <c r="B10" s="132"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -52537,7 +52661,7 @@
       <c r="D11" s="126"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -52550,7 +52674,7 @@
       <c r="E12" s="125"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -52571,10 +52695,10 @@
       <c r="E14" s="125"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1">
+    <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -52584,7 +52708,7 @@
       </c>
       <c r="F15" s="94"/>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -52595,52 +52719,54 @@
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="218" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>218</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="218" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>221</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27.95" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28" customHeight="1">
       <c r="A18" s="109" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="290" t="s">
-        <v>223</v>
+        <v>390</v>
       </c>
       <c r="C18" s="296" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="275" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="275" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="298"/>
+      <c r="E18" s="299" t="s">
+        <v>389</v>
+      </c>
       <c r="F18" s="101"/>
       <c r="G18" s="57" t="str">
         <f t="shared" ref="G18:G27" si="0">IF(B18&gt;0,"THIS PERIOD 1","")</f>
         <v>THIS PERIOD 1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.95" customHeight="1">
+    <row r="19" spans="1:7" ht="28" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="290" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C19" s="296" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D19" s="275" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E19" s="298"/>
       <c r="F19" s="101"/>
@@ -52649,51 +52775,65 @@
         <v>THIS PERIOD 1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="65"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="296"/>
+      <c r="B20" s="290" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="296" t="s">
+        <v>292</v>
+      </c>
       <c r="D20" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E20" s="298"/>
       <c r="F20" s="101"/>
       <c r="G20" s="57" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
-      <c r="B21" s="290"/>
-      <c r="C21" s="296"/>
+        <v>THIS PERIOD 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="B21" s="290" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="296" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" s="275" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="298"/>
+        <v>224</v>
+      </c>
+      <c r="E21" s="299" t="s">
+        <v>393</v>
+      </c>
       <c r="F21" s="101"/>
       <c r="G21" s="57" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
-      <c r="B22" s="290"/>
-      <c r="C22" s="296"/>
+        <v>THIS PERIOD 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="B22" s="308" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="461" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E22" s="298"/>
       <c r="F22" s="101"/>
       <c r="G22" s="57" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
+        <v>THIS PERIOD 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B23" s="290"/>
       <c r="C23" s="296"/>
       <c r="D23" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E23" s="298"/>
       <c r="F23" s="101"/>
@@ -52702,11 +52842,11 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27.95" customHeight="1">
+    <row r="24" spans="1:7" ht="28" customHeight="1">
       <c r="B24" s="290"/>
       <c r="C24" s="296"/>
       <c r="D24" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E24" s="298"/>
       <c r="F24" s="101"/>
@@ -52715,11 +52855,11 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.95" customHeight="1">
+    <row r="25" spans="1:7" ht="28" customHeight="1">
       <c r="B25" s="290"/>
       <c r="C25" s="296"/>
       <c r="D25" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E25" s="298"/>
       <c r="F25" s="101"/>
@@ -52728,11 +52868,11 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27.95" customHeight="1">
+    <row r="26" spans="1:7" ht="28" customHeight="1">
       <c r="B26" s="291"/>
       <c r="C26" s="297"/>
       <c r="D26" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E26" s="299"/>
       <c r="F26" s="70"/>
@@ -52741,11 +52881,11 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="27.95" customHeight="1">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="28" customHeight="1">
       <c r="B27" s="291"/>
       <c r="C27" s="297"/>
       <c r="D27" s="275" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E27" s="299"/>
       <c r="F27" s="70"/>
@@ -52756,19 +52896,19 @@
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
       <c r="B28" s="121" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D28" s="219"/>
       <c r="E28" s="122" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="1:7" ht="27.95" customHeight="1">
+    <row r="29" spans="1:7" ht="28" customHeight="1">
       <c r="B29" s="292"/>
       <c r="C29" s="293"/>
       <c r="D29" s="220"/>
@@ -52779,7 +52919,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B30" s="292"/>
       <c r="C30" s="293"/>
       <c r="D30" s="221"/>
@@ -52790,7 +52930,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B31" s="292"/>
       <c r="C31" s="293"/>
       <c r="D31" s="221"/>
@@ -52801,7 +52941,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B32" s="292"/>
       <c r="C32" s="293"/>
       <c r="D32" s="221"/>
@@ -52812,7 +52952,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:8" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="33" spans="2:8" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B33" s="292"/>
       <c r="C33" s="293"/>
       <c r="D33" s="221"/>
@@ -52823,7 +52963,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:8" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="34" spans="2:8" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B34" s="292"/>
       <c r="C34" s="293"/>
       <c r="D34" s="221"/>
@@ -52834,7 +52974,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="35" spans="2:8" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B35" s="292"/>
       <c r="C35" s="293"/>
       <c r="D35" s="221"/>
@@ -52845,7 +52985,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:8" s="5" customFormat="1" ht="27.95" customHeight="1">
+    <row r="36" spans="2:8" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B36" s="292"/>
       <c r="C36" s="293"/>
       <c r="D36" s="221"/>
@@ -52856,7 +52996,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="27.95" customHeight="1">
+    <row r="37" spans="2:8" ht="28" customHeight="1">
       <c r="B37" s="292"/>
       <c r="C37" s="293"/>
       <c r="D37" s="221"/>
@@ -52867,7 +53007,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="27.95" customHeight="1">
+    <row r="38" spans="2:8" ht="28" customHeight="1">
       <c r="B38" s="294"/>
       <c r="C38" s="295"/>
       <c r="D38" s="222"/>
@@ -52878,7 +53018,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="14.1" customHeight="1">
+    <row r="41" spans="2:8" ht="14" customHeight="1">
       <c r="B41" s="475" t="s">
         <v>28</v>
       </c>
@@ -52887,7 +53027,7 @@
       <c r="E41" s="475"/>
       <c r="G41">
         <f>COUNTIF(G18:G27,"THIS PERIOD 1")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -53270,12 +53410,17 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -53285,21 +53430,21 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="15" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="5" customWidth="1"/>
-    <col min="12" max="18" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="20" max="25" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="5" customWidth="1"/>
+    <col min="12" max="18" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="25" width="16.33203125" customWidth="1"/>
     <col min="27" max="31" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53418,7 +53563,7 @@
       <c r="B10" s="132"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="130" t="str">
         <f>ProjNo</f>
@@ -53430,7 +53575,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="61"/>
       <c r="B12" s="128" t="s">
         <v>42</v>
@@ -53442,7 +53587,7 @@
       <c r="D12" s="125"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="129" t="s">
         <v>43</v>
@@ -53461,9 +53606,9 @@
       <c r="D14" s="125"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="18.95" customHeight="1">
+    <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -53477,9 +53622,9 @@
       <c r="I15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -53491,7 +53636,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="489" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M16" s="489"/>
       <c r="N16" s="489"/>
@@ -53500,7 +53645,7 @@
       <c r="Q16" s="489"/>
       <c r="R16" s="489"/>
     </row>
-    <row r="17" spans="1:31" ht="15.95" customHeight="1">
+    <row r="17" spans="1:31" ht="16" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="104"/>
@@ -53524,7 +53669,7 @@
       <c r="U17" s="65"/>
       <c r="V17" s="65"/>
       <c r="AA17" s="489" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AB17" s="489"/>
       <c r="AC17" s="489"/>
@@ -53544,25 +53689,25 @@
       <c r="J18" s="68"/>
       <c r="K18" s="107"/>
       <c r="L18" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="N18" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="O18" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="Q18" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="N18" s="83" t="s">
+      <c r="R18" s="83" t="s">
         <v>236</v>
-      </c>
-      <c r="O18" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="P18" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q18" s="83" t="s">
-        <v>239</v>
-      </c>
-      <c r="R18" s="83" t="s">
-        <v>240</v>
       </c>
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
@@ -53579,12 +53724,12 @@
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
       <c r="D19" s="486" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E19" s="487"/>
       <c r="F19" s="488"/>
       <c r="G19" s="486" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H19" s="487"/>
       <c r="I19" s="488"/>
@@ -53599,29 +53744,29 @@
       <c r="R19" s="83"/>
       <c r="S19" s="65"/>
       <c r="T19" s="486" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U19" s="487"/>
       <c r="V19" s="488"/>
       <c r="W19" s="486" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="X19" s="487"/>
       <c r="Y19" s="488"/>
       <c r="AA19" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1">
@@ -53629,22 +53774,22 @@
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
       <c r="D20" s="167" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F20" s="169" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G20" s="167" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H20" s="168" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I20" s="169" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="108"/>
@@ -53657,19 +53802,19 @@
       <c r="R20" s="83"/>
       <c r="S20" s="65"/>
       <c r="T20" s="256" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="U20" s="257" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V20" s="258" t="s">
         <v>35</v>
       </c>
       <c r="W20" s="256" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="X20" s="257" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Y20" s="258" t="s">
         <v>35</v>
@@ -53680,12 +53825,12 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" ht="27.95" customHeight="1">
+    <row r="21" spans="1:31" ht="28" customHeight="1">
       <c r="A21" s="109" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C21" s="163"/>
       <c r="D21" s="174">
@@ -53722,10 +53867,10 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="27.95" customHeight="1">
+    <row r="22" spans="1:31" ht="28" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="112" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="174">
@@ -53762,10 +53907,10 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="27.95" customHeight="1">
+    <row r="23" spans="1:31" ht="28" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="112" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="174">
@@ -53802,7 +53947,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="27.95" customHeight="1">
+    <row r="24" spans="1:31" ht="28" customHeight="1">
       <c r="A24" s="65"/>
       <c r="B24" s="113" t="s">
         <v>35</v>
@@ -53930,10 +54075,10 @@
       <c r="U25" s="65"/>
       <c r="V25" s="65"/>
     </row>
-    <row r="26" spans="1:31" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:31" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="230" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C26" s="231"/>
       <c r="D26" s="232"/>
@@ -53956,7 +54101,7 @@
       <c r="U26" s="65"/>
       <c r="V26" s="65"/>
     </row>
-    <row r="27" spans="1:31" ht="15.95" customHeight="1">
+    <row r="27" spans="1:31" ht="16" customHeight="1">
       <c r="A27" s="65"/>
       <c r="B27" s="105"/>
       <c r="C27" s="105"/>
@@ -54078,7 +54223,7 @@
       <c r="U31" s="65"/>
       <c r="V31" s="65"/>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+    <row r="32" spans="1:31" ht="14" customHeight="1">
       <c r="A32" s="65"/>
       <c r="B32" s="475" t="s">
         <v>28</v>
@@ -54397,5 +54542,10 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="820" windowWidth="20540" windowHeight="9140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.Header" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="395">
   <si>
     <t>1.Header</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>Registry Management Module</t>
-  </si>
-  <si>
-    <t>Implemented and tested sub-study management capability to allow subjects from a parent study to be allocated to sub-studies without duplicating core subject data.  Subproject concept is documented and within the UAT documents for Nik Zeps and ATR.  Travis believes this may need separate UAT document, but this functionality has been coded, tested and signed off as part of initial production release by WARTN Team.    Note the dates are wrong due to cell validation rules...actual date was 28/03/2013</t>
   </si>
   <si>
     <t>Integrated Genotypic Data Management Capability (Linked to Funding Milestone 5)</t>
@@ -1517,9 +1514,6 @@
     <t>Approx 90% complete as Data Extraction is the majority of this milestone.</t>
   </si>
   <si>
-    <t>Have completed required reports, Travis uncovered a few bugs in testing.  Must fix these then get UAT by Nik Zeps group</t>
-  </si>
-  <si>
     <t>http://thearktools.blogspot.com.au/</t>
   </si>
   <si>
@@ -1539,6 +1533,9 @@
   </si>
   <si>
     <t>daily</t>
+  </si>
+  <si>
+    <t>Implemented and tested sub-study management capability to allow subjects from a parent study to be allocated to sub-studies without duplicating core subject data.  Subproject concept is documented and within the UAT documents for Nik Zeps and ATR.  Travis believes this may need separate UAT document, but this functionality has been coded, tested and signed off as part of initial production release by WARTN Team.    Note the dates are wrong due to cell validation rules...actual date was 28/03/2013.  Added additional signoff documents 7/8/13 in order to make sure we met all NECTaR requirements</t>
   </si>
 </sst>
 </file>
@@ -35737,13 +35734,13 @@
     <row r="12" spans="1:6" ht="28" customHeight="1">
       <c r="C12" s="5"/>
       <c r="D12" s="155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
@@ -35751,7 +35748,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="490" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="490"/>
       <c r="F13" s="490"/>
@@ -35761,13 +35758,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="152" t="s">
+      <c r="F14" s="153" t="s">
         <v>255</v>
-      </c>
-      <c r="F14" s="153" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1">
@@ -35775,13 +35772,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="152" t="s">
-        <v>255</v>
-      </c>
       <c r="F15" s="153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
@@ -35789,13 +35786,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="152" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="152" t="s">
+      <c r="F16" s="153" t="s">
         <v>259</v>
-      </c>
-      <c r="F16" s="153" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="28" customHeight="1">
@@ -35803,13 +35800,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="152" t="s">
-        <v>255</v>
-      </c>
       <c r="F17" s="153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="28" customHeight="1">
@@ -35817,13 +35814,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="28" customHeight="1">
@@ -35831,13 +35828,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" s="152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="33" customHeight="1">
@@ -35845,13 +35842,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="151" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="152" t="s">
+      <c r="F20" s="153" t="s">
         <v>263</v>
-      </c>
-      <c r="F20" s="153" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="60" customHeight="1">
@@ -35859,27 +35856,27 @@
         <v>8</v>
       </c>
       <c r="D21" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="F21" s="153" t="s">
         <v>266</v>
-      </c>
-      <c r="F21" s="153" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="60" customHeight="1">
       <c r="C22" s="376" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="E22" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="152" t="s">
+      <c r="F22" s="153" t="s">
         <v>270</v>
-      </c>
-      <c r="F22" s="153" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -36082,48 +36079,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
         <v>272</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>273</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>274</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>275</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>276</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="345" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="I1" s="345" t="s">
         <v>278</v>
-      </c>
-      <c r="I1" s="345" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>223</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>224</v>
       </c>
       <c r="F2" s="125">
         <v>40909</v>
@@ -36132,33 +36129,33 @@
         <v>42004</v>
       </c>
       <c r="H2" s="345" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="345" t="s">
         <v>281</v>
-      </c>
-      <c r="I2" s="345" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="345" t="s">
         <v>284</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="345" t="s">
+      <c r="I3" s="345" t="s">
         <v>285</v>
-      </c>
-      <c r="I3" s="345" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -36166,16 +36163,16 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="345" t="s">
         <v>287</v>
       </c>
-      <c r="D4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="345" t="s">
+      <c r="I4" s="345" t="s">
         <v>288</v>
-      </c>
-      <c r="I4" s="345" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -36183,11 +36180,11 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H5" s="345"/>
       <c r="I5" s="345" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36195,22 +36192,22 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1">
       <c r="C8" s="351" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -36253,76 +36250,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="233" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="234" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="D1" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="E1" s="234" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="F1" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="G1" s="235" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="235" t="s">
+      <c r="H1" s="236" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="236" t="s">
+      <c r="I1" s="237" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="237" t="s">
+      <c r="J1" s="235" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="K1" s="236" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="L1" s="237" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="237" t="s">
+      <c r="M1" s="235" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="235" t="s">
+      <c r="N1" s="236" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="O1" s="237" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="P1" s="238" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="238" t="s">
+      <c r="Q1" s="238" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="238" t="s">
+      <c r="R1" s="239" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="239" t="s">
+      <c r="S1" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="239" t="s">
+      <c r="T1" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="239" t="s">
+      <c r="U1" s="247" t="s">
         <v>312</v>
       </c>
-      <c r="U1" s="247" t="s">
+      <c r="V1" s="248" t="s">
         <v>313</v>
       </c>
-      <c r="V1" s="248" t="s">
+      <c r="W1" s="248" t="s">
         <v>314</v>
       </c>
-      <c r="W1" s="248" t="s">
+      <c r="X1" s="248" t="s">
         <v>315</v>
       </c>
-      <c r="X1" s="248" t="s">
+      <c r="Y1" s="249" t="s">
         <v>316</v>
-      </c>
-      <c r="Y1" s="249" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1">
@@ -36903,7 +36900,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="U16" s="351" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -37108,7 +37105,7 @@
     <row r="15" spans="1:5" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="94" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -37117,7 +37114,7 @@
     <row r="16" spans="1:5" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -37125,7 +37122,7 @@
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
       <c r="B17" s="346" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" ht="15" customHeight="1">
@@ -37133,147 +37130,147 @@
     </row>
     <row r="19" spans="2:10" ht="32" customHeight="1">
       <c r="B19" s="347" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="347" t="s">
         <v>322</v>
       </c>
-      <c r="C19" s="347" t="s">
+      <c r="D19" s="347" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="347" t="s">
+      <c r="E19" s="347" t="s">
         <v>324</v>
       </c>
-      <c r="E19" s="347" t="s">
+      <c r="F19" s="347" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="347" t="s">
+      <c r="G19" s="347" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="347" t="s">
+      <c r="H19" s="347" t="s">
         <v>327</v>
       </c>
-      <c r="H19" s="347" t="s">
+      <c r="I19" s="347" t="s">
         <v>328</v>
       </c>
-      <c r="I19" s="347" t="s">
-        <v>329</v>
-      </c>
       <c r="J19" s="347" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="32" customHeight="1">
       <c r="B20" s="348" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="348" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="348" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="348" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="348" t="s">
+      <c r="E20" s="349" t="s">
         <v>331</v>
       </c>
-      <c r="E20" s="349" t="s">
+      <c r="F20" s="348" t="s">
         <v>332</v>
-      </c>
-      <c r="F20" s="348" t="s">
-        <v>333</v>
       </c>
       <c r="G20" s="350">
         <v>54768</v>
       </c>
       <c r="H20" s="348" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I20" s="348" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J20" s="348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="32" customHeight="1">
       <c r="B21" s="348" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="348" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="348" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="348" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="348" t="s">
-        <v>336</v>
-      </c>
       <c r="E21" s="349" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="348" t="s">
         <v>332</v>
-      </c>
-      <c r="F21" s="348" t="s">
-        <v>333</v>
       </c>
       <c r="G21" s="350">
         <v>42374</v>
       </c>
       <c r="H21" s="348" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="348" t="s">
         <v>334</v>
       </c>
-      <c r="I21" s="348" t="s">
-        <v>335</v>
-      </c>
       <c r="J21" s="348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="32" customHeight="1">
       <c r="B22" s="348" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="348" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="348" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="348" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="348" t="s">
+      <c r="E22" s="349" t="s">
         <v>338</v>
       </c>
-      <c r="E22" s="349" t="s">
-        <v>339</v>
-      </c>
       <c r="F22" s="348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G22" s="350">
         <v>42374</v>
       </c>
       <c r="H22" s="348" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I22" s="348" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J22" s="348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32" customHeight="1">
       <c r="B23" s="348" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="348" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="348" t="s">
         <v>340</v>
       </c>
-      <c r="C23" s="348" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="348" t="s">
-        <v>341</v>
-      </c>
       <c r="E23" s="349" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F23" s="348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G23" s="350">
         <v>97714</v>
       </c>
       <c r="H23" s="348" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I23" s="348" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J23" s="348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="32" customHeight="1">
@@ -38888,7 +38885,7 @@
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="C15" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -38908,46 +38905,46 @@
       <c r="C18" s="370"/>
       <c r="D18" s="371"/>
       <c r="E18" s="506" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F18" s="507"/>
       <c r="G18" s="507"/>
       <c r="H18" s="508"/>
       <c r="I18" s="444"/>
       <c r="J18" s="509" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K18" s="510"/>
       <c r="L18" s="511"/>
     </row>
     <row r="19" spans="1:21" ht="57" customHeight="1">
       <c r="C19" s="372" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="373"/>
       <c r="E19" s="445" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="446" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="446" t="s">
+      <c r="G19" s="446" t="s">
         <v>346</v>
       </c>
-      <c r="G19" s="446" t="s">
+      <c r="H19" s="447" t="s">
         <v>347</v>
       </c>
-      <c r="H19" s="447" t="s">
+      <c r="I19" s="448" t="s">
         <v>348</v>
       </c>
-      <c r="I19" s="448" t="s">
+      <c r="J19" s="449" t="s">
         <v>349</v>
       </c>
-      <c r="J19" s="449" t="s">
+      <c r="K19" s="450" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="450" t="s">
+      <c r="L19" s="451" t="s">
         <v>351</v>
-      </c>
-      <c r="L19" s="451" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1">
@@ -38988,90 +38985,90 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="N22" s="360" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P22" s="360"/>
       <c r="S22" s="409" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T22" s="409" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U22" s="441"/>
     </row>
     <row r="23" spans="1:21" s="356" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="512" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="514" t="s">
         <v>355</v>
-      </c>
-      <c r="B23" s="514" t="s">
-        <v>356</v>
       </c>
       <c r="C23" s="515"/>
       <c r="D23" s="500" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="502" t="s">
         <v>357</v>
-      </c>
-      <c r="E23" s="502" t="s">
-        <v>358</v>
       </c>
       <c r="F23" s="500"/>
       <c r="G23" s="500"/>
       <c r="H23" s="503"/>
       <c r="I23" s="504" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="494" t="s">
         <v>359</v>
-      </c>
-      <c r="J23" s="494" t="s">
-        <v>360</v>
       </c>
       <c r="K23" s="495"/>
       <c r="L23" s="496"/>
       <c r="M23" s="497" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N23" s="355"/>
       <c r="P23" s="499" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q23" s="499" t="s">
         <v>362</v>
       </c>
-      <c r="Q23" s="499" t="s">
+      <c r="S23" s="379" t="s">
         <v>363</v>
-      </c>
-      <c r="S23" s="379" t="s">
-        <v>364</v>
       </c>
       <c r="T23" s="381" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
       <c r="U23" s="516" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="356" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="513"/>
       <c r="B24" s="428" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="394" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D24" s="501"/>
       <c r="E24" s="392" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="393" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="393" t="s">
         <v>249</v>
-      </c>
-      <c r="F24" s="393" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="393" t="s">
-        <v>250</v>
       </c>
       <c r="H24" s="394" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="505"/>
       <c r="J24" s="392" t="s">
+        <v>366</v>
+      </c>
+      <c r="K24" s="393" t="s">
         <v>367</v>
-      </c>
-      <c r="K24" s="393" t="s">
-        <v>368</v>
       </c>
       <c r="L24" s="394" t="s">
         <v>35</v>
@@ -39081,7 +39078,7 @@
       <c r="P24" s="499"/>
       <c r="Q24" s="499"/>
       <c r="S24" s="356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T24" s="382">
         <f>I39*0.3</f>
@@ -39214,7 +39211,7 @@
         <v>9910</v>
       </c>
       <c r="S26" s="380" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T26" s="380">
         <f>LASTQUARTER</f>
@@ -39269,7 +39266,7 @@
         <v>10945</v>
       </c>
       <c r="S27" s="380" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T27" s="383">
         <f>I39*0.2</f>
@@ -39380,7 +39377,7 @@
         <v>16637</v>
       </c>
       <c r="S29" s="380" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T29" s="380" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
@@ -39794,7 +39791,7 @@
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="B38" s="384"/>
       <c r="C38" s="424" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" s="402">
         <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
@@ -39848,7 +39845,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="H39" s="426" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I39" s="391">
         <f>E20</f>
@@ -39957,7 +39954,7 @@
     </row>
     <row r="46" spans="1:21" ht="26.25" hidden="1" customHeight="1">
       <c r="C46" s="427" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="386"/>
       <c r="E46" s="438">
@@ -40006,7 +40003,7 @@
     </row>
     <row r="47" spans="1:21" hidden="1">
       <c r="C47" s="426" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="389"/>
       <c r="E47" s="440">
@@ -40068,7 +40065,7 @@
     </row>
     <row r="48" spans="1:21" hidden="1">
       <c r="C48" s="426" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="440">
@@ -40130,7 +40127,7 @@
     </row>
     <row r="49" spans="3:18" hidden="1">
       <c r="C49" s="426" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" s="389"/>
       <c r="E49" s="440">
@@ -40192,7 +40189,7 @@
     </row>
     <row r="50" spans="3:18" hidden="1">
       <c r="C50" s="426" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D50" s="389"/>
       <c r="E50" s="440">
@@ -40254,7 +40251,7 @@
     </row>
     <row r="51" spans="3:18" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="426" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="389"/>
       <c r="E51" s="440">
@@ -40316,7 +40313,7 @@
     </row>
     <row r="52" spans="3:18" ht="26.25" hidden="1" customHeight="1">
       <c r="C52" s="427" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="438">
@@ -40365,7 +40362,7 @@
     </row>
     <row r="53" spans="3:18" hidden="1">
       <c r="C53" s="426" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" s="389"/>
       <c r="E53" s="440">
@@ -40427,7 +40424,7 @@
     </row>
     <row r="54" spans="3:18" hidden="1">
       <c r="C54" s="426" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" s="389"/>
       <c r="E54" s="440">
@@ -40489,7 +40486,7 @@
     </row>
     <row r="55" spans="3:18" hidden="1">
       <c r="C55" s="389" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" s="389"/>
       <c r="E55" s="440">
@@ -40551,7 +40548,7 @@
     </row>
     <row r="56" spans="3:18" hidden="1">
       <c r="C56" s="389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" s="389"/>
       <c r="E56" s="440">
@@ -41798,8 +41795,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -42569,7 +42566,7 @@
       </c>
       <c r="L28" s="194"/>
       <c r="M28" s="315" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N28" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42665,7 +42662,7 @@
       <c r="K30" s="193"/>
       <c r="L30" s="194"/>
       <c r="M30" s="315" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N30" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42697,15 +42694,14 @@
         <v>41258</v>
       </c>
       <c r="G31" s="123">
-        <v>75</v>
-      </c>
-      <c r="H31" s="353" t="str">
-        <f>IF(G31=100,"Enter date of completion","")</f>
-        <v/>
-      </c>
-      <c r="I31" s="228" t="str">
+        <v>100</v>
+      </c>
+      <c r="H31" s="353">
+        <v>41466</v>
+      </c>
+      <c r="I31" s="228">
         <f t="shared" si="0"/>
-        <v/>
+        <v>208</v>
       </c>
       <c r="J31" s="195"/>
       <c r="K31" s="193" t="s">
@@ -42713,19 +42709,19 @@
       </c>
       <c r="L31" s="194"/>
       <c r="M31" s="315" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N31" s="162" t="str">
         <f t="shared" si="1"/>
-        <v>COMMENT REQUIRED</v>
+        <v/>
       </c>
       <c r="O31" s="225" t="str">
         <f t="shared" si="2"/>
-        <v>NOT COMPLETE</v>
+        <v>COMPLETE</v>
       </c>
       <c r="P31" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>RED</v>
+        <v/>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -42762,7 +42758,7 @@
       </c>
       <c r="L32" s="194"/>
       <c r="M32" s="315" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="N32" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42787,10 +42783,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="323" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="323" t="s">
         <v>97</v>
-      </c>
-      <c r="E33" s="323" t="s">
-        <v>98</v>
       </c>
       <c r="F33" s="191">
         <v>41333</v>
@@ -42812,7 +42808,7 @@
       </c>
       <c r="L33" s="194"/>
       <c r="M33" s="315" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N33" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42837,10 +42833,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="323" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="323" t="s">
         <v>100</v>
-      </c>
-      <c r="E34" s="323" t="s">
-        <v>101</v>
       </c>
       <c r="F34" s="191">
         <v>41334</v>
@@ -42883,10 +42879,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="323" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="323" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" s="323" t="s">
-        <v>103</v>
       </c>
       <c r="F35" s="191">
         <v>41600</v>
@@ -42929,10 +42925,10 @@
         <v>18</v>
       </c>
       <c r="D36" s="323" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="323" t="s">
         <v>104</v>
-      </c>
-      <c r="E36" s="323" t="s">
-        <v>105</v>
       </c>
       <c r="F36" s="191">
         <v>41820</v>
@@ -42974,7 +42970,7 @@
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
@@ -42982,7 +42978,7 @@
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
       <c r="O37" s="226" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P37" s="226" t="str">
         <f>IF(COUNTIF(P19:P36,"RED")&gt;0,"RED",IF(COUNTIF(P19:P36,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -43001,7 +42997,7 @@
       <c r="H38" s="66"/>
       <c r="I38" s="27">
         <f>IFERROR(AVERAGE(I19:I36),"")</f>
-        <v>181.75</v>
+        <v>187</v>
       </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
@@ -44245,7 +44241,7 @@
     <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -44272,7 +44268,7 @@
     <row r="16" spans="1:18" ht="17" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -44310,29 +44306,29 @@
     </row>
     <row r="18" spans="1:18" ht="47.25" customHeight="1">
       <c r="B18" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="D18" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="E18" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="F18" s="76" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>114</v>
       </c>
       <c r="G18" s="180"/>
       <c r="H18" s="181" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="181" t="s">
+      <c r="J18" s="76" t="s">
         <v>116</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>117</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
@@ -44585,17 +44581,17 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="B28" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="D28" s="84" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>120</v>
       </c>
       <c r="E28" s="476"/>
       <c r="F28" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -45079,7 +45075,7 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -45237,7 +45233,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
@@ -45261,7 +45257,7 @@
     <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="477" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -45295,16 +45291,16 @@
     </row>
     <row r="18" spans="1:15" ht="27" customHeight="1">
       <c r="B18" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="E18" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>127</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="4"/>
@@ -45322,16 +45318,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="302" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="416" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="416" t="s">
+      <c r="D19" s="304" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="304" t="s">
+      <c r="E19" s="410" t="s">
         <v>130</v>
-      </c>
-      <c r="E19" s="410" t="s">
-        <v>131</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="48" t="str">
@@ -45352,13 +45348,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="303" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="304" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="304" t="s">
-        <v>133</v>
-      </c>
       <c r="E20" s="410" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="48" t="str">
@@ -45379,13 +45375,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="303" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="304" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="304" t="s">
+      <c r="E21" s="410" t="s">
         <v>135</v>
-      </c>
-      <c r="E21" s="410" t="s">
-        <v>136</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="48" t="str">
@@ -45406,13 +45402,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="303" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="304" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="304" t="s">
-        <v>138</v>
-      </c>
       <c r="E22" s="410" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="48" t="str">
@@ -45433,13 +45429,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="306" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="307" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="307" t="s">
-        <v>140</v>
-      </c>
       <c r="E23" s="411" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="48" t="str">
@@ -46108,7 +46104,7 @@
     <row r="15" spans="1:28" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -46125,7 +46121,7 @@
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
       <c r="L15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -46137,7 +46133,7 @@
     <row r="16" spans="1:28" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="186"/>
       <c r="D16" s="46"/>
@@ -46149,7 +46145,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
       <c r="L16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="str">
@@ -46170,7 +46166,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -46181,32 +46177,32 @@
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1">
       <c r="B18" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="D18" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="E18" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="F18" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="G18" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="50" t="s">
+      <c r="I18" s="51" t="s">
         <v>151</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>152</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -46215,10 +46211,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="324" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="325" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="325" t="s">
-        <v>155</v>
       </c>
       <c r="D19" s="326">
         <v>0</v>
@@ -46502,13 +46498,13 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="33"/>
       <c r="J28" s="63"/>
       <c r="K28" s="99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M28" s="32" t="str">
         <f>IF(COUNTIF(M19:M27,"RED")&gt;0,"RED",IF(COUNTIF(M19:M27,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -50899,7 +50895,7 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -51048,7 +51044,7 @@
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="B15" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -51057,7 +51053,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51073,22 +51069,22 @@
     </row>
     <row r="18" spans="1:7" ht="44" customHeight="1">
       <c r="B18" s="227" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="227" t="s">
+      <c r="D18" s="227" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="227" t="s">
+      <c r="E18" s="227" t="s">
         <v>161</v>
-      </c>
-      <c r="E18" s="227" t="s">
-        <v>162</v>
       </c>
       <c r="F18" s="227" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="214" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1">
@@ -51096,87 +51092,87 @@
         <v>48</v>
       </c>
       <c r="B19" s="281" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="281" t="s">
         <v>164</v>
-      </c>
-      <c r="C19" s="281" t="s">
-        <v>165</v>
       </c>
       <c r="D19" s="282">
         <v>41000</v>
       </c>
       <c r="E19" s="281" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="461" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="461" t="s">
-        <v>167</v>
       </c>
       <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" ht="44" customHeight="1">
       <c r="B20" s="281" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="281" t="s">
         <v>168</v>
-      </c>
-      <c r="C20" s="281" t="s">
-        <v>169</v>
       </c>
       <c r="D20" s="282">
         <v>41122</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="461"/>
       <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" ht="44" customHeight="1">
       <c r="B21" s="281" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="281" t="s">
         <v>171</v>
-      </c>
-      <c r="C21" s="281" t="s">
-        <v>172</v>
       </c>
       <c r="D21" s="282"/>
       <c r="E21" s="281" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="461" t="s">
         <v>173</v>
-      </c>
-      <c r="F21" s="461" t="s">
-        <v>174</v>
       </c>
       <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:7" ht="44" customHeight="1">
       <c r="B22" s="281" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="281" t="s">
         <v>175</v>
-      </c>
-      <c r="C22" s="281" t="s">
-        <v>176</v>
       </c>
       <c r="D22" s="282">
         <v>41122</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" s="461" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
       <c r="B23" s="281" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="281" t="s">
         <v>178</v>
-      </c>
-      <c r="C23" s="281" t="s">
-        <v>179</v>
       </c>
       <c r="D23" s="282">
         <v>41091</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="461" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="96"/>
     </row>
@@ -51518,8 +51514,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -51745,7 +51741,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -51757,7 +51753,7 @@
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51785,81 +51781,81 @@
       <c r="E18" s="137"/>
       <c r="F18" s="137"/>
       <c r="G18" s="481" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="482"/>
       <c r="I18" s="481" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J18" s="482"/>
       <c r="K18" s="481" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L18" s="482"/>
       <c r="M18" s="479" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N18" s="480"/>
       <c r="O18" s="479" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P18" s="480"/>
       <c r="Q18" s="479" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R18" s="480"/>
     </row>
     <row r="19" spans="2:18" ht="32" customHeight="1">
       <c r="B19" s="139" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="D19" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="E19" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="F19" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="217" t="s">
+      <c r="G19" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="216" t="s">
+      <c r="H19" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="144" t="s">
-        <v>195</v>
-      </c>
       <c r="I19" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="J19" s="144" t="s">
-        <v>195</v>
-      </c>
       <c r="K19" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="144" t="s">
-        <v>195</v>
-      </c>
       <c r="M19" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="N19" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="N19" s="144" t="s">
-        <v>195</v>
-      </c>
       <c r="O19" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="P19" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="P19" s="144" t="s">
-        <v>195</v>
-      </c>
       <c r="Q19" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="144" t="s">
         <v>194</v>
-      </c>
-      <c r="R19" s="144" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:18" s="4" customFormat="1" ht="28" customHeight="1">
@@ -51876,19 +51872,19 @@
         <v>41044</v>
       </c>
       <c r="F20" s="286" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="287">
         <v>15</v>
       </c>
       <c r="H20" s="146">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I20" s="145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J20" s="147" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="147"/>
@@ -51897,7 +51893,9 @@
       <c r="O20" s="145">
         <v>1</v>
       </c>
-      <c r="P20" s="147"/>
+      <c r="P20" s="147">
+        <v>25</v>
+      </c>
       <c r="Q20" s="145">
         <v>32500</v>
       </c>
@@ -51917,19 +51915,19 @@
         <v>41136</v>
       </c>
       <c r="F21" s="286" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G21" s="287">
         <v>0</v>
       </c>
       <c r="H21" s="146">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I21" s="145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J21" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K21" s="145"/>
       <c r="L21" s="147"/>
@@ -51954,19 +51952,19 @@
         <v>41167</v>
       </c>
       <c r="F22" s="286" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="287">
         <v>0</v>
       </c>
       <c r="H22" s="148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J22" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K22" s="145"/>
       <c r="L22" s="147"/>
@@ -51991,30 +51989,36 @@
         <v>41167</v>
       </c>
       <c r="F23" s="286" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G23" s="287">
         <v>9</v>
       </c>
       <c r="H23" s="147">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I23" s="145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K23" s="145"/>
-      <c r="L23" s="147"/>
+      <c r="L23" s="147">
+        <v>4</v>
+      </c>
       <c r="M23" s="145">
         <v>6</v>
       </c>
-      <c r="N23" s="147"/>
+      <c r="N23" s="147">
+        <v>32290</v>
+      </c>
       <c r="O23" s="145">
         <v>2</v>
       </c>
-      <c r="P23" s="147"/>
+      <c r="P23" s="147">
+        <v>29</v>
+      </c>
       <c r="Q23" s="145"/>
       <c r="R23" s="147"/>
     </row>
@@ -52032,15 +52036,15 @@
         <v>41212</v>
       </c>
       <c r="F24" s="286" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="287"/>
       <c r="H24" s="147">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I24" s="145"/>
       <c r="J24" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K24" s="145"/>
       <c r="L24" s="147"/>
@@ -52065,7 +52069,7 @@
         <v>41228</v>
       </c>
       <c r="F25" s="286" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="287"/>
       <c r="H25" s="147"/>
@@ -52094,15 +52098,15 @@
         <v>41304</v>
       </c>
       <c r="F26" s="286" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="287"/>
       <c r="H26" s="147">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I26" s="145"/>
       <c r="J26" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K26" s="145"/>
       <c r="L26" s="147"/>
@@ -52127,17 +52131,17 @@
         <v>41304</v>
       </c>
       <c r="F27" s="286" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G27" s="287"/>
       <c r="H27" s="147">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I27" s="145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J27" s="148" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K27" s="145"/>
       <c r="L27" s="147"/>
@@ -52153,7 +52157,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="283" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="284">
         <v>41333</v>
@@ -52162,7 +52166,7 @@
         <v>41363</v>
       </c>
       <c r="F28" s="286" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" s="287"/>
       <c r="H28" s="147"/>
@@ -52275,7 +52279,7 @@
     <row r="34" spans="2:18" ht="15" customHeight="1"/>
     <row r="35" spans="2:18" ht="46" customHeight="1">
       <c r="C35" s="158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="159"/>
     </row>
@@ -52284,7 +52288,7 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:18" ht="14" customHeight="1">
@@ -52301,27 +52305,27 @@
     <row r="40" spans="2:18">
       <c r="B40" s="17"/>
       <c r="C40" s="460" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="2:18">
       <c r="C41" s="460" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:18">
       <c r="C42" s="460" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:18">
       <c r="C43" s="460" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="C44" s="460" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="5"/>
@@ -52330,7 +52334,7 @@
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1">
       <c r="C45" s="460" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -52698,7 +52702,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -52719,20 +52723,20 @@
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="D17" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="218" t="s">
+      <c r="E17" s="55" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" customHeight="1">
@@ -52740,16 +52744,16 @@
         <v>48</v>
       </c>
       <c r="B18" s="290" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C18" s="296" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="299" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="57" t="str">
@@ -52760,13 +52764,13 @@
     <row r="19" spans="1:7" ht="28" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="290" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="296" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="296" t="s">
-        <v>223</v>
-      </c>
       <c r="D19" s="275" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="298"/>
       <c r="F19" s="101"/>
@@ -52778,13 +52782,13 @@
     <row r="20" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="290" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C20" s="296" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D20" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="298"/>
       <c r="F20" s="101"/>
@@ -52795,16 +52799,16 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B21" s="290" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C21" s="296" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="299" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="57" t="str">
@@ -52814,13 +52818,13 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B22" s="308" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C22" s="461" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="298"/>
       <c r="F22" s="101"/>
@@ -52833,7 +52837,7 @@
       <c r="B23" s="290"/>
       <c r="C23" s="296"/>
       <c r="D23" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="298"/>
       <c r="F23" s="101"/>
@@ -52846,7 +52850,7 @@
       <c r="B24" s="290"/>
       <c r="C24" s="296"/>
       <c r="D24" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="298"/>
       <c r="F24" s="101"/>
@@ -52859,7 +52863,7 @@
       <c r="B25" s="290"/>
       <c r="C25" s="296"/>
       <c r="D25" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="298"/>
       <c r="F25" s="101"/>
@@ -52872,7 +52876,7 @@
       <c r="B26" s="291"/>
       <c r="C26" s="297"/>
       <c r="D26" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="299"/>
       <c r="F26" s="70"/>
@@ -52885,7 +52889,7 @@
       <c r="B27" s="291"/>
       <c r="C27" s="297"/>
       <c r="D27" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="299"/>
       <c r="F27" s="70"/>
@@ -52896,14 +52900,14 @@
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
       <c r="B28" s="121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="219"/>
       <c r="E28" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="58"/>
@@ -53608,7 +53612,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -53624,7 +53628,7 @@
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -53636,7 +53640,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="489" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M16" s="489"/>
       <c r="N16" s="489"/>
@@ -53669,7 +53673,7 @@
       <c r="U17" s="65"/>
       <c r="V17" s="65"/>
       <c r="AA17" s="489" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB17" s="489"/>
       <c r="AC17" s="489"/>
@@ -53689,25 +53693,25 @@
       <c r="J18" s="68"/>
       <c r="K18" s="107"/>
       <c r="L18" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="M18" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="N18" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="N18" s="83" t="s">
+      <c r="O18" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="O18" s="83" t="s">
+      <c r="P18" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="P18" s="83" t="s">
+      <c r="Q18" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="Q18" s="83" t="s">
+      <c r="R18" s="83" t="s">
         <v>235</v>
-      </c>
-      <c r="R18" s="83" t="s">
-        <v>236</v>
       </c>
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
@@ -53724,12 +53728,12 @@
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
       <c r="D19" s="486" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="487"/>
       <c r="F19" s="488"/>
       <c r="G19" s="486" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19" s="487"/>
       <c r="I19" s="488"/>
@@ -53744,29 +53748,29 @@
       <c r="R19" s="83"/>
       <c r="S19" s="65"/>
       <c r="T19" s="486" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U19" s="487"/>
       <c r="V19" s="488"/>
       <c r="W19" s="486" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X19" s="487"/>
       <c r="Y19" s="488"/>
       <c r="AA19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="AE19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1">
@@ -53774,22 +53778,22 @@
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
       <c r="D20" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="168" t="s">
+      <c r="F20" s="169" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="169" t="s">
-        <v>246</v>
-      </c>
       <c r="G20" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="168" t="s">
+      <c r="I20" s="169" t="s">
         <v>245</v>
-      </c>
-      <c r="I20" s="169" t="s">
-        <v>246</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="108"/>
@@ -53802,19 +53806,19 @@
       <c r="R20" s="83"/>
       <c r="S20" s="65"/>
       <c r="T20" s="256" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U20" s="257" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V20" s="258" t="s">
         <v>35</v>
       </c>
       <c r="W20" s="256" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X20" s="257" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y20" s="258" t="s">
         <v>35</v>
@@ -53830,7 +53834,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="163"/>
       <c r="D21" s="174">
@@ -53870,7 +53874,7 @@
     <row r="22" spans="1:31" ht="28" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="174">
@@ -53910,7 +53914,7 @@
     <row r="23" spans="1:31" ht="28" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="174">
@@ -54078,7 +54082,7 @@
     <row r="26" spans="1:31" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="231"/>
       <c r="D26" s="232"/>

--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1.Header" sheetId="1" r:id="rId1"/>
@@ -692,16 +692,10 @@
     <t>The impact of the reduced $ and delay of the GVL project on genomics storage is unknown</t>
   </si>
   <si>
-    <t xml:space="preserve"> Genomic Data Repository (installed at UNSW) determined not to be suitable so will be developing a solution in-house.  GVL project continues to be delayed.</t>
-  </si>
-  <si>
     <t>Amber</t>
   </si>
   <si>
     <t xml:space="preserve">Availability of appropriately skilled development resources. </t>
-  </si>
-  <si>
-    <t>One developer has been ill and may need extended sick leave.  Have submitted an RFC to adjust milestone dates and have identified another part time develop to assist.  Developer did take leave, cannot be sure of the future availability of developer, but as of today he is back.  Another developer has taken up project management duties in addition to coding duties.  A tight timeline still exists, and part-time developer has not had the time available initially indicated to us. In the interim an increased output from some key members has allowed the project to make up for this shortfall as staff roll back into productivity</t>
   </si>
   <si>
     <t>Ongoing availability of partner organisation resources.</t>
@@ -714,9 +708,6 @@
   </si>
   <si>
     <t>Availability RDSI, AAF and the Research Cloud.</t>
-  </si>
-  <si>
-    <t>NSP stability is good. UWA will support use of UWA AAF services for production authentication.</t>
   </si>
   <si>
     <t>Completeness of configuration documentation for new studies</t>
@@ -830,9 +821,6 @@
   </si>
   <si>
     <t>Integrated exist</t>
-  </si>
-  <si>
-    <t>Have received UWA permission to use one of the Universities service allocation of 12 services for use in production</t>
   </si>
   <si>
     <t>RDSI</t>
@@ -1536,6 +1524,18 @@
   </si>
   <si>
     <t>Implemented and tested sub-study management capability to allow subjects from a parent study to be allocated to sub-studies without duplicating core subject data.  Subproject concept is documented and within the UAT documents for Nik Zeps and ATR.  Travis believes this may need separate UAT document, but this functionality has been coded, tested and signed off as part of initial production release by WARTN Team.    Note the dates are wrong due to cell validation rules...actual date was 28/03/2013.  Added additional signoff documents 7/8/13 in order to make sure we met all NECTaR requirements</t>
+  </si>
+  <si>
+    <t>One developer has been ill and may need extended sick leave.  Have submitted an RFC to adjust milestone dates and have identified another part time develop to assist.  Developer did take leave, cannot be sure of the future availability of developer, but as of today he is back.  A tight timeline still exists, and part-time developer has not had the time available initially indicated to us. In the interim an increased output from some key members has allowed the project to make up for this shortfall as staff roll back into productivity.  A member of UWA team took on an extra day a week and has worked significantly over time to get back on (revised) schedule.  PhD student Thilina is also having to adjust his schedule to meet his writing and other needs, so his availability is a little less than originally thought but his productivity is still good at times he is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genomic Data Repository (installed at UNSW) determined not to be suitable so will be developing a solution in-house.  GVL project continues to be delayed.   UWA staff developed a solution which bypassed GVL.  Travis will do some research to check that GVL may be back as an option, and if timeline permits we can head back in that direction.  The reduced dollars is obviously always a risk given that the original estimates are what they are and reducing dollars means reducing hours of developer time.</t>
+  </si>
+  <si>
+    <t>NSP stability is good. UWA will support use of UWA AAF services for production authentication.  This is going well but we now have a lot of studies and data and will need more processing power.  Travis to address this</t>
+  </si>
+  <si>
+    <t>Have received UWA permission to use one of the Universities service allocation of 12 services for use in production.  This is completed</t>
   </si>
 </sst>
 </file>
@@ -35734,13 +35734,13 @@
     <row r="12" spans="1:6" ht="28" customHeight="1">
       <c r="C12" s="5"/>
       <c r="D12" s="155" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
@@ -35748,7 +35748,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="490" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="490"/>
       <c r="F13" s="490"/>
@@ -35758,13 +35758,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="152" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="153" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1">
@@ -35772,13 +35772,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
@@ -35786,13 +35786,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="151" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E16" s="152" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="28" customHeight="1">
@@ -35800,13 +35800,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="28" customHeight="1">
@@ -35814,13 +35814,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="151" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="28" customHeight="1">
@@ -35828,13 +35828,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="151" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E19" s="152" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="33" customHeight="1">
@@ -35842,13 +35842,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="151" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E20" s="152" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="60" customHeight="1">
@@ -35856,27 +35856,27 @@
         <v>8</v>
       </c>
       <c r="D21" s="151" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E21" s="152" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F21" s="153" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="60" customHeight="1">
       <c r="C22" s="376" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D22" s="151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E22" s="152" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F22" s="153" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -36082,45 +36082,45 @@
         <v>116</v>
       </c>
       <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="345" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="345" t="s">
         <v>274</v>
-      </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="345" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="345" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F2" s="125">
         <v>40909</v>
@@ -36129,33 +36129,33 @@
         <v>42004</v>
       </c>
       <c r="H2" s="345" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I2" s="345" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H3" s="345" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I3" s="345" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -36163,16 +36163,16 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H4" s="345" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I4" s="345" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -36180,11 +36180,11 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H5" s="345"/>
       <c r="I5" s="345" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36192,22 +36192,22 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1">
       <c r="C8" s="351" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -36250,76 +36250,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="233" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="234" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="234" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="234" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="234" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="G1" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="H1" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="I1" s="237" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="J1" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="G1" s="235" t="s">
+      <c r="K1" s="236" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="236" t="s">
+      <c r="L1" s="237" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="237" t="s">
+      <c r="M1" s="235" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="N1" s="236" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="O1" s="237" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="237" t="s">
+      <c r="P1" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="235" t="s">
+      <c r="Q1" s="238" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="R1" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="S1" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="238" t="s">
+      <c r="T1" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="238" t="s">
+      <c r="U1" s="247" t="s">
         <v>308</v>
       </c>
-      <c r="R1" s="239" t="s">
+      <c r="V1" s="248" t="s">
         <v>309</v>
       </c>
-      <c r="S1" s="239" t="s">
+      <c r="W1" s="248" t="s">
         <v>310</v>
       </c>
-      <c r="T1" s="239" t="s">
+      <c r="X1" s="248" t="s">
         <v>311</v>
       </c>
-      <c r="U1" s="247" t="s">
+      <c r="Y1" s="249" t="s">
         <v>312</v>
-      </c>
-      <c r="V1" s="248" t="s">
-        <v>313</v>
-      </c>
-      <c r="W1" s="248" t="s">
-        <v>314</v>
-      </c>
-      <c r="X1" s="248" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y1" s="249" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1">
@@ -36900,7 +36900,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="U16" s="351" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -37105,7 +37105,7 @@
     <row r="15" spans="1:5" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="94" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -37114,7 +37114,7 @@
     <row r="16" spans="1:5" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -37122,7 +37122,7 @@
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
       <c r="B17" s="346" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" ht="15" customHeight="1">
@@ -37130,28 +37130,28 @@
     </row>
     <row r="19" spans="2:10" ht="32" customHeight="1">
       <c r="B19" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="347" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="347" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="347" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="347" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="347" t="s">
+      <c r="G19" s="347" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="347" t="s">
+      <c r="H19" s="347" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="347" t="s">
+      <c r="I19" s="347" t="s">
         <v>324</v>
-      </c>
-      <c r="F19" s="347" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="347" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="347" t="s">
-        <v>327</v>
-      </c>
-      <c r="I19" s="347" t="s">
-        <v>328</v>
       </c>
       <c r="J19" s="347" t="s">
         <v>116</v>
@@ -37159,118 +37159,118 @@
     </row>
     <row r="20" spans="2:10" ht="32" customHeight="1">
       <c r="B20" s="348" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C20" s="348" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D20" s="348" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E20" s="349" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F20" s="348" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G20" s="350">
         <v>54768</v>
       </c>
       <c r="H20" s="348" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I20" s="348" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J20" s="348" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="32" customHeight="1">
       <c r="B21" s="348" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C21" s="348" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D21" s="348" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E21" s="349" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F21" s="348" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G21" s="350">
         <v>42374</v>
       </c>
       <c r="H21" s="348" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I21" s="348" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J21" s="348" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="32" customHeight="1">
       <c r="B22" s="348" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C22" s="348" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D22" s="348" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E22" s="349" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F22" s="348" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G22" s="350">
         <v>42374</v>
       </c>
       <c r="H22" s="348" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I22" s="348" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J22" s="348" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32" customHeight="1">
       <c r="B23" s="348" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C23" s="348" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D23" s="348" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E23" s="349" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F23" s="348" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G23" s="350">
         <v>97714</v>
       </c>
       <c r="H23" s="348" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I23" s="348" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J23" s="348" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="32" customHeight="1">
@@ -38020,7 +38020,7 @@
   </sheetPr>
   <dimension ref="A1:WVW57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
@@ -38885,7 +38885,7 @@
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="C15" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -38905,46 +38905,46 @@
       <c r="C18" s="370"/>
       <c r="D18" s="371"/>
       <c r="E18" s="506" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F18" s="507"/>
       <c r="G18" s="507"/>
       <c r="H18" s="508"/>
       <c r="I18" s="444"/>
       <c r="J18" s="509" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K18" s="510"/>
       <c r="L18" s="511"/>
     </row>
     <row r="19" spans="1:21" ht="57" customHeight="1">
       <c r="C19" s="372" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D19" s="373"/>
       <c r="E19" s="445" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="446" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="446" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="447" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" s="448" t="s">
         <v>344</v>
       </c>
-      <c r="F19" s="446" t="s">
+      <c r="J19" s="449" t="s">
         <v>345</v>
       </c>
-      <c r="G19" s="446" t="s">
+      <c r="K19" s="450" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="447" t="s">
+      <c r="L19" s="451" t="s">
         <v>347</v>
-      </c>
-      <c r="I19" s="448" t="s">
-        <v>348</v>
-      </c>
-      <c r="J19" s="449" t="s">
-        <v>349</v>
-      </c>
-      <c r="K19" s="450" t="s">
-        <v>350</v>
-      </c>
-      <c r="L19" s="451" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1">
@@ -38985,11 +38985,11 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="N22" s="360" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P22" s="360"/>
       <c r="S22" s="409" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="T22" s="409" t="s">
         <v>116</v>
@@ -38998,77 +38998,77 @@
     </row>
     <row r="23" spans="1:21" s="356" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="512" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B23" s="514" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C23" s="515"/>
       <c r="D23" s="500" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E23" s="502" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F23" s="500"/>
       <c r="G23" s="500"/>
       <c r="H23" s="503"/>
       <c r="I23" s="504" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J23" s="494" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K23" s="495"/>
       <c r="L23" s="496"/>
       <c r="M23" s="497" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N23" s="355"/>
       <c r="P23" s="499" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="499" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="S23" s="379" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T23" s="381" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
       <c r="U23" s="516" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="356" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="513"/>
       <c r="B24" s="428" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C24" s="394" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D24" s="501"/>
       <c r="E24" s="392" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F24" s="393" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G24" s="393" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H24" s="394" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="505"/>
       <c r="J24" s="392" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K24" s="393" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L24" s="394" t="s">
         <v>35</v>
@@ -39078,7 +39078,7 @@
       <c r="P24" s="499"/>
       <c r="Q24" s="499"/>
       <c r="S24" s="356" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="T24" s="382">
         <f>I39*0.3</f>
@@ -39211,7 +39211,7 @@
         <v>9910</v>
       </c>
       <c r="S26" s="380" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="T26" s="380">
         <f>LASTQUARTER</f>
@@ -39266,7 +39266,7 @@
         <v>10945</v>
       </c>
       <c r="S27" s="380" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="T27" s="383">
         <f>I39*0.2</f>
@@ -39377,7 +39377,7 @@
         <v>16637</v>
       </c>
       <c r="S29" s="380" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="T29" s="380" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
@@ -39791,7 +39791,7 @@
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="B38" s="384"/>
       <c r="C38" s="424" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D38" s="402">
         <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
@@ -39845,7 +39845,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="H39" s="426" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I39" s="391">
         <f>E20</f>
@@ -39954,7 +39954,7 @@
     </row>
     <row r="46" spans="1:21" ht="26.25" hidden="1" customHeight="1">
       <c r="C46" s="427" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D46" s="386"/>
       <c r="E46" s="438">
@@ -40003,7 +40003,7 @@
     </row>
     <row r="47" spans="1:21" hidden="1">
       <c r="C47" s="426" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D47" s="389"/>
       <c r="E47" s="440">
@@ -40065,7 +40065,7 @@
     </row>
     <row r="48" spans="1:21" hidden="1">
       <c r="C48" s="426" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="440">
@@ -40127,7 +40127,7 @@
     </row>
     <row r="49" spans="3:18" hidden="1">
       <c r="C49" s="426" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D49" s="389"/>
       <c r="E49" s="440">
@@ -40189,7 +40189,7 @@
     </row>
     <row r="50" spans="3:18" hidden="1">
       <c r="C50" s="426" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D50" s="389"/>
       <c r="E50" s="440">
@@ -40251,7 +40251,7 @@
     </row>
     <row r="51" spans="3:18" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="426" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D51" s="389"/>
       <c r="E51" s="440">
@@ -40313,7 +40313,7 @@
     </row>
     <row r="52" spans="3:18" ht="26.25" hidden="1" customHeight="1">
       <c r="C52" s="427" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="438">
@@ -40362,7 +40362,7 @@
     </row>
     <row r="53" spans="3:18" hidden="1">
       <c r="C53" s="426" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D53" s="389"/>
       <c r="E53" s="440">
@@ -40424,7 +40424,7 @@
     </row>
     <row r="54" spans="3:18" hidden="1">
       <c r="C54" s="426" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D54" s="389"/>
       <c r="E54" s="440">
@@ -40486,7 +40486,7 @@
     </row>
     <row r="55" spans="3:18" hidden="1">
       <c r="C55" s="389" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D55" s="389"/>
       <c r="E55" s="440">
@@ -40548,7 +40548,7 @@
     </row>
     <row r="56" spans="3:18" hidden="1">
       <c r="C56" s="389" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D56" s="389"/>
       <c r="E56" s="440">
@@ -41795,8 +41795,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -42566,7 +42566,7 @@
       </c>
       <c r="L28" s="194"/>
       <c r="M28" s="315" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N28" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42662,7 +42662,7 @@
       <c r="K30" s="193"/>
       <c r="L30" s="194"/>
       <c r="M30" s="315" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N30" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42709,7 +42709,7 @@
       </c>
       <c r="L31" s="194"/>
       <c r="M31" s="315" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N31" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42758,7 +42758,7 @@
       </c>
       <c r="L32" s="194"/>
       <c r="M32" s="315" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N32" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42842,7 +42842,7 @@
         <v>41334</v>
       </c>
       <c r="G34" s="123">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H34" s="353" t="str">
         <f>IF(G34=100,"Enter date of completion","")</f>
@@ -45075,8 +45075,8 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -45324,10 +45324,10 @@
         <v>128</v>
       </c>
       <c r="D19" s="304" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="410" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" s="410" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="48" t="str">
@@ -45348,13 +45348,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="303" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="304" t="s">
-        <v>132</v>
+        <v>391</v>
       </c>
       <c r="E20" s="410" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="48" t="str">
@@ -45375,13 +45375,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="303" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="304" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="410" t="s">
         <v>133</v>
-      </c>
-      <c r="D21" s="304" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="410" t="s">
-        <v>135</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="48" t="str">
@@ -45402,13 +45402,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="303" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="304" t="s">
-        <v>137</v>
+        <v>393</v>
       </c>
       <c r="E22" s="410" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="48" t="str">
@@ -45424,18 +45424,18 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="81.75" customHeight="1">
+    <row r="23" spans="1:15" ht="81.75" customHeight="1" thickBot="1">
       <c r="B23" s="305">
         <v>4</v>
       </c>
       <c r="C23" s="306" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D23" s="307" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E23" s="411" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="48" t="str">
@@ -45867,8 +45867,8 @@
   </sheetPr>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -46104,7 +46104,7 @@
     <row r="15" spans="1:28" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -46121,7 +46121,7 @@
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
       <c r="L15" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -46133,7 +46133,7 @@
     <row r="16" spans="1:28" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="186"/>
       <c r="D16" s="46"/>
@@ -46145,7 +46145,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
       <c r="L16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="str">
@@ -46166,7 +46166,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -46177,32 +46177,32 @@
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1">
       <c r="B18" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="F18" s="50" t="s">
         <v>146</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>149</v>
       </c>
       <c r="G18" s="50" t="s">
         <v>116</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="96" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -46211,10 +46211,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="324" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C19" s="325" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" s="326">
         <v>0</v>
@@ -46504,7 +46504,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="63"/>
       <c r="K28" s="99" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M28" s="32" t="str">
         <f>IF(COUNTIF(M19:M27,"RED")&gt;0,"RED",IF(COUNTIF(M19:M27,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -50895,8 +50895,8 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -51044,7 +51044,7 @@
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="B15" s="94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -51053,7 +51053,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51069,22 +51069,22 @@
     </row>
     <row r="18" spans="1:7" ht="44" customHeight="1">
       <c r="B18" s="227" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="227" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="227" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="227" t="s">
         <v>158</v>
-      </c>
-      <c r="C18" s="227" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="227" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="227" t="s">
-        <v>161</v>
       </c>
       <c r="F18" s="227" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="214" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1">
@@ -51092,87 +51092,87 @@
         <v>48</v>
       </c>
       <c r="B19" s="281" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="281" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D19" s="282">
         <v>41000</v>
       </c>
       <c r="E19" s="281" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F19" s="461" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" ht="44" customHeight="1">
       <c r="B20" s="281" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C20" s="281" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D20" s="282">
         <v>41122</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F20" s="461"/>
       <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" ht="44" customHeight="1">
       <c r="B21" s="281" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" s="281" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D21" s="282"/>
       <c r="E21" s="281" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F21" s="461" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:7" ht="44" customHeight="1">
       <c r="B22" s="281" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" s="281" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D22" s="282">
         <v>41122</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F22" s="461" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
       <c r="B23" s="281" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C23" s="281" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D23" s="282">
         <v>41091</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F23" s="461" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G23" s="96"/>
     </row>
@@ -51514,7 +51514,7 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -51741,7 +51741,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -51753,7 +51753,7 @@
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51781,81 +51781,81 @@
       <c r="E18" s="137"/>
       <c r="F18" s="137"/>
       <c r="G18" s="481" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H18" s="482"/>
       <c r="I18" s="481" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J18" s="482"/>
       <c r="K18" s="481" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L18" s="482"/>
       <c r="M18" s="479" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N18" s="480"/>
       <c r="O18" s="479" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P18" s="480"/>
       <c r="Q18" s="479" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R18" s="480"/>
     </row>
     <row r="19" spans="2:18" ht="32" customHeight="1">
       <c r="B19" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="G19" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="H19" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="142" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="217" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="216" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>194</v>
-      </c>
       <c r="I19" s="143" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J19" s="144" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K19" s="143" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L19" s="144" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M19" s="143" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N19" s="144" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O19" s="143" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P19" s="144" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="143" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R19" s="144" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:18" s="4" customFormat="1" ht="28" customHeight="1">
@@ -51872,7 +51872,7 @@
         <v>41044</v>
       </c>
       <c r="F20" s="286" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G20" s="287">
         <v>15</v>
@@ -51881,10 +51881,10 @@
         <v>28</v>
       </c>
       <c r="I20" s="145" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J20" s="147" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="147"/>
@@ -51915,7 +51915,7 @@
         <v>41136</v>
       </c>
       <c r="F21" s="286" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G21" s="287">
         <v>0</v>
@@ -51924,10 +51924,10 @@
         <v>28</v>
       </c>
       <c r="I21" s="145" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J21" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K21" s="145"/>
       <c r="L21" s="147"/>
@@ -51952,7 +51952,7 @@
         <v>41167</v>
       </c>
       <c r="F22" s="286" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G22" s="287">
         <v>0</v>
@@ -51961,10 +51961,10 @@
         <v>4</v>
       </c>
       <c r="I22" s="145" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J22" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K22" s="145"/>
       <c r="L22" s="147"/>
@@ -51989,7 +51989,7 @@
         <v>41167</v>
       </c>
       <c r="F23" s="286" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G23" s="287">
         <v>9</v>
@@ -51998,10 +51998,10 @@
         <v>28</v>
       </c>
       <c r="I23" s="145" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J23" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K23" s="145"/>
       <c r="L23" s="147">
@@ -52036,7 +52036,7 @@
         <v>41212</v>
       </c>
       <c r="F24" s="286" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G24" s="287"/>
       <c r="H24" s="147">
@@ -52044,7 +52044,7 @@
       </c>
       <c r="I24" s="145"/>
       <c r="J24" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K24" s="145"/>
       <c r="L24" s="147"/>
@@ -52069,7 +52069,7 @@
         <v>41228</v>
       </c>
       <c r="F25" s="286" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G25" s="287"/>
       <c r="H25" s="147"/>
@@ -52098,7 +52098,7 @@
         <v>41304</v>
       </c>
       <c r="F26" s="286" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G26" s="287"/>
       <c r="H26" s="147">
@@ -52106,7 +52106,7 @@
       </c>
       <c r="I26" s="145"/>
       <c r="J26" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K26" s="145"/>
       <c r="L26" s="147"/>
@@ -52131,17 +52131,17 @@
         <v>41304</v>
       </c>
       <c r="F27" s="286" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G27" s="287"/>
       <c r="H27" s="147">
         <v>28</v>
       </c>
       <c r="I27" s="145" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J27" s="148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K27" s="145"/>
       <c r="L27" s="147"/>
@@ -52166,7 +52166,7 @@
         <v>41363</v>
       </c>
       <c r="F28" s="286" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G28" s="287"/>
       <c r="H28" s="147"/>
@@ -52279,7 +52279,7 @@
     <row r="34" spans="2:18" ht="15" customHeight="1"/>
     <row r="35" spans="2:18" ht="46" customHeight="1">
       <c r="C35" s="158" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D35" s="159"/>
     </row>
@@ -52288,7 +52288,7 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:18" ht="14" customHeight="1">
@@ -52305,27 +52305,27 @@
     <row r="40" spans="2:18">
       <c r="B40" s="17"/>
       <c r="C40" s="460" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:18">
       <c r="C41" s="460" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:18">
       <c r="C42" s="460" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:18">
       <c r="C43" s="460" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="C44" s="460" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="5"/>
@@ -52334,7 +52334,7 @@
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1">
       <c r="C45" s="460" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -52530,7 +52530,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -52702,7 +52702,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -52723,20 +52723,20 @@
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="53" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D17" s="218" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" customHeight="1">
@@ -52744,16 +52744,16 @@
         <v>48</v>
       </c>
       <c r="B18" s="290" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C18" s="296" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="275" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="275" t="s">
-        <v>223</v>
-      </c>
       <c r="E18" s="299" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="57" t="str">
@@ -52764,13 +52764,13 @@
     <row r="19" spans="1:7" ht="28" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="290" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C19" s="296" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D19" s="275" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E19" s="298"/>
       <c r="F19" s="101"/>
@@ -52782,13 +52782,13 @@
     <row r="20" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="290" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C20" s="296" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D20" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E20" s="298"/>
       <c r="F20" s="101"/>
@@ -52799,16 +52799,16 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B21" s="290" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C21" s="296" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="275" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="275" t="s">
-        <v>223</v>
-      </c>
       <c r="E21" s="299" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="57" t="str">
@@ -52818,13 +52818,13 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B22" s="308" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C22" s="461" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="275" t="s">
         <v>219</v>
-      </c>
-      <c r="D22" s="275" t="s">
-        <v>223</v>
       </c>
       <c r="E22" s="298"/>
       <c r="F22" s="101"/>
@@ -52837,7 +52837,7 @@
       <c r="B23" s="290"/>
       <c r="C23" s="296"/>
       <c r="D23" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E23" s="298"/>
       <c r="F23" s="101"/>
@@ -52850,7 +52850,7 @@
       <c r="B24" s="290"/>
       <c r="C24" s="296"/>
       <c r="D24" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E24" s="298"/>
       <c r="F24" s="101"/>
@@ -52863,7 +52863,7 @@
       <c r="B25" s="290"/>
       <c r="C25" s="296"/>
       <c r="D25" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E25" s="298"/>
       <c r="F25" s="101"/>
@@ -52876,7 +52876,7 @@
       <c r="B26" s="291"/>
       <c r="C26" s="297"/>
       <c r="D26" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E26" s="299"/>
       <c r="F26" s="70"/>
@@ -52889,7 +52889,7 @@
       <c r="B27" s="291"/>
       <c r="C27" s="297"/>
       <c r="D27" s="275" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E27" s="299"/>
       <c r="F27" s="70"/>
@@ -52900,14 +52900,14 @@
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
       <c r="B28" s="121" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D28" s="219"/>
       <c r="E28" s="122" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="58"/>
@@ -53612,7 +53612,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -53628,7 +53628,7 @@
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -53640,7 +53640,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="489" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M16" s="489"/>
       <c r="N16" s="489"/>
@@ -53673,7 +53673,7 @@
       <c r="U17" s="65"/>
       <c r="V17" s="65"/>
       <c r="AA17" s="489" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB17" s="489"/>
       <c r="AC17" s="489"/>
@@ -53693,25 +53693,25 @@
       <c r="J18" s="68"/>
       <c r="K18" s="107"/>
       <c r="L18" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="O18" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="P18" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="Q18" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="N18" s="83" t="s">
+      <c r="R18" s="83" t="s">
         <v>231</v>
-      </c>
-      <c r="O18" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="P18" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q18" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="R18" s="83" t="s">
-        <v>235</v>
       </c>
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
@@ -53728,12 +53728,12 @@
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
       <c r="D19" s="486" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E19" s="487"/>
       <c r="F19" s="488"/>
       <c r="G19" s="486" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H19" s="487"/>
       <c r="I19" s="488"/>
@@ -53748,26 +53748,26 @@
       <c r="R19" s="83"/>
       <c r="S19" s="65"/>
       <c r="T19" s="486" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U19" s="487"/>
       <c r="V19" s="488"/>
       <c r="W19" s="486" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="X19" s="487"/>
       <c r="Y19" s="488"/>
       <c r="AA19" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AE19" s="1" t="s">
         <v>106</v>
@@ -53778,22 +53778,22 @@
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
       <c r="D20" s="167" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E20" s="168" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F20" s="169" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G20" s="167" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="168" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I20" s="169" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="108"/>
@@ -53806,19 +53806,19 @@
       <c r="R20" s="83"/>
       <c r="S20" s="65"/>
       <c r="T20" s="256" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U20" s="257" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V20" s="258" t="s">
         <v>35</v>
       </c>
       <c r="W20" s="256" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="X20" s="257" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Y20" s="258" t="s">
         <v>35</v>
@@ -53834,7 +53834,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C21" s="163"/>
       <c r="D21" s="174">
@@ -53874,7 +53874,7 @@
     <row r="22" spans="1:31" ht="28" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="112" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="174">
@@ -53914,7 +53914,7 @@
     <row r="23" spans="1:31" ht="28" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="174">
@@ -54082,7 +54082,7 @@
     <row r="26" spans="1:31" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="230" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C26" s="231"/>
       <c r="D26" s="232"/>

--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.Header" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="397">
   <si>
     <t>1.Header</t>
   </si>
@@ -1536,6 +1536,12 @@
   </si>
   <si>
     <t>Have received UWA permission to use one of the Universities service allocation of 12 services for use in production.  This is completed</t>
+  </si>
+  <si>
+    <t>ARK_1.1.1d</t>
+  </si>
+  <si>
+    <t>1.1.1d</t>
   </si>
 </sst>
 </file>
@@ -2856,8 +2862,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -4138,9 +4145,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1971">
@@ -36926,8 +36934,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -37274,15 +37282,34 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="32" customHeight="1">
-      <c r="B24" s="348"/>
-      <c r="C24" s="348"/>
-      <c r="D24" s="348"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="348"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="348"/>
-      <c r="I24" s="348"/>
-      <c r="J24" s="348"/>
+      <c r="B24" s="348" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="348" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="348" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="349" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="348" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="350">
+        <f>324010-SUM(G20:G23)</f>
+        <v>86780</v>
+      </c>
+      <c r="H24" s="348" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="348" t="s">
+        <v>395</v>
+      </c>
+      <c r="J24" s="348" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="32" customHeight="1">
       <c r="B25" s="348"/>
@@ -38020,8 +38047,8 @@
   </sheetPr>
   <dimension ref="A1:WVW57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -38960,7 +38987,7 @@
       </c>
       <c r="G20" s="453">
         <f>H38</f>
-        <v>152482</v>
+        <v>224446</v>
       </c>
       <c r="H20" s="454">
         <f>E20-F20</f>
@@ -38976,11 +39003,11 @@
       </c>
       <c r="K20" s="457">
         <f>L38</f>
-        <v>84748</v>
+        <v>99565</v>
       </c>
       <c r="L20" s="458">
         <f>J20-K20</f>
-        <v>239144</v>
+        <v>224327</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
@@ -39148,7 +39175,7 @@
       </c>
       <c r="T25" s="380" t="str">
         <f>IF(LASTQUARTER&gt;T24-1,"RED","Less than "&amp; S24&amp;" in last quarter: "&amp;LASTQUARTER)</f>
-        <v>Less than 30% of funds in last quarter: 15552</v>
+        <v>Less than 30% of funds in last quarter: 15551</v>
       </c>
       <c r="U25" s="442">
         <f t="shared" ref="U25:U37" si="4">M25+I25</f>
@@ -39215,7 +39242,7 @@
       </c>
       <c r="T26" s="380">
         <f>LASTQUARTER</f>
-        <v>15552</v>
+        <v>15551</v>
       </c>
       <c r="U26" s="396">
         <f t="shared" si="4"/>
@@ -39234,24 +39261,28 @@
         <v>41455</v>
       </c>
       <c r="D27" s="419"/>
-      <c r="E27" s="366"/>
+      <c r="E27" s="366">
+        <v>71964</v>
+      </c>
       <c r="F27" s="359"/>
       <c r="G27" s="359"/>
       <c r="H27" s="369">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71964</v>
       </c>
       <c r="I27" s="395">
-        <v>60141</v>
+        <v>71964</v>
       </c>
       <c r="J27" s="366"/>
-      <c r="K27" s="359"/>
+      <c r="K27" s="359">
+        <v>14817</v>
+      </c>
       <c r="L27" s="369">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14817</v>
       </c>
       <c r="M27" s="367">
-        <v>10945</v>
+        <v>14817</v>
       </c>
       <c r="N27" s="357" t="str">
         <f>IF(H27&gt;0,IF(I27&lt;&gt;H27,"WARNING!! UPDATE: I27 $"&amp;I27&amp;" WITH ACTUAL SPEND:$ "&amp;H27,""),"")</f>
@@ -39259,11 +39290,11 @@
       </c>
       <c r="P27" s="363">
         <f t="shared" si="2"/>
-        <v>60141</v>
+        <v>71964</v>
       </c>
       <c r="Q27" s="377">
         <f t="shared" si="3"/>
-        <v>10945</v>
+        <v>14817</v>
       </c>
       <c r="S27" s="380" t="s">
         <v>366</v>
@@ -39274,7 +39305,7 @@
       </c>
       <c r="U27" s="396">
         <f t="shared" si="4"/>
-        <v>71086</v>
+        <v>86781</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
@@ -39297,7 +39328,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="395">
-        <v>60825</v>
+        <v>49003</v>
       </c>
       <c r="J28" s="366"/>
       <c r="K28" s="359"/>
@@ -39306,7 +39337,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="367">
-        <v>6000</v>
+        <v>12765</v>
       </c>
       <c r="N28" s="357" t="str">
         <f>IF(H28&gt;0,IF(I28&lt;&gt;H28,"WARNING!! UPDATE: I28 $"&amp;I28&amp;" WITH ACTUAL SPEND:$ "&amp;H28,""),"")</f>
@@ -39314,11 +39345,11 @@
       </c>
       <c r="P28" s="363">
         <f t="shared" si="2"/>
-        <v>60825</v>
+        <v>49003</v>
       </c>
       <c r="Q28" s="377">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12765</v>
       </c>
       <c r="S28" s="380" t="str">
         <f>S27&amp; " or more in last quarter"</f>
@@ -39326,11 +39357,11 @@
       </c>
       <c r="T28" s="380" t="str">
         <f>IF(LASTQUARTER&gt;T27-1,"AMBER","Less than "&amp;S27&amp;" in last quarter: "&amp;LASTQUARTER)</f>
-        <v>Less than 20% of funds in last quarter: 15552</v>
+        <v>Less than 20% of funds in last quarter: 15551</v>
       </c>
       <c r="U28" s="396">
         <f t="shared" si="4"/>
-        <v>66825</v>
+        <v>61768</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1">
@@ -39353,7 +39384,8 @@
         <v>0</v>
       </c>
       <c r="I29" s="395">
-        <v>15552</v>
+        <f>289000 - SUM(I25:I28)</f>
+        <v>15551</v>
       </c>
       <c r="J29" s="366"/>
       <c r="K29" s="359"/>
@@ -39362,7 +39394,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="367">
-        <v>16637</v>
+        <v>4927</v>
       </c>
       <c r="N29" s="357" t="str">
         <f>IF(H29&gt;0,IF(I29&lt;&gt;H29,"WARNING!! UPDATE: I29 $"&amp;I29&amp;" WITH ACTUAL SPEND:$ "&amp;H29,""),"")</f>
@@ -39370,11 +39402,11 @@
       </c>
       <c r="P29" s="363">
         <f t="shared" si="2"/>
-        <v>15552</v>
+        <v>15551</v>
       </c>
       <c r="Q29" s="377">
         <f t="shared" si="3"/>
-        <v>16637</v>
+        <v>4927</v>
       </c>
       <c r="S29" s="380" t="s">
         <v>367</v>
@@ -39385,7 +39417,7 @@
       </c>
       <c r="U29" s="396">
         <f t="shared" si="4"/>
-        <v>32189</v>
+        <v>20478</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1">
@@ -39799,7 +39831,7 @@
       </c>
       <c r="E38" s="406">
         <f t="shared" si="8"/>
-        <v>152482</v>
+        <v>224446</v>
       </c>
       <c r="F38" s="401">
         <f t="shared" si="8"/>
@@ -39811,7 +39843,7 @@
       </c>
       <c r="H38" s="407">
         <f t="shared" si="8"/>
-        <v>152482</v>
+        <v>224446</v>
       </c>
       <c r="I38" s="403">
         <f t="shared" si="8"/>
@@ -39823,15 +39855,15 @@
       </c>
       <c r="K38" s="401">
         <f t="shared" si="8"/>
-        <v>82384</v>
+        <v>97201</v>
       </c>
       <c r="L38" s="407">
         <f t="shared" si="8"/>
-        <v>84748</v>
+        <v>99565</v>
       </c>
       <c r="M38" s="408">
         <f t="shared" si="8"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="N38" s="358"/>
       <c r="P38" s="364">
@@ -39840,7 +39872,7 @@
       </c>
       <c r="Q38" s="362">
         <f>SUM(Q25:Q37)</f>
-        <v>324965</v>
+        <v>323892</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -40016,15 +40048,15 @@
       </c>
       <c r="G47" s="440">
         <f>I27</f>
-        <v>60141</v>
+        <v>71964</v>
       </c>
       <c r="H47" s="440">
         <f>I28</f>
-        <v>60825</v>
+        <v>49003</v>
       </c>
       <c r="I47" s="440">
         <f>I29</f>
-        <v>15552</v>
+        <v>15551</v>
       </c>
       <c r="J47" s="440">
         <f>I30</f>
@@ -40078,11 +40110,11 @@
       </c>
       <c r="G48" s="440">
         <f t="shared" si="9"/>
-        <v>212623</v>
+        <v>224446</v>
       </c>
       <c r="H48" s="440">
         <f t="shared" si="9"/>
-        <v>273448</v>
+        <v>273449</v>
       </c>
       <c r="I48" s="440">
         <f t="shared" si="9"/>
@@ -40140,7 +40172,7 @@
       </c>
       <c r="G49" s="440">
         <f>H27</f>
-        <v>0</v>
+        <v>71964</v>
       </c>
       <c r="H49" s="440">
         <f>H28</f>
@@ -40184,7 +40216,7 @@
       </c>
       <c r="R49" s="440">
         <f>SUM(E49:Q49)</f>
-        <v>152482</v>
+        <v>224446</v>
       </c>
     </row>
     <row r="50" spans="3:18" hidden="1">
@@ -40202,7 +40234,7 @@
       </c>
       <c r="G50" s="440">
         <f t="shared" si="10"/>
-        <v>152482</v>
+        <v>224446</v>
       </c>
       <c r="H50" s="440" t="e">
         <f t="shared" si="10"/>
@@ -40246,7 +40278,7 @@
       </c>
       <c r="R50" s="440">
         <f>H38</f>
-        <v>152482</v>
+        <v>224446</v>
       </c>
     </row>
     <row r="51" spans="3:18" ht="15" hidden="1" customHeight="1">
@@ -40375,15 +40407,15 @@
       </c>
       <c r="G53" s="440">
         <f>M$27</f>
-        <v>10945</v>
+        <v>14817</v>
       </c>
       <c r="H53" s="440">
         <f>$M28</f>
-        <v>6000</v>
+        <v>12765</v>
       </c>
       <c r="I53" s="440">
         <f>M29</f>
-        <v>16637</v>
+        <v>4927</v>
       </c>
       <c r="J53" s="440">
         <f>M30</f>
@@ -40419,7 +40451,7 @@
       </c>
       <c r="R53" s="440">
         <f>SUM(E53:Q53)</f>
-        <v>324965</v>
+        <v>323892</v>
       </c>
     </row>
     <row r="54" spans="3:18" hidden="1">
@@ -40437,51 +40469,51 @@
       </c>
       <c r="G54" s="440">
         <f t="shared" si="11"/>
-        <v>95693</v>
+        <v>99565</v>
       </c>
       <c r="H54" s="440">
         <f t="shared" si="11"/>
-        <v>101693</v>
+        <v>112330</v>
       </c>
       <c r="I54" s="440">
         <f t="shared" si="11"/>
-        <v>118330</v>
+        <v>117257</v>
       </c>
       <c r="J54" s="440">
         <f t="shared" si="11"/>
-        <v>221647.5</v>
+        <v>220574.5</v>
       </c>
       <c r="K54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="L54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="M54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="N54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="O54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="P54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="Q54" s="440">
         <f t="shared" si="11"/>
-        <v>324965</v>
+        <v>323892</v>
       </c>
       <c r="R54" s="440">
         <f>L38</f>
-        <v>84748</v>
+        <v>99565</v>
       </c>
     </row>
     <row r="55" spans="3:18" hidden="1">
@@ -40499,7 +40531,7 @@
       </c>
       <c r="G55" s="440">
         <f>L27</f>
-        <v>0</v>
+        <v>14817</v>
       </c>
       <c r="H55" s="440">
         <f>L28</f>
@@ -40543,7 +40575,7 @@
       </c>
       <c r="R55" s="440">
         <f>SUM(E55:Q55)</f>
-        <v>84748</v>
+        <v>99565</v>
       </c>
     </row>
     <row r="56" spans="3:18" hidden="1">
@@ -40561,7 +40593,7 @@
       </c>
       <c r="G56" s="440">
         <f t="shared" si="12"/>
-        <v>84748</v>
+        <v>99565</v>
       </c>
       <c r="H56" s="440" t="e">
         <f t="shared" si="12"/>
@@ -40605,7 +40637,7 @@
       </c>
       <c r="R56" s="440">
         <f>L38</f>
-        <v>84748</v>
+        <v>99565</v>
       </c>
     </row>
     <row r="57" spans="3:18" hidden="1"/>

--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/NeCTAR Report RT029 30June2013 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32720" windowHeight="20560" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="20560" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.Header" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="399">
   <si>
     <t>1.Header</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Pedigree Storage &amp; Visualisation Module</t>
   </si>
   <si>
-    <t>Have completed design work and database schema changes. Have also identified suitable pedigree visualisation tool for integration.</t>
-  </si>
-  <si>
     <t>Funding Milestone 4</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
   </si>
   <si>
     <t>Integrate Genotypic Data Management Capability</t>
-  </si>
-  <si>
-    <t>please note that none of these dates take into account the change request we submitted, but we are back on target for those amended dates</t>
   </si>
   <si>
     <t>Funding Milestone 5</t>
@@ -1499,9 +1493,6 @@
     <t>completed, signed off</t>
   </si>
   <si>
-    <t>Approx 90% complete as Data Extraction is the majority of this milestone.</t>
-  </si>
-  <si>
     <t>http://thearktools.blogspot.com.au/</t>
   </si>
   <si>
@@ -1523,9 +1514,6 @@
     <t>daily</t>
   </si>
   <si>
-    <t>Implemented and tested sub-study management capability to allow subjects from a parent study to be allocated to sub-studies without duplicating core subject data.  Subproject concept is documented and within the UAT documents for Nik Zeps and ATR.  Travis believes this may need separate UAT document, but this functionality has been coded, tested and signed off as part of initial production release by WARTN Team.    Note the dates are wrong due to cell validation rules...actual date was 28/03/2013.  Added additional signoff documents 7/8/13 in order to make sure we met all NECTaR requirements</t>
-  </si>
-  <si>
     <t>One developer has been ill and may need extended sick leave.  Have submitted an RFC to adjust milestone dates and have identified another part time develop to assist.  Developer did take leave, cannot be sure of the future availability of developer, but as of today he is back.  A tight timeline still exists, and part-time developer has not had the time available initially indicated to us. In the interim an increased output from some key members has allowed the project to make up for this shortfall as staff roll back into productivity.  A member of UWA team took on an extra day a week and has worked significantly over time to get back on (revised) schedule.  PhD student Thilina is also having to adjust his schedule to meet his writing and other needs, so his availability is a little less than originally thought but his productivity is still good at times he is available</t>
   </si>
   <si>
@@ -1542,6 +1530,24 @@
   </si>
   <si>
     <t>1.1.1d</t>
+  </si>
+  <si>
+    <t>Project manager is now Travis Endersby (travis.endersby@uwa.edu.au).  Significant steps have been made in catching up to revised deadlines you received 18 Feb.   Still on target for agreed upon target, although the completion of one module had to be delayed and one module was brought forward in its place.</t>
+  </si>
+  <si>
+    <t>Have completed design work and database schema changes. Have also identified &amp; are utilizing suitable pedigree visualisation tool for integration.  Just finalizing integration/presentation of the data beyond picture-based visualization of uploads to be manipulatable and presented in text/table formats</t>
+  </si>
+  <si>
+    <t>In reality approx 90-95% complete as Data Extraction is the majority of this milestone.</t>
+  </si>
+  <si>
+    <t>Implemented and tested sub-study management capability to allow subjects from a parent study to be allocated to sub-studies without duplicating core subject data.  This functionality had been coded, tested and signed off as part of initial production release by WARTN Team.     Added additional individual signoff documents 7/8/13 in order to make sure we met all NECTaR requirements</t>
+  </si>
+  <si>
+    <t>Started, designed.  Probably more like 15% right now, but wanted to indicate started and that is the best this worksheet offers</t>
+  </si>
+  <si>
+    <t>Travis Endersby</t>
   </si>
 </sst>
 </file>
@@ -2862,13 +2868,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4144,11 +4152,16 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1971">
@@ -32034,7 +32047,7 @@
   <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:N35"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32641,7 +32654,9 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="88" customHeight="1">
-      <c r="B35" s="462"/>
+      <c r="B35" s="462" t="s">
+        <v>393</v>
+      </c>
       <c r="C35" s="463"/>
       <c r="D35" s="463"/>
       <c r="E35" s="463"/>
@@ -32758,7 +32773,9 @@
       <c r="C41" s="62"/>
       <c r="D41" s="62"/>
       <c r="E41" s="64"/>
-      <c r="F41" s="465"/>
+      <c r="F41" s="465" t="s">
+        <v>398</v>
+      </c>
       <c r="G41" s="466"/>
       <c r="H41" s="466"/>
       <c r="I41" s="466"/>
@@ -32779,7 +32796,9 @@
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
       <c r="E42" s="64"/>
-      <c r="F42" s="468"/>
+      <c r="F42" s="468">
+        <v>41469</v>
+      </c>
       <c r="G42" s="469"/>
       <c r="H42" s="469"/>
       <c r="I42" s="469"/>
@@ -32792,7 +32811,7 @@
     <row r="43" spans="2:23" ht="30" customHeight="1">
       <c r="B43" s="178" t="str">
         <f>IF(ISBLANK(F41),"Please signoff (select Yes and enter name) prior to form submission",IF(COUNTIF(T38:T40,"FALSE")&gt;0,"Please select Yes in signoff prior to form submission",""))</f>
-        <v>Please signoff (select Yes and enter name) prior to form submission</v>
+        <v/>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -35637,9 +35656,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -35742,13 +35759,13 @@
     <row r="12" spans="1:6" ht="28" customHeight="1">
       <c r="C12" s="5"/>
       <c r="D12" s="155" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
@@ -35756,7 +35773,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="490" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="490"/>
       <c r="F13" s="490"/>
@@ -35766,13 +35783,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="151" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="152" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="153" t="s">
         <v>249</v>
-      </c>
-      <c r="E14" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="153" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1">
@@ -35780,13 +35797,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E15" s="152" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="153" t="s">
         <v>250</v>
-      </c>
-      <c r="F15" s="153" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1">
@@ -35794,13 +35811,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="151" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="153" t="s">
         <v>253</v>
-      </c>
-      <c r="E16" s="152" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="153" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="28" customHeight="1">
@@ -35808,13 +35825,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E17" s="152" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="153" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="153" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="28" customHeight="1">
@@ -35822,13 +35839,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="28" customHeight="1">
@@ -35836,13 +35853,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E19" s="152" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="33" customHeight="1">
@@ -35850,13 +35867,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="152" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="153" t="s">
         <v>257</v>
-      </c>
-      <c r="E20" s="152" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="153" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="60" customHeight="1">
@@ -35864,27 +35881,27 @@
         <v>8</v>
       </c>
       <c r="D21" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="152" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="153" t="s">
         <v>260</v>
-      </c>
-      <c r="E21" s="152" t="s">
-        <v>261</v>
-      </c>
-      <c r="F21" s="153" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="60" customHeight="1">
       <c r="C22" s="376" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="F22" s="153" t="s">
         <v>264</v>
-      </c>
-      <c r="E22" s="152" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="153" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -36087,48 +36104,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>268</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>269</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>270</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="345" t="s">
         <v>271</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="345" t="s">
         <v>272</v>
-      </c>
-      <c r="H1" s="345" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="345" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="125">
         <v>40909</v>
@@ -36137,33 +36154,33 @@
         <v>42004</v>
       </c>
       <c r="H2" s="345" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I2" s="345" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="345" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="345" t="s">
         <v>279</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="345" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="345" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -36171,16 +36188,16 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="345" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="345" t="s">
         <v>282</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="345" t="s">
-        <v>283</v>
-      </c>
-      <c r="I4" s="345" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -36188,11 +36205,11 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H5" s="345"/>
       <c r="I5" s="345" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -36200,22 +36217,22 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1">
       <c r="C8" s="351" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -36258,76 +36275,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="233" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="234" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="E1" s="234" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="F1" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="G1" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="H1" s="236" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="235" t="s">
+      <c r="I1" s="237" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="236" t="s">
+      <c r="J1" s="235" t="s">
         <v>295</v>
       </c>
-      <c r="I1" s="237" t="s">
+      <c r="K1" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="L1" s="237" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="M1" s="235" t="s">
         <v>298</v>
       </c>
-      <c r="L1" s="237" t="s">
+      <c r="N1" s="236" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="235" t="s">
+      <c r="O1" s="237" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="236" t="s">
+      <c r="P1" s="238" t="s">
         <v>301</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="Q1" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="238" t="s">
+      <c r="R1" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="Q1" s="238" t="s">
+      <c r="S1" s="239" t="s">
         <v>304</v>
       </c>
-      <c r="R1" s="239" t="s">
+      <c r="T1" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="S1" s="239" t="s">
+      <c r="U1" s="247" t="s">
         <v>306</v>
       </c>
-      <c r="T1" s="239" t="s">
+      <c r="V1" s="248" t="s">
         <v>307</v>
       </c>
-      <c r="U1" s="247" t="s">
+      <c r="W1" s="248" t="s">
         <v>308</v>
       </c>
-      <c r="V1" s="248" t="s">
+      <c r="X1" s="248" t="s">
         <v>309</v>
       </c>
-      <c r="W1" s="248" t="s">
+      <c r="Y1" s="249" t="s">
         <v>310</v>
-      </c>
-      <c r="X1" s="248" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y1" s="249" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1">
@@ -36908,7 +36925,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="U16" s="351" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -37113,7 +37130,7 @@
     <row r="15" spans="1:5" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -37122,7 +37139,7 @@
     <row r="16" spans="1:5" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -37130,7 +37147,7 @@
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
       <c r="B17" s="346" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" ht="15" customHeight="1">
@@ -37138,177 +37155,177 @@
     </row>
     <row r="19" spans="2:10" ht="32" customHeight="1">
       <c r="B19" s="347" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="347" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="347" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="347" t="s">
+      <c r="E19" s="347" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="347" t="s">
+      <c r="F19" s="347" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="347" t="s">
+      <c r="G19" s="347" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="347" t="s">
+      <c r="H19" s="347" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="347" t="s">
+      <c r="I19" s="347" t="s">
         <v>322</v>
       </c>
-      <c r="H19" s="347" t="s">
-        <v>323</v>
-      </c>
-      <c r="I19" s="347" t="s">
-        <v>324</v>
-      </c>
       <c r="J19" s="347" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="32" customHeight="1">
       <c r="B20" s="348" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="348" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="349" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="348" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="348" t="s">
+      <c r="F20" s="348" t="s">
         <v>326</v>
-      </c>
-      <c r="E20" s="349" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="348" t="s">
-        <v>328</v>
       </c>
       <c r="G20" s="350">
         <v>54768</v>
       </c>
       <c r="H20" s="348" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I20" s="348" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J20" s="348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="32" customHeight="1">
       <c r="B21" s="348" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C21" s="348" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D21" s="348" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E21" s="349" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F21" s="348" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G21" s="350">
         <v>42374</v>
       </c>
       <c r="H21" s="348" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I21" s="348" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J21" s="348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="32" customHeight="1">
       <c r="B22" s="348" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="348" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="349" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="348" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="348" t="s">
-        <v>333</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>334</v>
-      </c>
       <c r="F22" s="348" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G22" s="350">
         <v>42374</v>
       </c>
       <c r="H22" s="348" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I22" s="348" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J22" s="348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="32" customHeight="1">
       <c r="B23" s="348" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C23" s="348" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D23" s="348" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="349" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F23" s="348" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G23" s="350">
         <v>97714</v>
       </c>
       <c r="H23" s="348" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I23" s="348" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J23" s="348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="32" customHeight="1">
       <c r="B24" s="348" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C24" s="348" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D24" s="348" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E24" s="349" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F24" s="348" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G24" s="350">
         <f>324010-SUM(G20:G23)</f>
         <v>86780</v>
       </c>
       <c r="H24" s="348" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I24" s="348" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J24" s="348" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="32" customHeight="1">
@@ -38047,8 +38064,8 @@
   </sheetPr>
   <dimension ref="A1:WVW57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:M43"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -38912,7 +38929,7 @@
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="C15" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -38932,46 +38949,46 @@
       <c r="C18" s="370"/>
       <c r="D18" s="371"/>
       <c r="E18" s="506" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F18" s="507"/>
       <c r="G18" s="507"/>
       <c r="H18" s="508"/>
       <c r="I18" s="444"/>
       <c r="J18" s="509" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K18" s="510"/>
       <c r="L18" s="511"/>
     </row>
     <row r="19" spans="1:21" ht="57" customHeight="1">
       <c r="C19" s="372" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D19" s="373"/>
       <c r="E19" s="445" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="446" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="446" t="s">
         <v>340</v>
       </c>
-      <c r="F19" s="446" t="s">
+      <c r="H19" s="447" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="446" t="s">
+      <c r="I19" s="448" t="s">
         <v>342</v>
       </c>
-      <c r="H19" s="447" t="s">
+      <c r="J19" s="449" t="s">
         <v>343</v>
       </c>
-      <c r="I19" s="448" t="s">
+      <c r="K19" s="450" t="s">
         <v>344</v>
       </c>
-      <c r="J19" s="449" t="s">
+      <c r="L19" s="451" t="s">
         <v>345</v>
-      </c>
-      <c r="K19" s="450" t="s">
-        <v>346</v>
-      </c>
-      <c r="L19" s="451" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1">
@@ -38983,7 +39000,7 @@
       </c>
       <c r="F20" s="453">
         <f>D38</f>
-        <v>104000</v>
+        <v>156000</v>
       </c>
       <c r="G20" s="453">
         <f>H38</f>
@@ -38991,7 +39008,7 @@
       </c>
       <c r="H20" s="454">
         <f>E20-F20</f>
-        <v>185000</v>
+        <v>133000</v>
       </c>
       <c r="I20" s="455">
         <f>E20-I38</f>
@@ -39012,90 +39029,90 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="N22" s="360" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P22" s="360"/>
       <c r="S22" s="409" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="T22" s="409" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U22" s="441"/>
     </row>
     <row r="23" spans="1:21" s="356" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="512" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" s="514" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C23" s="515"/>
       <c r="D23" s="500" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E23" s="502" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F23" s="500"/>
       <c r="G23" s="500"/>
       <c r="H23" s="503"/>
       <c r="I23" s="504" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J23" s="494" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K23" s="495"/>
       <c r="L23" s="496"/>
       <c r="M23" s="497" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N23" s="355"/>
       <c r="P23" s="499" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q23" s="499" t="s">
+        <v>356</v>
+      </c>
+      <c r="S23" s="379" t="s">
         <v>357</v>
-      </c>
-      <c r="Q23" s="499" t="s">
-        <v>358</v>
-      </c>
-      <c r="S23" s="379" t="s">
-        <v>359</v>
       </c>
       <c r="T23" s="381" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
       <c r="U23" s="516" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="356" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="513"/>
       <c r="B24" s="428" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" s="394" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D24" s="501"/>
       <c r="E24" s="392" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F24" s="393" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="393" t="s">
         <v>243</v>
-      </c>
-      <c r="G24" s="393" t="s">
-        <v>245</v>
       </c>
       <c r="H24" s="394" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="505"/>
       <c r="J24" s="392" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K24" s="393" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L24" s="394" t="s">
         <v>35</v>
@@ -39105,7 +39122,7 @@
       <c r="P24" s="499"/>
       <c r="Q24" s="499"/>
       <c r="S24" s="356" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T24" s="382">
         <f>I39*0.3</f>
@@ -39238,7 +39255,7 @@
         <v>9910</v>
       </c>
       <c r="S26" s="380" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T26" s="380">
         <f>LASTQUARTER</f>
@@ -39260,7 +39277,9 @@
       <c r="C27" s="385">
         <v>41455</v>
       </c>
-      <c r="D27" s="419"/>
+      <c r="D27" s="419">
+        <v>52000</v>
+      </c>
       <c r="E27" s="366">
         <v>71964</v>
       </c>
@@ -39297,7 +39316,7 @@
         <v>14817</v>
       </c>
       <c r="S27" s="380" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T27" s="383">
         <f>I39*0.2</f>
@@ -39319,7 +39338,7 @@
       <c r="C28" s="385">
         <v>41547</v>
       </c>
-      <c r="D28" s="419"/>
+      <c r="D28" s="518"/>
       <c r="E28" s="366"/>
       <c r="F28" s="359"/>
       <c r="G28" s="359"/>
@@ -39409,7 +39428,7 @@
         <v>4927</v>
       </c>
       <c r="S29" s="380" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T29" s="380" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
@@ -39823,11 +39842,11 @@
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="B38" s="384"/>
       <c r="C38" s="424" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D38" s="402">
         <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
-        <v>104000</v>
+        <v>156000</v>
       </c>
       <c r="E38" s="406">
         <f t="shared" si="8"/>
@@ -39877,7 +39896,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="H39" s="426" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I39" s="391">
         <f>E20</f>
@@ -39986,7 +40005,7 @@
     </row>
     <row r="46" spans="1:21" ht="26.25" hidden="1" customHeight="1">
       <c r="C46" s="427" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D46" s="386"/>
       <c r="E46" s="438">
@@ -40035,7 +40054,7 @@
     </row>
     <row r="47" spans="1:21" hidden="1">
       <c r="C47" s="426" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D47" s="389"/>
       <c r="E47" s="440">
@@ -40097,7 +40116,7 @@
     </row>
     <row r="48" spans="1:21" hidden="1">
       <c r="C48" s="426" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="440">
@@ -40159,7 +40178,7 @@
     </row>
     <row r="49" spans="3:18" hidden="1">
       <c r="C49" s="426" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D49" s="389"/>
       <c r="E49" s="440">
@@ -40221,7 +40240,7 @@
     </row>
     <row r="50" spans="3:18" hidden="1">
       <c r="C50" s="426" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D50" s="389"/>
       <c r="E50" s="440">
@@ -40283,7 +40302,7 @@
     </row>
     <row r="51" spans="3:18" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="426" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" s="389"/>
       <c r="E51" s="440">
@@ -40294,12 +40313,12 @@
         <f>IF(F45&gt;LastDateReport,NA(),$D26+E51)</f>
         <v>104000</v>
       </c>
-      <c r="G51" s="440">
-        <f>IF(G45&gt;LastDateReport,NA(),D27+F51)</f>
-        <v>104000</v>
+      <c r="G51" s="440" t="e">
+        <f>IF(G45&gt;LastDateReport,NA(),#REF!+F51)</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="440" t="e">
-        <f>IF(H45&gt;LastDateReport,NA(),D28+G51)</f>
+        <f>IF(H45&gt;LastDateReport,NA(),D27+G51)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="440" t="e">
@@ -40340,12 +40359,12 @@
       </c>
       <c r="R51" s="440">
         <f>D38</f>
-        <v>104000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="52" spans="3:18" ht="26.25" hidden="1" customHeight="1">
       <c r="C52" s="427" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D52" s="386"/>
       <c r="E52" s="438">
@@ -40394,7 +40413,7 @@
     </row>
     <row r="53" spans="3:18" hidden="1">
       <c r="C53" s="426" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D53" s="389"/>
       <c r="E53" s="440">
@@ -40456,7 +40475,7 @@
     </row>
     <row r="54" spans="3:18" hidden="1">
       <c r="C54" s="426" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D54" s="389"/>
       <c r="E54" s="440">
@@ -40518,7 +40537,7 @@
     </row>
     <row r="55" spans="3:18" hidden="1">
       <c r="C55" s="389" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D55" s="389"/>
       <c r="E55" s="440">
@@ -40580,7 +40599,7 @@
     </row>
     <row r="56" spans="3:18" hidden="1">
       <c r="C56" s="389" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D56" s="389"/>
       <c r="E56" s="440">
@@ -41100,11 +41119,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="75" priority="89">
-      <formula>$C25&gt;LastDateReport</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="74" priority="90">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
@@ -41479,317 +41493,17 @@
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="79">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J25">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J37">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K25">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="K37">
+  <dataValidations count="4">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." sqref="J25:K37">
       <formula1>0</formula1>
       <formula2>TOTALEIF</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TOTAL to equal EIF Total" prompt="The Project Manager is to modify the projected cash flow as appropriate, ensuring ACTUAL spend is listed where available, and best estimate is used for future spend. The total should equal the EIF allocated. The total will be red if it is not equal to EIF" sqref="I38"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I25">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I25:I37">
       <formula1>0</formula1>
       <formula2>TOTALEIF</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="Amount entered must be positive (no negative numbers.) No single amount can be greater than the Total EIF allocated to the project." promptTitle="Show ACTUAL where available" prompt="If the cell is red, please update it with the actual value for period shown in the cell to the left._x000a_HINT: You can move this box so it does not obscure the column, or click away from the column to hide it." sqref="I37">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E25">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E37">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F25">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="F37">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G25">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G26">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G27">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G28">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G29">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G30">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G31">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G32">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G33">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G34">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G35">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G36">
-      <formula1>0</formula1>
-      <formula2>TOTALEIF</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="G37">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="AMOUNT ERROR" error="The amount entered must be positive (no negative numbers), and must not be greater than the total EIF allocated to the project." sqref="E25:G37">
       <formula1>0</formula1>
       <formula2>TOTALEIF</formula2>
     </dataValidation>
@@ -41827,8 +41541,8 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -42598,7 +42312,7 @@
       </c>
       <c r="L28" s="194"/>
       <c r="M28" s="315" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N28" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42646,7 +42360,7 @@
       </c>
       <c r="L29" s="194"/>
       <c r="M29" s="315" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
       <c r="N29" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42669,10 +42383,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="323" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="323" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" s="323" t="s">
-        <v>91</v>
       </c>
       <c r="F30" s="191">
         <v>41243</v>
@@ -42694,7 +42408,7 @@
       <c r="K30" s="193"/>
       <c r="L30" s="194"/>
       <c r="M30" s="315" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="N30" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42717,10 +42431,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="323" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="323" t="s">
         <v>92</v>
-      </c>
-      <c r="E31" s="323" t="s">
-        <v>93</v>
       </c>
       <c r="F31" s="191">
         <v>41258</v>
@@ -42741,7 +42455,7 @@
       </c>
       <c r="L31" s="194"/>
       <c r="M31" s="315" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N31" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42766,10 +42480,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="323" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="323" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="323" t="s">
-        <v>95</v>
       </c>
       <c r="F32" s="191">
         <v>41258</v>
@@ -42790,7 +42504,7 @@
       </c>
       <c r="L32" s="194"/>
       <c r="M32" s="315" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N32" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42815,10 +42529,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="323" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="323" t="s">
         <v>96</v>
-      </c>
-      <c r="E33" s="323" t="s">
-        <v>97</v>
       </c>
       <c r="F33" s="191">
         <v>41333</v>
@@ -42840,7 +42554,7 @@
       </c>
       <c r="L33" s="194"/>
       <c r="M33" s="315" t="s">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="N33" s="162" t="str">
         <f t="shared" si="1"/>
@@ -42865,10 +42579,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="323" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34" s="323" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="191">
         <v>41334</v>
@@ -42911,10 +42625,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="323" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="323" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="191">
         <v>41600</v>
@@ -42957,10 +42671,10 @@
         <v>18</v>
       </c>
       <c r="D36" s="323" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36" s="323" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="191">
         <v>41820</v>
@@ -43002,7 +42716,7 @@
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
@@ -43010,7 +42724,7 @@
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
       <c r="O37" s="226" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P37" s="226" t="str">
         <f>IF(COUNTIF(P19:P36,"RED")&gt;0,"RED",IF(COUNTIF(P19:P36,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -44273,7 +43987,7 @@
     <row r="15" spans="1:18" ht="20" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -44300,7 +44014,7 @@
     <row r="16" spans="1:18" ht="17" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="477" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -44338,29 +44052,29 @@
     </row>
     <row r="18" spans="1:18" ht="47.25" customHeight="1">
       <c r="B18" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="E18" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="F18" s="76" t="s">
         <v>111</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>113</v>
       </c>
       <c r="G18" s="180"/>
       <c r="H18" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="76" t="s">
         <v>114</v>
-      </c>
-      <c r="I18" s="181" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>116</v>
       </c>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
@@ -44613,17 +44327,17 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="B28" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>119</v>
       </c>
       <c r="E28" s="476"/>
       <c r="F28" s="84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -45108,7 +44822,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B19" sqref="B19:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -45265,7 +44979,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
@@ -45289,7 +45003,7 @@
     <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="477" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -45323,16 +45037,16 @@
     </row>
     <row r="18" spans="1:15" ht="27" customHeight="1">
       <c r="B18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="E18" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>126</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="4"/>
@@ -45350,16 +45064,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="302" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="416" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="304" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="410" t="s">
         <v>127</v>
-      </c>
-      <c r="C19" s="416" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="304" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" s="410" t="s">
-        <v>129</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="48" t="str">
@@ -45380,13 +45094,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="303" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="304" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E20" s="410" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="48" t="str">
@@ -45407,13 +45121,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="303" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="304" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="410" t="s">
         <v>131</v>
-      </c>
-      <c r="D21" s="304" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="410" t="s">
-        <v>133</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="48" t="str">
@@ -45434,13 +45148,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="303" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="304" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E22" s="410" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="48" t="str">
@@ -45461,13 +45175,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="306" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="307" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="411" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="48" t="str">
@@ -46136,7 +45850,7 @@
     <row r="15" spans="1:28" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -46153,7 +45867,7 @@
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
       <c r="L15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
@@ -46165,7 +45879,7 @@
     <row r="16" spans="1:28" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="186"/>
       <c r="D16" s="46"/>
@@ -46177,7 +45891,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="91"/>
       <c r="L16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="str">
@@ -46198,7 +45912,7 @@
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
@@ -46209,32 +45923,32 @@
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="57.75" customHeight="1">
       <c r="B18" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="E18" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="F18" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="G18" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="I18" s="51" t="s">
         <v>146</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -46243,10 +45957,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="324" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="325" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="326">
         <v>0</v>
@@ -46530,13 +46244,13 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="33"/>
       <c r="J28" s="63"/>
       <c r="K28" s="99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M28" s="32" t="str">
         <f>IF(COUNTIF(M19:M27,"RED")&gt;0,"RED",IF(COUNTIF(M19:M27,"AMBER")&gt;0,"AMBER","GREEN"))</f>
@@ -50927,7 +50641,7 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -51076,7 +50790,7 @@
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="B15" s="94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -51085,7 +50799,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51101,22 +50815,22 @@
     </row>
     <row r="18" spans="1:7" ht="44" customHeight="1">
       <c r="B18" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="227" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="227" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="227" t="s">
+      <c r="E18" s="227" t="s">
         <v>156</v>
-      </c>
-      <c r="D18" s="227" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="227" t="s">
-        <v>158</v>
       </c>
       <c r="F18" s="227" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="214" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1">
@@ -51124,87 +50838,87 @@
         <v>48</v>
       </c>
       <c r="B19" s="281" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="281" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="282">
         <v>41000</v>
       </c>
       <c r="E19" s="281" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="461" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" ht="44" customHeight="1">
       <c r="B20" s="281" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="281" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="282">
         <v>41122</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="461"/>
       <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" ht="44" customHeight="1">
       <c r="B21" s="281" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="281" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" s="282"/>
       <c r="E21" s="281" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="461" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G21" s="96"/>
     </row>
     <row r="22" spans="1:7" ht="44" customHeight="1">
       <c r="B22" s="281" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="281" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="282">
         <v>41122</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F22" s="461" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
       <c r="B23" s="281" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="281" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="282">
         <v>41091</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="461" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G23" s="96"/>
     </row>
@@ -51546,8 +51260,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R28" sqref="R26:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -51773,7 +51487,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -51785,7 +51499,7 @@
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1">
       <c r="B16" s="477" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="477"/>
       <c r="D16" s="477"/>
@@ -51813,81 +51527,81 @@
       <c r="E18" s="137"/>
       <c r="F18" s="137"/>
       <c r="G18" s="481" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H18" s="482"/>
       <c r="I18" s="481" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J18" s="482"/>
       <c r="K18" s="481" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L18" s="482"/>
       <c r="M18" s="479" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N18" s="480"/>
       <c r="O18" s="479" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P18" s="480"/>
       <c r="Q18" s="479" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R18" s="480"/>
     </row>
     <row r="19" spans="2:18" ht="32" customHeight="1">
       <c r="B19" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="E19" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="F19" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="G19" s="216" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="217" t="s">
+      <c r="H19" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="216" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>190</v>
-      </c>
       <c r="I19" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J19" s="144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K19" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L19" s="144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M19" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N19" s="144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O19" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P19" s="144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R19" s="144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:18" s="4" customFormat="1" ht="28" customHeight="1">
@@ -51904,19 +51618,19 @@
         <v>41044</v>
       </c>
       <c r="F20" s="286" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G20" s="287">
         <v>15</v>
       </c>
       <c r="H20" s="146">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I20" s="145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J20" s="147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="147"/>
@@ -51931,7 +51645,9 @@
       <c r="Q20" s="145">
         <v>32500</v>
       </c>
-      <c r="R20" s="147"/>
+      <c r="R20" s="147">
+        <v>45000</v>
+      </c>
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="283">
@@ -51947,19 +51663,19 @@
         <v>41136</v>
       </c>
       <c r="F21" s="286" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G21" s="287">
         <v>0</v>
       </c>
       <c r="H21" s="146">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I21" s="145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J21" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K21" s="145"/>
       <c r="L21" s="147"/>
@@ -51984,7 +51700,7 @@
         <v>41167</v>
       </c>
       <c r="F22" s="286" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" s="287">
         <v>0</v>
@@ -51993,10 +51709,10 @@
         <v>4</v>
       </c>
       <c r="I22" s="145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J22" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K22" s="145"/>
       <c r="L22" s="147"/>
@@ -52021,19 +51737,19 @@
         <v>41167</v>
       </c>
       <c r="F23" s="286" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G23" s="287">
         <v>9</v>
       </c>
       <c r="H23" s="147">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I23" s="145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J23" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K23" s="145"/>
       <c r="L23" s="147">
@@ -52068,15 +51784,15 @@
         <v>41212</v>
       </c>
       <c r="F24" s="286" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G24" s="287"/>
       <c r="H24" s="147">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I24" s="145"/>
       <c r="J24" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K24" s="145"/>
       <c r="L24" s="147"/>
@@ -52101,7 +51817,7 @@
         <v>41228</v>
       </c>
       <c r="F25" s="286" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G25" s="287"/>
       <c r="H25" s="147"/>
@@ -52121,7 +51837,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="283" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="284">
         <v>41258</v>
@@ -52130,15 +51846,15 @@
         <v>41304</v>
       </c>
       <c r="F26" s="286" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G26" s="287"/>
       <c r="H26" s="147">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I26" s="145"/>
       <c r="J26" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K26" s="145"/>
       <c r="L26" s="147"/>
@@ -52154,7 +51870,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="284">
         <v>41258</v>
@@ -52163,17 +51879,17 @@
         <v>41304</v>
       </c>
       <c r="F27" s="286" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G27" s="287"/>
       <c r="H27" s="147">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I27" s="145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J27" s="148" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K27" s="145"/>
       <c r="L27" s="147"/>
@@ -52189,7 +51905,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="283" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="284">
         <v>41333</v>
@@ -52198,7 +51914,7 @@
         <v>41363</v>
       </c>
       <c r="F28" s="286" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G28" s="287"/>
       <c r="H28" s="147"/>
@@ -52311,7 +52027,7 @@
     <row r="34" spans="2:18" ht="15" customHeight="1"/>
     <row r="35" spans="2:18" ht="46" customHeight="1">
       <c r="C35" s="158" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="159"/>
     </row>
@@ -52320,7 +52036,7 @@
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:18" ht="14" customHeight="1">
@@ -52337,27 +52053,27 @@
     <row r="40" spans="2:18">
       <c r="B40" s="17"/>
       <c r="C40" s="460" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="2:18">
       <c r="C41" s="460" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="2:18">
       <c r="C42" s="460" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:18">
       <c r="C43" s="460" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:18">
       <c r="C44" s="460" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="5"/>
@@ -52366,7 +52082,7 @@
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1">
       <c r="C45" s="460" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -52563,7 +52279,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -52734,7 +52450,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1">
       <c r="A15" s="65"/>
       <c r="B15" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -52755,20 +52471,20 @@
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="218" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="E17" s="55" t="s">
         <v>211</v>
-      </c>
-      <c r="D17" s="218" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>213</v>
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" customHeight="1">
@@ -52776,16 +52492,16 @@
         <v>48</v>
       </c>
       <c r="B18" s="290" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C18" s="296" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D18" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E18" s="299" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="57" t="str">
@@ -52796,13 +52512,13 @@
     <row r="19" spans="1:7" ht="28" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="290" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="296" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="275" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" s="298"/>
       <c r="F19" s="101"/>
@@ -52814,13 +52530,13 @@
     <row r="20" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="290" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C20" s="296" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D20" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E20" s="298"/>
       <c r="F20" s="101"/>
@@ -52831,16 +52547,16 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B21" s="290" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C21" s="296" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E21" s="299" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="57" t="str">
@@ -52850,13 +52566,13 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="B22" s="308" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C22" s="461" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D22" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E22" s="298"/>
       <c r="F22" s="101"/>
@@ -52869,7 +52585,7 @@
       <c r="B23" s="290"/>
       <c r="C23" s="296"/>
       <c r="D23" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" s="298"/>
       <c r="F23" s="101"/>
@@ -52882,7 +52598,7 @@
       <c r="B24" s="290"/>
       <c r="C24" s="296"/>
       <c r="D24" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="298"/>
       <c r="F24" s="101"/>
@@ -52895,7 +52611,7 @@
       <c r="B25" s="290"/>
       <c r="C25" s="296"/>
       <c r="D25" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" s="298"/>
       <c r="F25" s="101"/>
@@ -52908,7 +52624,7 @@
       <c r="B26" s="291"/>
       <c r="C26" s="297"/>
       <c r="D26" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" s="299"/>
       <c r="F26" s="70"/>
@@ -52921,7 +52637,7 @@
       <c r="B27" s="291"/>
       <c r="C27" s="297"/>
       <c r="D27" s="275" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="299"/>
       <c r="F27" s="70"/>
@@ -52932,14 +52648,14 @@
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1">
       <c r="B28" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D28" s="219"/>
       <c r="E28" s="122" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="58"/>
@@ -53644,7 +53360,7 @@
     </row>
     <row r="15" spans="1:18" ht="19" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -53660,7 +53376,7 @@
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="B16" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -53672,7 +53388,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="489" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M16" s="489"/>
       <c r="N16" s="489"/>
@@ -53705,7 +53421,7 @@
       <c r="U17" s="65"/>
       <c r="V17" s="65"/>
       <c r="AA17" s="489" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB17" s="489"/>
       <c r="AC17" s="489"/>
@@ -53725,25 +53441,25 @@
       <c r="J18" s="68"/>
       <c r="K18" s="107"/>
       <c r="L18" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="M18" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="N18" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="M18" s="83" t="s">
+      <c r="O18" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="83" t="s">
+      <c r="P18" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="O18" s="83" t="s">
+      <c r="Q18" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="P18" s="83" t="s">
+      <c r="R18" s="83" t="s">
         <v>229</v>
-      </c>
-      <c r="Q18" s="83" t="s">
-        <v>230</v>
-      </c>
-      <c r="R18" s="83" t="s">
-        <v>231</v>
       </c>
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
@@ -53760,12 +53476,12 @@
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
       <c r="D19" s="486" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E19" s="487"/>
       <c r="F19" s="488"/>
       <c r="G19" s="486" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H19" s="487"/>
       <c r="I19" s="488"/>
@@ -53780,29 +53496,29 @@
       <c r="R19" s="83"/>
       <c r="S19" s="65"/>
       <c r="T19" s="486" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="U19" s="487"/>
       <c r="V19" s="488"/>
       <c r="W19" s="486" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X19" s="487"/>
       <c r="Y19" s="488"/>
       <c r="AA19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="AE19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1">
@@ -53810,22 +53526,22 @@
       <c r="B20" s="106"/>
       <c r="C20" s="106"/>
       <c r="D20" s="167" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="169" t="s">
-        <v>241</v>
-      </c>
       <c r="G20" s="167" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" s="169" t="s">
         <v>239</v>
-      </c>
-      <c r="H20" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="169" t="s">
-        <v>241</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="108"/>
@@ -53838,19 +53554,19 @@
       <c r="R20" s="83"/>
       <c r="S20" s="65"/>
       <c r="T20" s="256" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U20" s="257" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V20" s="258" t="s">
         <v>35</v>
       </c>
       <c r="W20" s="256" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X20" s="257" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y20" s="258" t="s">
         <v>35</v>
@@ -53866,7 +53582,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="163"/>
       <c r="D21" s="174">
@@ -53906,7 +53622,7 @@
     <row r="22" spans="1:31" ht="28" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="174">
@@ -53946,7 +53662,7 @@
     <row r="23" spans="1:31" ht="28" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="112" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="164"/>
       <c r="D23" s="174">
@@ -54114,7 +53830,7 @@
     <row r="26" spans="1:31" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="230" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C26" s="231"/>
       <c r="D26" s="232"/>
